--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-clover/tests/testdata/src_px2/px-files/sitemaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9E16C3-9109-054F-9522-C107413E5433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.11</t>
   </si>
   <si>
-    <t>「px2-report」 サイトマップ</t>
-  </si>
-  <si>
     <t>Exported: 2020-03-30 21:22:23</t>
   </si>
   <si>
@@ -156,58 +158,78 @@
   </si>
   <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>Test Page A</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_a/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test Page A/B</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_a/b.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「px2-clover」 サイトマップ</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Source Han Code JP EL"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -215,10 +237,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -234,19 +253,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -260,13 +285,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -274,13 +300,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -288,48 +315,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -619,42 +640,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:YZ12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:YZ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="YZ12" sqref="YZ12"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="2" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="40" customWidth="true" style="0"/>
-    <col min="12" max="12" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="18" width="30" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:676" customHeight="1" ht="10">
+    <row r="1" spans="1:676" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,164 +1345,164 @@
       <c r="YY1" s="1"/>
       <c r="YZ1" s="1"/>
     </row>
-    <row r="3" spans="1:676">
+    <row r="3" spans="1:676" ht="38">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:676">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:676">
       <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:676">
       <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="W8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Z8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:676">
       <c r="A9" s="4"/>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1502,7 +1513,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1510,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="8"/>
@@ -1524,702 +1535,764 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="12" spans="1:676" customHeight="1" ht="5">
-      <c r="A12" s="9" t="s">
+    <row r="10" spans="1:676">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
-      <c r="BG12" s="9"/>
-      <c r="BH12" s="9"/>
-      <c r="BI12" s="9"/>
-      <c r="BJ12" s="9"/>
-      <c r="BK12" s="9"/>
-      <c r="BL12" s="9"/>
-      <c r="BM12" s="9"/>
-      <c r="BN12" s="9"/>
-      <c r="BO12" s="9"/>
-      <c r="BP12" s="9"/>
-      <c r="BQ12" s="9"/>
-      <c r="BR12" s="9"/>
-      <c r="BS12" s="9"/>
-      <c r="BT12" s="9"/>
-      <c r="BU12" s="9"/>
-      <c r="BV12" s="9"/>
-      <c r="BW12" s="9"/>
-      <c r="BX12" s="9"/>
-      <c r="BY12" s="9"/>
-      <c r="BZ12" s="9"/>
-      <c r="CA12" s="9"/>
-      <c r="CB12" s="9"/>
-      <c r="CC12" s="9"/>
-      <c r="CD12" s="9"/>
-      <c r="CE12" s="9"/>
-      <c r="CF12" s="9"/>
-      <c r="CG12" s="9"/>
-      <c r="CH12" s="9"/>
-      <c r="CI12" s="9"/>
-      <c r="CJ12" s="9"/>
-      <c r="CK12" s="9"/>
-      <c r="CL12" s="9"/>
-      <c r="CM12" s="9"/>
-      <c r="CN12" s="9"/>
-      <c r="CO12" s="9"/>
-      <c r="CP12" s="9"/>
-      <c r="CQ12" s="9"/>
-      <c r="CR12" s="9"/>
-      <c r="CS12" s="9"/>
-      <c r="CT12" s="9"/>
-      <c r="CU12" s="9"/>
-      <c r="CV12" s="9"/>
-      <c r="CW12" s="9"/>
-      <c r="CX12" s="9"/>
-      <c r="CY12" s="9"/>
-      <c r="CZ12" s="9"/>
-      <c r="DA12" s="9"/>
-      <c r="DB12" s="9"/>
-      <c r="DC12" s="9"/>
-      <c r="DD12" s="9"/>
-      <c r="DE12" s="9"/>
-      <c r="DF12" s="9"/>
-      <c r="DG12" s="9"/>
-      <c r="DH12" s="9"/>
-      <c r="DI12" s="9"/>
-      <c r="DJ12" s="9"/>
-      <c r="DK12" s="9"/>
-      <c r="DL12" s="9"/>
-      <c r="DM12" s="9"/>
-      <c r="DN12" s="9"/>
-      <c r="DO12" s="9"/>
-      <c r="DP12" s="9"/>
-      <c r="DQ12" s="9"/>
-      <c r="DR12" s="9"/>
-      <c r="DS12" s="9"/>
-      <c r="DT12" s="9"/>
-      <c r="DU12" s="9"/>
-      <c r="DV12" s="9"/>
-      <c r="DW12" s="9"/>
-      <c r="DX12" s="9"/>
-      <c r="DY12" s="9"/>
-      <c r="DZ12" s="9"/>
-      <c r="EA12" s="9"/>
-      <c r="EB12" s="9"/>
-      <c r="EC12" s="9"/>
-      <c r="ED12" s="9"/>
-      <c r="EE12" s="9"/>
-      <c r="EF12" s="9"/>
-      <c r="EG12" s="9"/>
-      <c r="EH12" s="9"/>
-      <c r="EI12" s="9"/>
-      <c r="EJ12" s="9"/>
-      <c r="EK12" s="9"/>
-      <c r="EL12" s="9"/>
-      <c r="EM12" s="9"/>
-      <c r="EN12" s="9"/>
-      <c r="EO12" s="9"/>
-      <c r="EP12" s="9"/>
-      <c r="EQ12" s="9"/>
-      <c r="ER12" s="9"/>
-      <c r="ES12" s="9"/>
-      <c r="ET12" s="9"/>
-      <c r="EU12" s="9"/>
-      <c r="EV12" s="9"/>
-      <c r="EW12" s="9"/>
-      <c r="EX12" s="9"/>
-      <c r="EY12" s="9"/>
-      <c r="EZ12" s="9"/>
-      <c r="FA12" s="9"/>
-      <c r="FB12" s="9"/>
-      <c r="FC12" s="9"/>
-      <c r="FD12" s="9"/>
-      <c r="FE12" s="9"/>
-      <c r="FF12" s="9"/>
-      <c r="FG12" s="9"/>
-      <c r="FH12" s="9"/>
-      <c r="FI12" s="9"/>
-      <c r="FJ12" s="9"/>
-      <c r="FK12" s="9"/>
-      <c r="FL12" s="9"/>
-      <c r="FM12" s="9"/>
-      <c r="FN12" s="9"/>
-      <c r="FO12" s="9"/>
-      <c r="FP12" s="9"/>
-      <c r="FQ12" s="9"/>
-      <c r="FR12" s="9"/>
-      <c r="FS12" s="9"/>
-      <c r="FT12" s="9"/>
-      <c r="FU12" s="9"/>
-      <c r="FV12" s="9"/>
-      <c r="FW12" s="9"/>
-      <c r="FX12" s="9"/>
-      <c r="FY12" s="9"/>
-      <c r="FZ12" s="9"/>
-      <c r="GA12" s="9"/>
-      <c r="GB12" s="9"/>
-      <c r="GC12" s="9"/>
-      <c r="GD12" s="9"/>
-      <c r="GE12" s="9"/>
-      <c r="GF12" s="9"/>
-      <c r="GG12" s="9"/>
-      <c r="GH12" s="9"/>
-      <c r="GI12" s="9"/>
-      <c r="GJ12" s="9"/>
-      <c r="GK12" s="9"/>
-      <c r="GL12" s="9"/>
-      <c r="GM12" s="9"/>
-      <c r="GN12" s="9"/>
-      <c r="GO12" s="9"/>
-      <c r="GP12" s="9"/>
-      <c r="GQ12" s="9"/>
-      <c r="GR12" s="9"/>
-      <c r="GS12" s="9"/>
-      <c r="GT12" s="9"/>
-      <c r="GU12" s="9"/>
-      <c r="GV12" s="9"/>
-      <c r="GW12" s="9"/>
-      <c r="GX12" s="9"/>
-      <c r="GY12" s="9"/>
-      <c r="GZ12" s="9"/>
-      <c r="HA12" s="9"/>
-      <c r="HB12" s="9"/>
-      <c r="HC12" s="9"/>
-      <c r="HD12" s="9"/>
-      <c r="HE12" s="9"/>
-      <c r="HF12" s="9"/>
-      <c r="HG12" s="9"/>
-      <c r="HH12" s="9"/>
-      <c r="HI12" s="9"/>
-      <c r="HJ12" s="9"/>
-      <c r="HK12" s="9"/>
-      <c r="HL12" s="9"/>
-      <c r="HM12" s="9"/>
-      <c r="HN12" s="9"/>
-      <c r="HO12" s="9"/>
-      <c r="HP12" s="9"/>
-      <c r="HQ12" s="9"/>
-      <c r="HR12" s="9"/>
-      <c r="HS12" s="9"/>
-      <c r="HT12" s="9"/>
-      <c r="HU12" s="9"/>
-      <c r="HV12" s="9"/>
-      <c r="HW12" s="9"/>
-      <c r="HX12" s="9"/>
-      <c r="HY12" s="9"/>
-      <c r="HZ12" s="9"/>
-      <c r="IA12" s="9"/>
-      <c r="IB12" s="9"/>
-      <c r="IC12" s="9"/>
-      <c r="ID12" s="9"/>
-      <c r="IE12" s="9"/>
-      <c r="IF12" s="9"/>
-      <c r="IG12" s="9"/>
-      <c r="IH12" s="9"/>
-      <c r="II12" s="9"/>
-      <c r="IJ12" s="9"/>
-      <c r="IK12" s="9"/>
-      <c r="IL12" s="9"/>
-      <c r="IM12" s="9"/>
-      <c r="IN12" s="9"/>
-      <c r="IO12" s="9"/>
-      <c r="IP12" s="9"/>
-      <c r="IQ12" s="9"/>
-      <c r="IR12" s="9"/>
-      <c r="IS12" s="9"/>
-      <c r="IT12" s="9"/>
-      <c r="IU12" s="9"/>
-      <c r="IV12" s="9"/>
-      <c r="IW12" s="9"/>
-      <c r="IX12" s="9"/>
-      <c r="IY12" s="9"/>
-      <c r="IZ12" s="9"/>
-      <c r="JA12" s="9"/>
-      <c r="JB12" s="9"/>
-      <c r="JC12" s="9"/>
-      <c r="JD12" s="9"/>
-      <c r="JE12" s="9"/>
-      <c r="JF12" s="9"/>
-      <c r="JG12" s="9"/>
-      <c r="JH12" s="9"/>
-      <c r="JI12" s="9"/>
-      <c r="JJ12" s="9"/>
-      <c r="JK12" s="9"/>
-      <c r="JL12" s="9"/>
-      <c r="JM12" s="9"/>
-      <c r="JN12" s="9"/>
-      <c r="JO12" s="9"/>
-      <c r="JP12" s="9"/>
-      <c r="JQ12" s="9"/>
-      <c r="JR12" s="9"/>
-      <c r="JS12" s="9"/>
-      <c r="JT12" s="9"/>
-      <c r="JU12" s="9"/>
-      <c r="JV12" s="9"/>
-      <c r="JW12" s="9"/>
-      <c r="JX12" s="9"/>
-      <c r="JY12" s="9"/>
-      <c r="JZ12" s="9"/>
-      <c r="KA12" s="9"/>
-      <c r="KB12" s="9"/>
-      <c r="KC12" s="9"/>
-      <c r="KD12" s="9"/>
-      <c r="KE12" s="9"/>
-      <c r="KF12" s="9"/>
-      <c r="KG12" s="9"/>
-      <c r="KH12" s="9"/>
-      <c r="KI12" s="9"/>
-      <c r="KJ12" s="9"/>
-      <c r="KK12" s="9"/>
-      <c r="KL12" s="9"/>
-      <c r="KM12" s="9"/>
-      <c r="KN12" s="9"/>
-      <c r="KO12" s="9"/>
-      <c r="KP12" s="9"/>
-      <c r="KQ12" s="9"/>
-      <c r="KR12" s="9"/>
-      <c r="KS12" s="9"/>
-      <c r="KT12" s="9"/>
-      <c r="KU12" s="9"/>
-      <c r="KV12" s="9"/>
-      <c r="KW12" s="9"/>
-      <c r="KX12" s="9"/>
-      <c r="KY12" s="9"/>
-      <c r="KZ12" s="9"/>
-      <c r="LA12" s="9"/>
-      <c r="LB12" s="9"/>
-      <c r="LC12" s="9"/>
-      <c r="LD12" s="9"/>
-      <c r="LE12" s="9"/>
-      <c r="LF12" s="9"/>
-      <c r="LG12" s="9"/>
-      <c r="LH12" s="9"/>
-      <c r="LI12" s="9"/>
-      <c r="LJ12" s="9"/>
-      <c r="LK12" s="9"/>
-      <c r="LL12" s="9"/>
-      <c r="LM12" s="9"/>
-      <c r="LN12" s="9"/>
-      <c r="LO12" s="9"/>
-      <c r="LP12" s="9"/>
-      <c r="LQ12" s="9"/>
-      <c r="LR12" s="9"/>
-      <c r="LS12" s="9"/>
-      <c r="LT12" s="9"/>
-      <c r="LU12" s="9"/>
-      <c r="LV12" s="9"/>
-      <c r="LW12" s="9"/>
-      <c r="LX12" s="9"/>
-      <c r="LY12" s="9"/>
-      <c r="LZ12" s="9"/>
-      <c r="MA12" s="9"/>
-      <c r="MB12" s="9"/>
-      <c r="MC12" s="9"/>
-      <c r="MD12" s="9"/>
-      <c r="ME12" s="9"/>
-      <c r="MF12" s="9"/>
-      <c r="MG12" s="9"/>
-      <c r="MH12" s="9"/>
-      <c r="MI12" s="9"/>
-      <c r="MJ12" s="9"/>
-      <c r="MK12" s="9"/>
-      <c r="ML12" s="9"/>
-      <c r="MM12" s="9"/>
-      <c r="MN12" s="9"/>
-      <c r="MO12" s="9"/>
-      <c r="MP12" s="9"/>
-      <c r="MQ12" s="9"/>
-      <c r="MR12" s="9"/>
-      <c r="MS12" s="9"/>
-      <c r="MT12" s="9"/>
-      <c r="MU12" s="9"/>
-      <c r="MV12" s="9"/>
-      <c r="MW12" s="9"/>
-      <c r="MX12" s="9"/>
-      <c r="MY12" s="9"/>
-      <c r="MZ12" s="9"/>
-      <c r="NA12" s="9"/>
-      <c r="NB12" s="9"/>
-      <c r="NC12" s="9"/>
-      <c r="ND12" s="9"/>
-      <c r="NE12" s="9"/>
-      <c r="NF12" s="9"/>
-      <c r="NG12" s="9"/>
-      <c r="NH12" s="9"/>
-      <c r="NI12" s="9"/>
-      <c r="NJ12" s="9"/>
-      <c r="NK12" s="9"/>
-      <c r="NL12" s="9"/>
-      <c r="NM12" s="9"/>
-      <c r="NN12" s="9"/>
-      <c r="NO12" s="9"/>
-      <c r="NP12" s="9"/>
-      <c r="NQ12" s="9"/>
-      <c r="NR12" s="9"/>
-      <c r="NS12" s="9"/>
-      <c r="NT12" s="9"/>
-      <c r="NU12" s="9"/>
-      <c r="NV12" s="9"/>
-      <c r="NW12" s="9"/>
-      <c r="NX12" s="9"/>
-      <c r="NY12" s="9"/>
-      <c r="NZ12" s="9"/>
-      <c r="OA12" s="9"/>
-      <c r="OB12" s="9"/>
-      <c r="OC12" s="9"/>
-      <c r="OD12" s="9"/>
-      <c r="OE12" s="9"/>
-      <c r="OF12" s="9"/>
-      <c r="OG12" s="9"/>
-      <c r="OH12" s="9"/>
-      <c r="OI12" s="9"/>
-      <c r="OJ12" s="9"/>
-      <c r="OK12" s="9"/>
-      <c r="OL12" s="9"/>
-      <c r="OM12" s="9"/>
-      <c r="ON12" s="9"/>
-      <c r="OO12" s="9"/>
-      <c r="OP12" s="9"/>
-      <c r="OQ12" s="9"/>
-      <c r="OR12" s="9"/>
-      <c r="OS12" s="9"/>
-      <c r="OT12" s="9"/>
-      <c r="OU12" s="9"/>
-      <c r="OV12" s="9"/>
-      <c r="OW12" s="9"/>
-      <c r="OX12" s="9"/>
-      <c r="OY12" s="9"/>
-      <c r="OZ12" s="9"/>
-      <c r="PA12" s="9"/>
-      <c r="PB12" s="9"/>
-      <c r="PC12" s="9"/>
-      <c r="PD12" s="9"/>
-      <c r="PE12" s="9"/>
-      <c r="PF12" s="9"/>
-      <c r="PG12" s="9"/>
-      <c r="PH12" s="9"/>
-      <c r="PI12" s="9"/>
-      <c r="PJ12" s="9"/>
-      <c r="PK12" s="9"/>
-      <c r="PL12" s="9"/>
-      <c r="PM12" s="9"/>
-      <c r="PN12" s="9"/>
-      <c r="PO12" s="9"/>
-      <c r="PP12" s="9"/>
-      <c r="PQ12" s="9"/>
-      <c r="PR12" s="9"/>
-      <c r="PS12" s="9"/>
-      <c r="PT12" s="9"/>
-      <c r="PU12" s="9"/>
-      <c r="PV12" s="9"/>
-      <c r="PW12" s="9"/>
-      <c r="PX12" s="9"/>
-      <c r="PY12" s="9"/>
-      <c r="PZ12" s="9"/>
-      <c r="QA12" s="9"/>
-      <c r="QB12" s="9"/>
-      <c r="QC12" s="9"/>
-      <c r="QD12" s="9"/>
-      <c r="QE12" s="9"/>
-      <c r="QF12" s="9"/>
-      <c r="QG12" s="9"/>
-      <c r="QH12" s="9"/>
-      <c r="QI12" s="9"/>
-      <c r="QJ12" s="9"/>
-      <c r="QK12" s="9"/>
-      <c r="QL12" s="9"/>
-      <c r="QM12" s="9"/>
-      <c r="QN12" s="9"/>
-      <c r="QO12" s="9"/>
-      <c r="QP12" s="9"/>
-      <c r="QQ12" s="9"/>
-      <c r="QR12" s="9"/>
-      <c r="QS12" s="9"/>
-      <c r="QT12" s="9"/>
-      <c r="QU12" s="9"/>
-      <c r="QV12" s="9"/>
-      <c r="QW12" s="9"/>
-      <c r="QX12" s="9"/>
-      <c r="QY12" s="9"/>
-      <c r="QZ12" s="9"/>
-      <c r="RA12" s="9"/>
-      <c r="RB12" s="9"/>
-      <c r="RC12" s="9"/>
-      <c r="RD12" s="9"/>
-      <c r="RE12" s="9"/>
-      <c r="RF12" s="9"/>
-      <c r="RG12" s="9"/>
-      <c r="RH12" s="9"/>
-      <c r="RI12" s="9"/>
-      <c r="RJ12" s="9"/>
-      <c r="RK12" s="9"/>
-      <c r="RL12" s="9"/>
-      <c r="RM12" s="9"/>
-      <c r="RN12" s="9"/>
-      <c r="RO12" s="9"/>
-      <c r="RP12" s="9"/>
-      <c r="RQ12" s="9"/>
-      <c r="RR12" s="9"/>
-      <c r="RS12" s="9"/>
-      <c r="RT12" s="9"/>
-      <c r="RU12" s="9"/>
-      <c r="RV12" s="9"/>
-      <c r="RW12" s="9"/>
-      <c r="RX12" s="9"/>
-      <c r="RY12" s="9"/>
-      <c r="RZ12" s="9"/>
-      <c r="SA12" s="9"/>
-      <c r="SB12" s="9"/>
-      <c r="SC12" s="9"/>
-      <c r="SD12" s="9"/>
-      <c r="SE12" s="9"/>
-      <c r="SF12" s="9"/>
-      <c r="SG12" s="9"/>
-      <c r="SH12" s="9"/>
-      <c r="SI12" s="9"/>
-      <c r="SJ12" s="9"/>
-      <c r="SK12" s="9"/>
-      <c r="SL12" s="9"/>
-      <c r="SM12" s="9"/>
-      <c r="SN12" s="9"/>
-      <c r="SO12" s="9"/>
-      <c r="SP12" s="9"/>
-      <c r="SQ12" s="9"/>
-      <c r="SR12" s="9"/>
-      <c r="SS12" s="9"/>
-      <c r="ST12" s="9"/>
-      <c r="SU12" s="9"/>
-      <c r="SV12" s="9"/>
-      <c r="SW12" s="9"/>
-      <c r="SX12" s="9"/>
-      <c r="SY12" s="9"/>
-      <c r="SZ12" s="9"/>
-      <c r="TA12" s="9"/>
-      <c r="TB12" s="9"/>
-      <c r="TC12" s="9"/>
-      <c r="TD12" s="9"/>
-      <c r="TE12" s="9"/>
-      <c r="TF12" s="9"/>
-      <c r="TG12" s="9"/>
-      <c r="TH12" s="9"/>
-      <c r="TI12" s="9"/>
-      <c r="TJ12" s="9"/>
-      <c r="TK12" s="9"/>
-      <c r="TL12" s="9"/>
-      <c r="TM12" s="9"/>
-      <c r="TN12" s="9"/>
-      <c r="TO12" s="9"/>
-      <c r="TP12" s="9"/>
-      <c r="TQ12" s="9"/>
-      <c r="TR12" s="9"/>
-      <c r="TS12" s="9"/>
-      <c r="TT12" s="9"/>
-      <c r="TU12" s="9"/>
-      <c r="TV12" s="9"/>
-      <c r="TW12" s="9"/>
-      <c r="TX12" s="9"/>
-      <c r="TY12" s="9"/>
-      <c r="TZ12" s="9"/>
-      <c r="UA12" s="9"/>
-      <c r="UB12" s="9"/>
-      <c r="UC12" s="9"/>
-      <c r="UD12" s="9"/>
-      <c r="UE12" s="9"/>
-      <c r="UF12" s="9"/>
-      <c r="UG12" s="9"/>
-      <c r="UH12" s="9"/>
-      <c r="UI12" s="9"/>
-      <c r="UJ12" s="9"/>
-      <c r="UK12" s="9"/>
-      <c r="UL12" s="9"/>
-      <c r="UM12" s="9"/>
-      <c r="UN12" s="9"/>
-      <c r="UO12" s="9"/>
-      <c r="UP12" s="9"/>
-      <c r="UQ12" s="9"/>
-      <c r="UR12" s="9"/>
-      <c r="US12" s="9"/>
-      <c r="UT12" s="9"/>
-      <c r="UU12" s="9"/>
-      <c r="UV12" s="9"/>
-      <c r="UW12" s="9"/>
-      <c r="UX12" s="9"/>
-      <c r="UY12" s="9"/>
-      <c r="UZ12" s="9"/>
-      <c r="VA12" s="9"/>
-      <c r="VB12" s="9"/>
-      <c r="VC12" s="9"/>
-      <c r="VD12" s="9"/>
-      <c r="VE12" s="9"/>
-      <c r="VF12" s="9"/>
-      <c r="VG12" s="9"/>
-      <c r="VH12" s="9"/>
-      <c r="VI12" s="9"/>
-      <c r="VJ12" s="9"/>
-      <c r="VK12" s="9"/>
-      <c r="VL12" s="9"/>
-      <c r="VM12" s="9"/>
-      <c r="VN12" s="9"/>
-      <c r="VO12" s="9"/>
-      <c r="VP12" s="9"/>
-      <c r="VQ12" s="9"/>
-      <c r="VR12" s="9"/>
-      <c r="VS12" s="9"/>
-      <c r="VT12" s="9"/>
-      <c r="VU12" s="9"/>
-      <c r="VV12" s="9"/>
-      <c r="VW12" s="9"/>
-      <c r="VX12" s="9"/>
-      <c r="VY12" s="9"/>
-      <c r="VZ12" s="9"/>
-      <c r="WA12" s="9"/>
-      <c r="WB12" s="9"/>
-      <c r="WC12" s="9"/>
-      <c r="WD12" s="9"/>
-      <c r="WE12" s="9"/>
-      <c r="WF12" s="9"/>
-      <c r="WG12" s="9"/>
-      <c r="WH12" s="9"/>
-      <c r="WI12" s="9"/>
-      <c r="WJ12" s="9"/>
-      <c r="WK12" s="9"/>
-      <c r="WL12" s="9"/>
-      <c r="WM12" s="9"/>
-      <c r="WN12" s="9"/>
-      <c r="WO12" s="9"/>
-      <c r="WP12" s="9"/>
-      <c r="WQ12" s="9"/>
-      <c r="WR12" s="9"/>
-      <c r="WS12" s="9"/>
-      <c r="WT12" s="9"/>
-      <c r="WU12" s="9"/>
-      <c r="WV12" s="9"/>
-      <c r="WW12" s="9"/>
-      <c r="WX12" s="9"/>
-      <c r="WY12" s="9"/>
-      <c r="WZ12" s="9"/>
-      <c r="XA12" s="9"/>
-      <c r="XB12" s="9"/>
-      <c r="XC12" s="9"/>
-      <c r="XD12" s="9"/>
-      <c r="XE12" s="9"/>
-      <c r="XF12" s="9"/>
-      <c r="XG12" s="9"/>
-      <c r="XH12" s="9"/>
-      <c r="XI12" s="9"/>
-      <c r="XJ12" s="9"/>
-      <c r="XK12" s="9"/>
-      <c r="XL12" s="9"/>
-      <c r="XM12" s="9"/>
-      <c r="XN12" s="9"/>
-      <c r="XO12" s="9"/>
-      <c r="XP12" s="9"/>
-      <c r="XQ12" s="9"/>
-      <c r="XR12" s="9"/>
-      <c r="XS12" s="9"/>
-      <c r="XT12" s="9"/>
-      <c r="XU12" s="9"/>
-      <c r="XV12" s="9"/>
-      <c r="XW12" s="9"/>
-      <c r="XX12" s="9"/>
-      <c r="XY12" s="9"/>
-      <c r="XZ12" s="9"/>
-      <c r="YA12" s="9"/>
-      <c r="YB12" s="9"/>
-      <c r="YC12" s="9"/>
-      <c r="YD12" s="9"/>
-      <c r="YE12" s="9"/>
-      <c r="YF12" s="9"/>
-      <c r="YG12" s="9"/>
-      <c r="YH12" s="9"/>
-      <c r="YI12" s="9"/>
-      <c r="YJ12" s="9"/>
-      <c r="YK12" s="9"/>
-      <c r="YL12" s="9"/>
-      <c r="YM12" s="9"/>
-      <c r="YN12" s="9"/>
-      <c r="YO12" s="9"/>
-      <c r="YP12" s="9"/>
-      <c r="YQ12" s="9"/>
-      <c r="YR12" s="9"/>
-      <c r="YS12" s="9"/>
-      <c r="YT12" s="9"/>
-      <c r="YU12" s="9"/>
-      <c r="YV12" s="9"/>
-      <c r="YW12" s="9"/>
-      <c r="YX12" s="9"/>
-      <c r="YY12" s="9"/>
-      <c r="YZ12" s="9"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:676">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="14" spans="1:676" ht="5" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+      <c r="CO14" s="9"/>
+      <c r="CP14" s="9"/>
+      <c r="CQ14" s="9"/>
+      <c r="CR14" s="9"/>
+      <c r="CS14" s="9"/>
+      <c r="CT14" s="9"/>
+      <c r="CU14" s="9"/>
+      <c r="CV14" s="9"/>
+      <c r="CW14" s="9"/>
+      <c r="CX14" s="9"/>
+      <c r="CY14" s="9"/>
+      <c r="CZ14" s="9"/>
+      <c r="DA14" s="9"/>
+      <c r="DB14" s="9"/>
+      <c r="DC14" s="9"/>
+      <c r="DD14" s="9"/>
+      <c r="DE14" s="9"/>
+      <c r="DF14" s="9"/>
+      <c r="DG14" s="9"/>
+      <c r="DH14" s="9"/>
+      <c r="DI14" s="9"/>
+      <c r="DJ14" s="9"/>
+      <c r="DK14" s="9"/>
+      <c r="DL14" s="9"/>
+      <c r="DM14" s="9"/>
+      <c r="DN14" s="9"/>
+      <c r="DO14" s="9"/>
+      <c r="DP14" s="9"/>
+      <c r="DQ14" s="9"/>
+      <c r="DR14" s="9"/>
+      <c r="DS14" s="9"/>
+      <c r="DT14" s="9"/>
+      <c r="DU14" s="9"/>
+      <c r="DV14" s="9"/>
+      <c r="DW14" s="9"/>
+      <c r="DX14" s="9"/>
+      <c r="DY14" s="9"/>
+      <c r="DZ14" s="9"/>
+      <c r="EA14" s="9"/>
+      <c r="EB14" s="9"/>
+      <c r="EC14" s="9"/>
+      <c r="ED14" s="9"/>
+      <c r="EE14" s="9"/>
+      <c r="EF14" s="9"/>
+      <c r="EG14" s="9"/>
+      <c r="EH14" s="9"/>
+      <c r="EI14" s="9"/>
+      <c r="EJ14" s="9"/>
+      <c r="EK14" s="9"/>
+      <c r="EL14" s="9"/>
+      <c r="EM14" s="9"/>
+      <c r="EN14" s="9"/>
+      <c r="EO14" s="9"/>
+      <c r="EP14" s="9"/>
+      <c r="EQ14" s="9"/>
+      <c r="ER14" s="9"/>
+      <c r="ES14" s="9"/>
+      <c r="ET14" s="9"/>
+      <c r="EU14" s="9"/>
+      <c r="EV14" s="9"/>
+      <c r="EW14" s="9"/>
+      <c r="EX14" s="9"/>
+      <c r="EY14" s="9"/>
+      <c r="EZ14" s="9"/>
+      <c r="FA14" s="9"/>
+      <c r="FB14" s="9"/>
+      <c r="FC14" s="9"/>
+      <c r="FD14" s="9"/>
+      <c r="FE14" s="9"/>
+      <c r="FF14" s="9"/>
+      <c r="FG14" s="9"/>
+      <c r="FH14" s="9"/>
+      <c r="FI14" s="9"/>
+      <c r="FJ14" s="9"/>
+      <c r="FK14" s="9"/>
+      <c r="FL14" s="9"/>
+      <c r="FM14" s="9"/>
+      <c r="FN14" s="9"/>
+      <c r="FO14" s="9"/>
+      <c r="FP14" s="9"/>
+      <c r="FQ14" s="9"/>
+      <c r="FR14" s="9"/>
+      <c r="FS14" s="9"/>
+      <c r="FT14" s="9"/>
+      <c r="FU14" s="9"/>
+      <c r="FV14" s="9"/>
+      <c r="FW14" s="9"/>
+      <c r="FX14" s="9"/>
+      <c r="FY14" s="9"/>
+      <c r="FZ14" s="9"/>
+      <c r="GA14" s="9"/>
+      <c r="GB14" s="9"/>
+      <c r="GC14" s="9"/>
+      <c r="GD14" s="9"/>
+      <c r="GE14" s="9"/>
+      <c r="GF14" s="9"/>
+      <c r="GG14" s="9"/>
+      <c r="GH14" s="9"/>
+      <c r="GI14" s="9"/>
+      <c r="GJ14" s="9"/>
+      <c r="GK14" s="9"/>
+      <c r="GL14" s="9"/>
+      <c r="GM14" s="9"/>
+      <c r="GN14" s="9"/>
+      <c r="GO14" s="9"/>
+      <c r="GP14" s="9"/>
+      <c r="GQ14" s="9"/>
+      <c r="GR14" s="9"/>
+      <c r="GS14" s="9"/>
+      <c r="GT14" s="9"/>
+      <c r="GU14" s="9"/>
+      <c r="GV14" s="9"/>
+      <c r="GW14" s="9"/>
+      <c r="GX14" s="9"/>
+      <c r="GY14" s="9"/>
+      <c r="GZ14" s="9"/>
+      <c r="HA14" s="9"/>
+      <c r="HB14" s="9"/>
+      <c r="HC14" s="9"/>
+      <c r="HD14" s="9"/>
+      <c r="HE14" s="9"/>
+      <c r="HF14" s="9"/>
+      <c r="HG14" s="9"/>
+      <c r="HH14" s="9"/>
+      <c r="HI14" s="9"/>
+      <c r="HJ14" s="9"/>
+      <c r="HK14" s="9"/>
+      <c r="HL14" s="9"/>
+      <c r="HM14" s="9"/>
+      <c r="HN14" s="9"/>
+      <c r="HO14" s="9"/>
+      <c r="HP14" s="9"/>
+      <c r="HQ14" s="9"/>
+      <c r="HR14" s="9"/>
+      <c r="HS14" s="9"/>
+      <c r="HT14" s="9"/>
+      <c r="HU14" s="9"/>
+      <c r="HV14" s="9"/>
+      <c r="HW14" s="9"/>
+      <c r="HX14" s="9"/>
+      <c r="HY14" s="9"/>
+      <c r="HZ14" s="9"/>
+      <c r="IA14" s="9"/>
+      <c r="IB14" s="9"/>
+      <c r="IC14" s="9"/>
+      <c r="ID14" s="9"/>
+      <c r="IE14" s="9"/>
+      <c r="IF14" s="9"/>
+      <c r="IG14" s="9"/>
+      <c r="IH14" s="9"/>
+      <c r="II14" s="9"/>
+      <c r="IJ14" s="9"/>
+      <c r="IK14" s="9"/>
+      <c r="IL14" s="9"/>
+      <c r="IM14" s="9"/>
+      <c r="IN14" s="9"/>
+      <c r="IO14" s="9"/>
+      <c r="IP14" s="9"/>
+      <c r="IQ14" s="9"/>
+      <c r="IR14" s="9"/>
+      <c r="IS14" s="9"/>
+      <c r="IT14" s="9"/>
+      <c r="IU14" s="9"/>
+      <c r="IV14" s="9"/>
+      <c r="IW14" s="9"/>
+      <c r="IX14" s="9"/>
+      <c r="IY14" s="9"/>
+      <c r="IZ14" s="9"/>
+      <c r="JA14" s="9"/>
+      <c r="JB14" s="9"/>
+      <c r="JC14" s="9"/>
+      <c r="JD14" s="9"/>
+      <c r="JE14" s="9"/>
+      <c r="JF14" s="9"/>
+      <c r="JG14" s="9"/>
+      <c r="JH14" s="9"/>
+      <c r="JI14" s="9"/>
+      <c r="JJ14" s="9"/>
+      <c r="JK14" s="9"/>
+      <c r="JL14" s="9"/>
+      <c r="JM14" s="9"/>
+      <c r="JN14" s="9"/>
+      <c r="JO14" s="9"/>
+      <c r="JP14" s="9"/>
+      <c r="JQ14" s="9"/>
+      <c r="JR14" s="9"/>
+      <c r="JS14" s="9"/>
+      <c r="JT14" s="9"/>
+      <c r="JU14" s="9"/>
+      <c r="JV14" s="9"/>
+      <c r="JW14" s="9"/>
+      <c r="JX14" s="9"/>
+      <c r="JY14" s="9"/>
+      <c r="JZ14" s="9"/>
+      <c r="KA14" s="9"/>
+      <c r="KB14" s="9"/>
+      <c r="KC14" s="9"/>
+      <c r="KD14" s="9"/>
+      <c r="KE14" s="9"/>
+      <c r="KF14" s="9"/>
+      <c r="KG14" s="9"/>
+      <c r="KH14" s="9"/>
+      <c r="KI14" s="9"/>
+      <c r="KJ14" s="9"/>
+      <c r="KK14" s="9"/>
+      <c r="KL14" s="9"/>
+      <c r="KM14" s="9"/>
+      <c r="KN14" s="9"/>
+      <c r="KO14" s="9"/>
+      <c r="KP14" s="9"/>
+      <c r="KQ14" s="9"/>
+      <c r="KR14" s="9"/>
+      <c r="KS14" s="9"/>
+      <c r="KT14" s="9"/>
+      <c r="KU14" s="9"/>
+      <c r="KV14" s="9"/>
+      <c r="KW14" s="9"/>
+      <c r="KX14" s="9"/>
+      <c r="KY14" s="9"/>
+      <c r="KZ14" s="9"/>
+      <c r="LA14" s="9"/>
+      <c r="LB14" s="9"/>
+      <c r="LC14" s="9"/>
+      <c r="LD14" s="9"/>
+      <c r="LE14" s="9"/>
+      <c r="LF14" s="9"/>
+      <c r="LG14" s="9"/>
+      <c r="LH14" s="9"/>
+      <c r="LI14" s="9"/>
+      <c r="LJ14" s="9"/>
+      <c r="LK14" s="9"/>
+      <c r="LL14" s="9"/>
+      <c r="LM14" s="9"/>
+      <c r="LN14" s="9"/>
+      <c r="LO14" s="9"/>
+      <c r="LP14" s="9"/>
+      <c r="LQ14" s="9"/>
+      <c r="LR14" s="9"/>
+      <c r="LS14" s="9"/>
+      <c r="LT14" s="9"/>
+      <c r="LU14" s="9"/>
+      <c r="LV14" s="9"/>
+      <c r="LW14" s="9"/>
+      <c r="LX14" s="9"/>
+      <c r="LY14" s="9"/>
+      <c r="LZ14" s="9"/>
+      <c r="MA14" s="9"/>
+      <c r="MB14" s="9"/>
+      <c r="MC14" s="9"/>
+      <c r="MD14" s="9"/>
+      <c r="ME14" s="9"/>
+      <c r="MF14" s="9"/>
+      <c r="MG14" s="9"/>
+      <c r="MH14" s="9"/>
+      <c r="MI14" s="9"/>
+      <c r="MJ14" s="9"/>
+      <c r="MK14" s="9"/>
+      <c r="ML14" s="9"/>
+      <c r="MM14" s="9"/>
+      <c r="MN14" s="9"/>
+      <c r="MO14" s="9"/>
+      <c r="MP14" s="9"/>
+      <c r="MQ14" s="9"/>
+      <c r="MR14" s="9"/>
+      <c r="MS14" s="9"/>
+      <c r="MT14" s="9"/>
+      <c r="MU14" s="9"/>
+      <c r="MV14" s="9"/>
+      <c r="MW14" s="9"/>
+      <c r="MX14" s="9"/>
+      <c r="MY14" s="9"/>
+      <c r="MZ14" s="9"/>
+      <c r="NA14" s="9"/>
+      <c r="NB14" s="9"/>
+      <c r="NC14" s="9"/>
+      <c r="ND14" s="9"/>
+      <c r="NE14" s="9"/>
+      <c r="NF14" s="9"/>
+      <c r="NG14" s="9"/>
+      <c r="NH14" s="9"/>
+      <c r="NI14" s="9"/>
+      <c r="NJ14" s="9"/>
+      <c r="NK14" s="9"/>
+      <c r="NL14" s="9"/>
+      <c r="NM14" s="9"/>
+      <c r="NN14" s="9"/>
+      <c r="NO14" s="9"/>
+      <c r="NP14" s="9"/>
+      <c r="NQ14" s="9"/>
+      <c r="NR14" s="9"/>
+      <c r="NS14" s="9"/>
+      <c r="NT14" s="9"/>
+      <c r="NU14" s="9"/>
+      <c r="NV14" s="9"/>
+      <c r="NW14" s="9"/>
+      <c r="NX14" s="9"/>
+      <c r="NY14" s="9"/>
+      <c r="NZ14" s="9"/>
+      <c r="OA14" s="9"/>
+      <c r="OB14" s="9"/>
+      <c r="OC14" s="9"/>
+      <c r="OD14" s="9"/>
+      <c r="OE14" s="9"/>
+      <c r="OF14" s="9"/>
+      <c r="OG14" s="9"/>
+      <c r="OH14" s="9"/>
+      <c r="OI14" s="9"/>
+      <c r="OJ14" s="9"/>
+      <c r="OK14" s="9"/>
+      <c r="OL14" s="9"/>
+      <c r="OM14" s="9"/>
+      <c r="ON14" s="9"/>
+      <c r="OO14" s="9"/>
+      <c r="OP14" s="9"/>
+      <c r="OQ14" s="9"/>
+      <c r="OR14" s="9"/>
+      <c r="OS14" s="9"/>
+      <c r="OT14" s="9"/>
+      <c r="OU14" s="9"/>
+      <c r="OV14" s="9"/>
+      <c r="OW14" s="9"/>
+      <c r="OX14" s="9"/>
+      <c r="OY14" s="9"/>
+      <c r="OZ14" s="9"/>
+      <c r="PA14" s="9"/>
+      <c r="PB14" s="9"/>
+      <c r="PC14" s="9"/>
+      <c r="PD14" s="9"/>
+      <c r="PE14" s="9"/>
+      <c r="PF14" s="9"/>
+      <c r="PG14" s="9"/>
+      <c r="PH14" s="9"/>
+      <c r="PI14" s="9"/>
+      <c r="PJ14" s="9"/>
+      <c r="PK14" s="9"/>
+      <c r="PL14" s="9"/>
+      <c r="PM14" s="9"/>
+      <c r="PN14" s="9"/>
+      <c r="PO14" s="9"/>
+      <c r="PP14" s="9"/>
+      <c r="PQ14" s="9"/>
+      <c r="PR14" s="9"/>
+      <c r="PS14" s="9"/>
+      <c r="PT14" s="9"/>
+      <c r="PU14" s="9"/>
+      <c r="PV14" s="9"/>
+      <c r="PW14" s="9"/>
+      <c r="PX14" s="9"/>
+      <c r="PY14" s="9"/>
+      <c r="PZ14" s="9"/>
+      <c r="QA14" s="9"/>
+      <c r="QB14" s="9"/>
+      <c r="QC14" s="9"/>
+      <c r="QD14" s="9"/>
+      <c r="QE14" s="9"/>
+      <c r="QF14" s="9"/>
+      <c r="QG14" s="9"/>
+      <c r="QH14" s="9"/>
+      <c r="QI14" s="9"/>
+      <c r="QJ14" s="9"/>
+      <c r="QK14" s="9"/>
+      <c r="QL14" s="9"/>
+      <c r="QM14" s="9"/>
+      <c r="QN14" s="9"/>
+      <c r="QO14" s="9"/>
+      <c r="QP14" s="9"/>
+      <c r="QQ14" s="9"/>
+      <c r="QR14" s="9"/>
+      <c r="QS14" s="9"/>
+      <c r="QT14" s="9"/>
+      <c r="QU14" s="9"/>
+      <c r="QV14" s="9"/>
+      <c r="QW14" s="9"/>
+      <c r="QX14" s="9"/>
+      <c r="QY14" s="9"/>
+      <c r="QZ14" s="9"/>
+      <c r="RA14" s="9"/>
+      <c r="RB14" s="9"/>
+      <c r="RC14" s="9"/>
+      <c r="RD14" s="9"/>
+      <c r="RE14" s="9"/>
+      <c r="RF14" s="9"/>
+      <c r="RG14" s="9"/>
+      <c r="RH14" s="9"/>
+      <c r="RI14" s="9"/>
+      <c r="RJ14" s="9"/>
+      <c r="RK14" s="9"/>
+      <c r="RL14" s="9"/>
+      <c r="RM14" s="9"/>
+      <c r="RN14" s="9"/>
+      <c r="RO14" s="9"/>
+      <c r="RP14" s="9"/>
+      <c r="RQ14" s="9"/>
+      <c r="RR14" s="9"/>
+      <c r="RS14" s="9"/>
+      <c r="RT14" s="9"/>
+      <c r="RU14" s="9"/>
+      <c r="RV14" s="9"/>
+      <c r="RW14" s="9"/>
+      <c r="RX14" s="9"/>
+      <c r="RY14" s="9"/>
+      <c r="RZ14" s="9"/>
+      <c r="SA14" s="9"/>
+      <c r="SB14" s="9"/>
+      <c r="SC14" s="9"/>
+      <c r="SD14" s="9"/>
+      <c r="SE14" s="9"/>
+      <c r="SF14" s="9"/>
+      <c r="SG14" s="9"/>
+      <c r="SH14" s="9"/>
+      <c r="SI14" s="9"/>
+      <c r="SJ14" s="9"/>
+      <c r="SK14" s="9"/>
+      <c r="SL14" s="9"/>
+      <c r="SM14" s="9"/>
+      <c r="SN14" s="9"/>
+      <c r="SO14" s="9"/>
+      <c r="SP14" s="9"/>
+      <c r="SQ14" s="9"/>
+      <c r="SR14" s="9"/>
+      <c r="SS14" s="9"/>
+      <c r="ST14" s="9"/>
+      <c r="SU14" s="9"/>
+      <c r="SV14" s="9"/>
+      <c r="SW14" s="9"/>
+      <c r="SX14" s="9"/>
+      <c r="SY14" s="9"/>
+      <c r="SZ14" s="9"/>
+      <c r="TA14" s="9"/>
+      <c r="TB14" s="9"/>
+      <c r="TC14" s="9"/>
+      <c r="TD14" s="9"/>
+      <c r="TE14" s="9"/>
+      <c r="TF14" s="9"/>
+      <c r="TG14" s="9"/>
+      <c r="TH14" s="9"/>
+      <c r="TI14" s="9"/>
+      <c r="TJ14" s="9"/>
+      <c r="TK14" s="9"/>
+      <c r="TL14" s="9"/>
+      <c r="TM14" s="9"/>
+      <c r="TN14" s="9"/>
+      <c r="TO14" s="9"/>
+      <c r="TP14" s="9"/>
+      <c r="TQ14" s="9"/>
+      <c r="TR14" s="9"/>
+      <c r="TS14" s="9"/>
+      <c r="TT14" s="9"/>
+      <c r="TU14" s="9"/>
+      <c r="TV14" s="9"/>
+      <c r="TW14" s="9"/>
+      <c r="TX14" s="9"/>
+      <c r="TY14" s="9"/>
+      <c r="TZ14" s="9"/>
+      <c r="UA14" s="9"/>
+      <c r="UB14" s="9"/>
+      <c r="UC14" s="9"/>
+      <c r="UD14" s="9"/>
+      <c r="UE14" s="9"/>
+      <c r="UF14" s="9"/>
+      <c r="UG14" s="9"/>
+      <c r="UH14" s="9"/>
+      <c r="UI14" s="9"/>
+      <c r="UJ14" s="9"/>
+      <c r="UK14" s="9"/>
+      <c r="UL14" s="9"/>
+      <c r="UM14" s="9"/>
+      <c r="UN14" s="9"/>
+      <c r="UO14" s="9"/>
+      <c r="UP14" s="9"/>
+      <c r="UQ14" s="9"/>
+      <c r="UR14" s="9"/>
+      <c r="US14" s="9"/>
+      <c r="UT14" s="9"/>
+      <c r="UU14" s="9"/>
+      <c r="UV14" s="9"/>
+      <c r="UW14" s="9"/>
+      <c r="UX14" s="9"/>
+      <c r="UY14" s="9"/>
+      <c r="UZ14" s="9"/>
+      <c r="VA14" s="9"/>
+      <c r="VB14" s="9"/>
+      <c r="VC14" s="9"/>
+      <c r="VD14" s="9"/>
+      <c r="VE14" s="9"/>
+      <c r="VF14" s="9"/>
+      <c r="VG14" s="9"/>
+      <c r="VH14" s="9"/>
+      <c r="VI14" s="9"/>
+      <c r="VJ14" s="9"/>
+      <c r="VK14" s="9"/>
+      <c r="VL14" s="9"/>
+      <c r="VM14" s="9"/>
+      <c r="VN14" s="9"/>
+      <c r="VO14" s="9"/>
+      <c r="VP14" s="9"/>
+      <c r="VQ14" s="9"/>
+      <c r="VR14" s="9"/>
+      <c r="VS14" s="9"/>
+      <c r="VT14" s="9"/>
+      <c r="VU14" s="9"/>
+      <c r="VV14" s="9"/>
+      <c r="VW14" s="9"/>
+      <c r="VX14" s="9"/>
+      <c r="VY14" s="9"/>
+      <c r="VZ14" s="9"/>
+      <c r="WA14" s="9"/>
+      <c r="WB14" s="9"/>
+      <c r="WC14" s="9"/>
+      <c r="WD14" s="9"/>
+      <c r="WE14" s="9"/>
+      <c r="WF14" s="9"/>
+      <c r="WG14" s="9"/>
+      <c r="WH14" s="9"/>
+      <c r="WI14" s="9"/>
+      <c r="WJ14" s="9"/>
+      <c r="WK14" s="9"/>
+      <c r="WL14" s="9"/>
+      <c r="WM14" s="9"/>
+      <c r="WN14" s="9"/>
+      <c r="WO14" s="9"/>
+      <c r="WP14" s="9"/>
+      <c r="WQ14" s="9"/>
+      <c r="WR14" s="9"/>
+      <c r="WS14" s="9"/>
+      <c r="WT14" s="9"/>
+      <c r="WU14" s="9"/>
+      <c r="WV14" s="9"/>
+      <c r="WW14" s="9"/>
+      <c r="WX14" s="9"/>
+      <c r="WY14" s="9"/>
+      <c r="WZ14" s="9"/>
+      <c r="XA14" s="9"/>
+      <c r="XB14" s="9"/>
+      <c r="XC14" s="9"/>
+      <c r="XD14" s="9"/>
+      <c r="XE14" s="9"/>
+      <c r="XF14" s="9"/>
+      <c r="XG14" s="9"/>
+      <c r="XH14" s="9"/>
+      <c r="XI14" s="9"/>
+      <c r="XJ14" s="9"/>
+      <c r="XK14" s="9"/>
+      <c r="XL14" s="9"/>
+      <c r="XM14" s="9"/>
+      <c r="XN14" s="9"/>
+      <c r="XO14" s="9"/>
+      <c r="XP14" s="9"/>
+      <c r="XQ14" s="9"/>
+      <c r="XR14" s="9"/>
+      <c r="XS14" s="9"/>
+      <c r="XT14" s="9"/>
+      <c r="XU14" s="9"/>
+      <c r="XV14" s="9"/>
+      <c r="XW14" s="9"/>
+      <c r="XX14" s="9"/>
+      <c r="XY14" s="9"/>
+      <c r="XZ14" s="9"/>
+      <c r="YA14" s="9"/>
+      <c r="YB14" s="9"/>
+      <c r="YC14" s="9"/>
+      <c r="YD14" s="9"/>
+      <c r="YE14" s="9"/>
+      <c r="YF14" s="9"/>
+      <c r="YG14" s="9"/>
+      <c r="YH14" s="9"/>
+      <c r="YI14" s="9"/>
+      <c r="YJ14" s="9"/>
+      <c r="YK14" s="9"/>
+      <c r="YL14" s="9"/>
+      <c r="YM14" s="9"/>
+      <c r="YN14" s="9"/>
+      <c r="YO14" s="9"/>
+      <c r="YP14" s="9"/>
+      <c r="YQ14" s="9"/>
+      <c r="YR14" s="9"/>
+      <c r="YS14" s="9"/>
+      <c r="YT14" s="9"/>
+      <c r="YU14" s="9"/>
+      <c r="YV14" s="9"/>
+      <c r="YW14" s="9"/>
+      <c r="YX14" s="9"/>
+      <c r="YY14" s="9"/>
+      <c r="YZ14" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-clover/tests/testdata/src_px2/px-files/sitemaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9E16C3-9109-054F-9522-C107413E5433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF7763-CA96-CA48-A1F8-BE846689AE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.11</t>
   </si>
@@ -177,6 +177,54 @@
   </si>
   <si>
     <t>「px2-clover」 サイトマップ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test Page A/A</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_a/a.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test Page A/C</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_a/c.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test Page B</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_b/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_b/a.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_b/b.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_b/c.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test Page B/A</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test Page B/B</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test Page B/C</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -321,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -334,6 +382,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -641,13 +690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:YZ14"/>
+  <dimension ref="A1:YZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -1359,13 +1408,13 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1431,13 +1480,13 @@
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1576,7 +1625,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1585,7 +1634,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1605,685 +1654,891 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="14" spans="1:676" ht="5" customHeight="1">
-      <c r="A14" s="9" t="s">
+    <row r="12" spans="1:676">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:676">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:676">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="12">
+        <v>1</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="1:676">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:676">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12">
+        <v>1</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="1:676">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="20" spans="1:676" ht="5" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BG14" s="9"/>
-      <c r="BH14" s="9"/>
-      <c r="BI14" s="9"/>
-      <c r="BJ14" s="9"/>
-      <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="9"/>
-      <c r="BO14" s="9"/>
-      <c r="BP14" s="9"/>
-      <c r="BQ14" s="9"/>
-      <c r="BR14" s="9"/>
-      <c r="BS14" s="9"/>
-      <c r="BT14" s="9"/>
-      <c r="BU14" s="9"/>
-      <c r="BV14" s="9"/>
-      <c r="BW14" s="9"/>
-      <c r="BX14" s="9"/>
-      <c r="BY14" s="9"/>
-      <c r="BZ14" s="9"/>
-      <c r="CA14" s="9"/>
-      <c r="CB14" s="9"/>
-      <c r="CC14" s="9"/>
-      <c r="CD14" s="9"/>
-      <c r="CE14" s="9"/>
-      <c r="CF14" s="9"/>
-      <c r="CG14" s="9"/>
-      <c r="CH14" s="9"/>
-      <c r="CI14" s="9"/>
-      <c r="CJ14" s="9"/>
-      <c r="CK14" s="9"/>
-      <c r="CL14" s="9"/>
-      <c r="CM14" s="9"/>
-      <c r="CN14" s="9"/>
-      <c r="CO14" s="9"/>
-      <c r="CP14" s="9"/>
-      <c r="CQ14" s="9"/>
-      <c r="CR14" s="9"/>
-      <c r="CS14" s="9"/>
-      <c r="CT14" s="9"/>
-      <c r="CU14" s="9"/>
-      <c r="CV14" s="9"/>
-      <c r="CW14" s="9"/>
-      <c r="CX14" s="9"/>
-      <c r="CY14" s="9"/>
-      <c r="CZ14" s="9"/>
-      <c r="DA14" s="9"/>
-      <c r="DB14" s="9"/>
-      <c r="DC14" s="9"/>
-      <c r="DD14" s="9"/>
-      <c r="DE14" s="9"/>
-      <c r="DF14" s="9"/>
-      <c r="DG14" s="9"/>
-      <c r="DH14" s="9"/>
-      <c r="DI14" s="9"/>
-      <c r="DJ14" s="9"/>
-      <c r="DK14" s="9"/>
-      <c r="DL14" s="9"/>
-      <c r="DM14" s="9"/>
-      <c r="DN14" s="9"/>
-      <c r="DO14" s="9"/>
-      <c r="DP14" s="9"/>
-      <c r="DQ14" s="9"/>
-      <c r="DR14" s="9"/>
-      <c r="DS14" s="9"/>
-      <c r="DT14" s="9"/>
-      <c r="DU14" s="9"/>
-      <c r="DV14" s="9"/>
-      <c r="DW14" s="9"/>
-      <c r="DX14" s="9"/>
-      <c r="DY14" s="9"/>
-      <c r="DZ14" s="9"/>
-      <c r="EA14" s="9"/>
-      <c r="EB14" s="9"/>
-      <c r="EC14" s="9"/>
-      <c r="ED14" s="9"/>
-      <c r="EE14" s="9"/>
-      <c r="EF14" s="9"/>
-      <c r="EG14" s="9"/>
-      <c r="EH14" s="9"/>
-      <c r="EI14" s="9"/>
-      <c r="EJ14" s="9"/>
-      <c r="EK14" s="9"/>
-      <c r="EL14" s="9"/>
-      <c r="EM14" s="9"/>
-      <c r="EN14" s="9"/>
-      <c r="EO14" s="9"/>
-      <c r="EP14" s="9"/>
-      <c r="EQ14" s="9"/>
-      <c r="ER14" s="9"/>
-      <c r="ES14" s="9"/>
-      <c r="ET14" s="9"/>
-      <c r="EU14" s="9"/>
-      <c r="EV14" s="9"/>
-      <c r="EW14" s="9"/>
-      <c r="EX14" s="9"/>
-      <c r="EY14" s="9"/>
-      <c r="EZ14" s="9"/>
-      <c r="FA14" s="9"/>
-      <c r="FB14" s="9"/>
-      <c r="FC14" s="9"/>
-      <c r="FD14" s="9"/>
-      <c r="FE14" s="9"/>
-      <c r="FF14" s="9"/>
-      <c r="FG14" s="9"/>
-      <c r="FH14" s="9"/>
-      <c r="FI14" s="9"/>
-      <c r="FJ14" s="9"/>
-      <c r="FK14" s="9"/>
-      <c r="FL14" s="9"/>
-      <c r="FM14" s="9"/>
-      <c r="FN14" s="9"/>
-      <c r="FO14" s="9"/>
-      <c r="FP14" s="9"/>
-      <c r="FQ14" s="9"/>
-      <c r="FR14" s="9"/>
-      <c r="FS14" s="9"/>
-      <c r="FT14" s="9"/>
-      <c r="FU14" s="9"/>
-      <c r="FV14" s="9"/>
-      <c r="FW14" s="9"/>
-      <c r="FX14" s="9"/>
-      <c r="FY14" s="9"/>
-      <c r="FZ14" s="9"/>
-      <c r="GA14" s="9"/>
-      <c r="GB14" s="9"/>
-      <c r="GC14" s="9"/>
-      <c r="GD14" s="9"/>
-      <c r="GE14" s="9"/>
-      <c r="GF14" s="9"/>
-      <c r="GG14" s="9"/>
-      <c r="GH14" s="9"/>
-      <c r="GI14" s="9"/>
-      <c r="GJ14" s="9"/>
-      <c r="GK14" s="9"/>
-      <c r="GL14" s="9"/>
-      <c r="GM14" s="9"/>
-      <c r="GN14" s="9"/>
-      <c r="GO14" s="9"/>
-      <c r="GP14" s="9"/>
-      <c r="GQ14" s="9"/>
-      <c r="GR14" s="9"/>
-      <c r="GS14" s="9"/>
-      <c r="GT14" s="9"/>
-      <c r="GU14" s="9"/>
-      <c r="GV14" s="9"/>
-      <c r="GW14" s="9"/>
-      <c r="GX14" s="9"/>
-      <c r="GY14" s="9"/>
-      <c r="GZ14" s="9"/>
-      <c r="HA14" s="9"/>
-      <c r="HB14" s="9"/>
-      <c r="HC14" s="9"/>
-      <c r="HD14" s="9"/>
-      <c r="HE14" s="9"/>
-      <c r="HF14" s="9"/>
-      <c r="HG14" s="9"/>
-      <c r="HH14" s="9"/>
-      <c r="HI14" s="9"/>
-      <c r="HJ14" s="9"/>
-      <c r="HK14" s="9"/>
-      <c r="HL14" s="9"/>
-      <c r="HM14" s="9"/>
-      <c r="HN14" s="9"/>
-      <c r="HO14" s="9"/>
-      <c r="HP14" s="9"/>
-      <c r="HQ14" s="9"/>
-      <c r="HR14" s="9"/>
-      <c r="HS14" s="9"/>
-      <c r="HT14" s="9"/>
-      <c r="HU14" s="9"/>
-      <c r="HV14" s="9"/>
-      <c r="HW14" s="9"/>
-      <c r="HX14" s="9"/>
-      <c r="HY14" s="9"/>
-      <c r="HZ14" s="9"/>
-      <c r="IA14" s="9"/>
-      <c r="IB14" s="9"/>
-      <c r="IC14" s="9"/>
-      <c r="ID14" s="9"/>
-      <c r="IE14" s="9"/>
-      <c r="IF14" s="9"/>
-      <c r="IG14" s="9"/>
-      <c r="IH14" s="9"/>
-      <c r="II14" s="9"/>
-      <c r="IJ14" s="9"/>
-      <c r="IK14" s="9"/>
-      <c r="IL14" s="9"/>
-      <c r="IM14" s="9"/>
-      <c r="IN14" s="9"/>
-      <c r="IO14" s="9"/>
-      <c r="IP14" s="9"/>
-      <c r="IQ14" s="9"/>
-      <c r="IR14" s="9"/>
-      <c r="IS14" s="9"/>
-      <c r="IT14" s="9"/>
-      <c r="IU14" s="9"/>
-      <c r="IV14" s="9"/>
-      <c r="IW14" s="9"/>
-      <c r="IX14" s="9"/>
-      <c r="IY14" s="9"/>
-      <c r="IZ14" s="9"/>
-      <c r="JA14" s="9"/>
-      <c r="JB14" s="9"/>
-      <c r="JC14" s="9"/>
-      <c r="JD14" s="9"/>
-      <c r="JE14" s="9"/>
-      <c r="JF14" s="9"/>
-      <c r="JG14" s="9"/>
-      <c r="JH14" s="9"/>
-      <c r="JI14" s="9"/>
-      <c r="JJ14" s="9"/>
-      <c r="JK14" s="9"/>
-      <c r="JL14" s="9"/>
-      <c r="JM14" s="9"/>
-      <c r="JN14" s="9"/>
-      <c r="JO14" s="9"/>
-      <c r="JP14" s="9"/>
-      <c r="JQ14" s="9"/>
-      <c r="JR14" s="9"/>
-      <c r="JS14" s="9"/>
-      <c r="JT14" s="9"/>
-      <c r="JU14" s="9"/>
-      <c r="JV14" s="9"/>
-      <c r="JW14" s="9"/>
-      <c r="JX14" s="9"/>
-      <c r="JY14" s="9"/>
-      <c r="JZ14" s="9"/>
-      <c r="KA14" s="9"/>
-      <c r="KB14" s="9"/>
-      <c r="KC14" s="9"/>
-      <c r="KD14" s="9"/>
-      <c r="KE14" s="9"/>
-      <c r="KF14" s="9"/>
-      <c r="KG14" s="9"/>
-      <c r="KH14" s="9"/>
-      <c r="KI14" s="9"/>
-      <c r="KJ14" s="9"/>
-      <c r="KK14" s="9"/>
-      <c r="KL14" s="9"/>
-      <c r="KM14" s="9"/>
-      <c r="KN14" s="9"/>
-      <c r="KO14" s="9"/>
-      <c r="KP14" s="9"/>
-      <c r="KQ14" s="9"/>
-      <c r="KR14" s="9"/>
-      <c r="KS14" s="9"/>
-      <c r="KT14" s="9"/>
-      <c r="KU14" s="9"/>
-      <c r="KV14" s="9"/>
-      <c r="KW14" s="9"/>
-      <c r="KX14" s="9"/>
-      <c r="KY14" s="9"/>
-      <c r="KZ14" s="9"/>
-      <c r="LA14" s="9"/>
-      <c r="LB14" s="9"/>
-      <c r="LC14" s="9"/>
-      <c r="LD14" s="9"/>
-      <c r="LE14" s="9"/>
-      <c r="LF14" s="9"/>
-      <c r="LG14" s="9"/>
-      <c r="LH14" s="9"/>
-      <c r="LI14" s="9"/>
-      <c r="LJ14" s="9"/>
-      <c r="LK14" s="9"/>
-      <c r="LL14" s="9"/>
-      <c r="LM14" s="9"/>
-      <c r="LN14" s="9"/>
-      <c r="LO14" s="9"/>
-      <c r="LP14" s="9"/>
-      <c r="LQ14" s="9"/>
-      <c r="LR14" s="9"/>
-      <c r="LS14" s="9"/>
-      <c r="LT14" s="9"/>
-      <c r="LU14" s="9"/>
-      <c r="LV14" s="9"/>
-      <c r="LW14" s="9"/>
-      <c r="LX14" s="9"/>
-      <c r="LY14" s="9"/>
-      <c r="LZ14" s="9"/>
-      <c r="MA14" s="9"/>
-      <c r="MB14" s="9"/>
-      <c r="MC14" s="9"/>
-      <c r="MD14" s="9"/>
-      <c r="ME14" s="9"/>
-      <c r="MF14" s="9"/>
-      <c r="MG14" s="9"/>
-      <c r="MH14" s="9"/>
-      <c r="MI14" s="9"/>
-      <c r="MJ14" s="9"/>
-      <c r="MK14" s="9"/>
-      <c r="ML14" s="9"/>
-      <c r="MM14" s="9"/>
-      <c r="MN14" s="9"/>
-      <c r="MO14" s="9"/>
-      <c r="MP14" s="9"/>
-      <c r="MQ14" s="9"/>
-      <c r="MR14" s="9"/>
-      <c r="MS14" s="9"/>
-      <c r="MT14" s="9"/>
-      <c r="MU14" s="9"/>
-      <c r="MV14" s="9"/>
-      <c r="MW14" s="9"/>
-      <c r="MX14" s="9"/>
-      <c r="MY14" s="9"/>
-      <c r="MZ14" s="9"/>
-      <c r="NA14" s="9"/>
-      <c r="NB14" s="9"/>
-      <c r="NC14" s="9"/>
-      <c r="ND14" s="9"/>
-      <c r="NE14" s="9"/>
-      <c r="NF14" s="9"/>
-      <c r="NG14" s="9"/>
-      <c r="NH14" s="9"/>
-      <c r="NI14" s="9"/>
-      <c r="NJ14" s="9"/>
-      <c r="NK14" s="9"/>
-      <c r="NL14" s="9"/>
-      <c r="NM14" s="9"/>
-      <c r="NN14" s="9"/>
-      <c r="NO14" s="9"/>
-      <c r="NP14" s="9"/>
-      <c r="NQ14" s="9"/>
-      <c r="NR14" s="9"/>
-      <c r="NS14" s="9"/>
-      <c r="NT14" s="9"/>
-      <c r="NU14" s="9"/>
-      <c r="NV14" s="9"/>
-      <c r="NW14" s="9"/>
-      <c r="NX14" s="9"/>
-      <c r="NY14" s="9"/>
-      <c r="NZ14" s="9"/>
-      <c r="OA14" s="9"/>
-      <c r="OB14" s="9"/>
-      <c r="OC14" s="9"/>
-      <c r="OD14" s="9"/>
-      <c r="OE14" s="9"/>
-      <c r="OF14" s="9"/>
-      <c r="OG14" s="9"/>
-      <c r="OH14" s="9"/>
-      <c r="OI14" s="9"/>
-      <c r="OJ14" s="9"/>
-      <c r="OK14" s="9"/>
-      <c r="OL14" s="9"/>
-      <c r="OM14" s="9"/>
-      <c r="ON14" s="9"/>
-      <c r="OO14" s="9"/>
-      <c r="OP14" s="9"/>
-      <c r="OQ14" s="9"/>
-      <c r="OR14" s="9"/>
-      <c r="OS14" s="9"/>
-      <c r="OT14" s="9"/>
-      <c r="OU14" s="9"/>
-      <c r="OV14" s="9"/>
-      <c r="OW14" s="9"/>
-      <c r="OX14" s="9"/>
-      <c r="OY14" s="9"/>
-      <c r="OZ14" s="9"/>
-      <c r="PA14" s="9"/>
-      <c r="PB14" s="9"/>
-      <c r="PC14" s="9"/>
-      <c r="PD14" s="9"/>
-      <c r="PE14" s="9"/>
-      <c r="PF14" s="9"/>
-      <c r="PG14" s="9"/>
-      <c r="PH14" s="9"/>
-      <c r="PI14" s="9"/>
-      <c r="PJ14" s="9"/>
-      <c r="PK14" s="9"/>
-      <c r="PL14" s="9"/>
-      <c r="PM14" s="9"/>
-      <c r="PN14" s="9"/>
-      <c r="PO14" s="9"/>
-      <c r="PP14" s="9"/>
-      <c r="PQ14" s="9"/>
-      <c r="PR14" s="9"/>
-      <c r="PS14" s="9"/>
-      <c r="PT14" s="9"/>
-      <c r="PU14" s="9"/>
-      <c r="PV14" s="9"/>
-      <c r="PW14" s="9"/>
-      <c r="PX14" s="9"/>
-      <c r="PY14" s="9"/>
-      <c r="PZ14" s="9"/>
-      <c r="QA14" s="9"/>
-      <c r="QB14" s="9"/>
-      <c r="QC14" s="9"/>
-      <c r="QD14" s="9"/>
-      <c r="QE14" s="9"/>
-      <c r="QF14" s="9"/>
-      <c r="QG14" s="9"/>
-      <c r="QH14" s="9"/>
-      <c r="QI14" s="9"/>
-      <c r="QJ14" s="9"/>
-      <c r="QK14" s="9"/>
-      <c r="QL14" s="9"/>
-      <c r="QM14" s="9"/>
-      <c r="QN14" s="9"/>
-      <c r="QO14" s="9"/>
-      <c r="QP14" s="9"/>
-      <c r="QQ14" s="9"/>
-      <c r="QR14" s="9"/>
-      <c r="QS14" s="9"/>
-      <c r="QT14" s="9"/>
-      <c r="QU14" s="9"/>
-      <c r="QV14" s="9"/>
-      <c r="QW14" s="9"/>
-      <c r="QX14" s="9"/>
-      <c r="QY14" s="9"/>
-      <c r="QZ14" s="9"/>
-      <c r="RA14" s="9"/>
-      <c r="RB14" s="9"/>
-      <c r="RC14" s="9"/>
-      <c r="RD14" s="9"/>
-      <c r="RE14" s="9"/>
-      <c r="RF14" s="9"/>
-      <c r="RG14" s="9"/>
-      <c r="RH14" s="9"/>
-      <c r="RI14" s="9"/>
-      <c r="RJ14" s="9"/>
-      <c r="RK14" s="9"/>
-      <c r="RL14" s="9"/>
-      <c r="RM14" s="9"/>
-      <c r="RN14" s="9"/>
-      <c r="RO14" s="9"/>
-      <c r="RP14" s="9"/>
-      <c r="RQ14" s="9"/>
-      <c r="RR14" s="9"/>
-      <c r="RS14" s="9"/>
-      <c r="RT14" s="9"/>
-      <c r="RU14" s="9"/>
-      <c r="RV14" s="9"/>
-      <c r="RW14" s="9"/>
-      <c r="RX14" s="9"/>
-      <c r="RY14" s="9"/>
-      <c r="RZ14" s="9"/>
-      <c r="SA14" s="9"/>
-      <c r="SB14" s="9"/>
-      <c r="SC14" s="9"/>
-      <c r="SD14" s="9"/>
-      <c r="SE14" s="9"/>
-      <c r="SF14" s="9"/>
-      <c r="SG14" s="9"/>
-      <c r="SH14" s="9"/>
-      <c r="SI14" s="9"/>
-      <c r="SJ14" s="9"/>
-      <c r="SK14" s="9"/>
-      <c r="SL14" s="9"/>
-      <c r="SM14" s="9"/>
-      <c r="SN14" s="9"/>
-      <c r="SO14" s="9"/>
-      <c r="SP14" s="9"/>
-      <c r="SQ14" s="9"/>
-      <c r="SR14" s="9"/>
-      <c r="SS14" s="9"/>
-      <c r="ST14" s="9"/>
-      <c r="SU14" s="9"/>
-      <c r="SV14" s="9"/>
-      <c r="SW14" s="9"/>
-      <c r="SX14" s="9"/>
-      <c r="SY14" s="9"/>
-      <c r="SZ14" s="9"/>
-      <c r="TA14" s="9"/>
-      <c r="TB14" s="9"/>
-      <c r="TC14" s="9"/>
-      <c r="TD14" s="9"/>
-      <c r="TE14" s="9"/>
-      <c r="TF14" s="9"/>
-      <c r="TG14" s="9"/>
-      <c r="TH14" s="9"/>
-      <c r="TI14" s="9"/>
-      <c r="TJ14" s="9"/>
-      <c r="TK14" s="9"/>
-      <c r="TL14" s="9"/>
-      <c r="TM14" s="9"/>
-      <c r="TN14" s="9"/>
-      <c r="TO14" s="9"/>
-      <c r="TP14" s="9"/>
-      <c r="TQ14" s="9"/>
-      <c r="TR14" s="9"/>
-      <c r="TS14" s="9"/>
-      <c r="TT14" s="9"/>
-      <c r="TU14" s="9"/>
-      <c r="TV14" s="9"/>
-      <c r="TW14" s="9"/>
-      <c r="TX14" s="9"/>
-      <c r="TY14" s="9"/>
-      <c r="TZ14" s="9"/>
-      <c r="UA14" s="9"/>
-      <c r="UB14" s="9"/>
-      <c r="UC14" s="9"/>
-      <c r="UD14" s="9"/>
-      <c r="UE14" s="9"/>
-      <c r="UF14" s="9"/>
-      <c r="UG14" s="9"/>
-      <c r="UH14" s="9"/>
-      <c r="UI14" s="9"/>
-      <c r="UJ14" s="9"/>
-      <c r="UK14" s="9"/>
-      <c r="UL14" s="9"/>
-      <c r="UM14" s="9"/>
-      <c r="UN14" s="9"/>
-      <c r="UO14" s="9"/>
-      <c r="UP14" s="9"/>
-      <c r="UQ14" s="9"/>
-      <c r="UR14" s="9"/>
-      <c r="US14" s="9"/>
-      <c r="UT14" s="9"/>
-      <c r="UU14" s="9"/>
-      <c r="UV14" s="9"/>
-      <c r="UW14" s="9"/>
-      <c r="UX14" s="9"/>
-      <c r="UY14" s="9"/>
-      <c r="UZ14" s="9"/>
-      <c r="VA14" s="9"/>
-      <c r="VB14" s="9"/>
-      <c r="VC14" s="9"/>
-      <c r="VD14" s="9"/>
-      <c r="VE14" s="9"/>
-      <c r="VF14" s="9"/>
-      <c r="VG14" s="9"/>
-      <c r="VH14" s="9"/>
-      <c r="VI14" s="9"/>
-      <c r="VJ14" s="9"/>
-      <c r="VK14" s="9"/>
-      <c r="VL14" s="9"/>
-      <c r="VM14" s="9"/>
-      <c r="VN14" s="9"/>
-      <c r="VO14" s="9"/>
-      <c r="VP14" s="9"/>
-      <c r="VQ14" s="9"/>
-      <c r="VR14" s="9"/>
-      <c r="VS14" s="9"/>
-      <c r="VT14" s="9"/>
-      <c r="VU14" s="9"/>
-      <c r="VV14" s="9"/>
-      <c r="VW14" s="9"/>
-      <c r="VX14" s="9"/>
-      <c r="VY14" s="9"/>
-      <c r="VZ14" s="9"/>
-      <c r="WA14" s="9"/>
-      <c r="WB14" s="9"/>
-      <c r="WC14" s="9"/>
-      <c r="WD14" s="9"/>
-      <c r="WE14" s="9"/>
-      <c r="WF14" s="9"/>
-      <c r="WG14" s="9"/>
-      <c r="WH14" s="9"/>
-      <c r="WI14" s="9"/>
-      <c r="WJ14" s="9"/>
-      <c r="WK14" s="9"/>
-      <c r="WL14" s="9"/>
-      <c r="WM14" s="9"/>
-      <c r="WN14" s="9"/>
-      <c r="WO14" s="9"/>
-      <c r="WP14" s="9"/>
-      <c r="WQ14" s="9"/>
-      <c r="WR14" s="9"/>
-      <c r="WS14" s="9"/>
-      <c r="WT14" s="9"/>
-      <c r="WU14" s="9"/>
-      <c r="WV14" s="9"/>
-      <c r="WW14" s="9"/>
-      <c r="WX14" s="9"/>
-      <c r="WY14" s="9"/>
-      <c r="WZ14" s="9"/>
-      <c r="XA14" s="9"/>
-      <c r="XB14" s="9"/>
-      <c r="XC14" s="9"/>
-      <c r="XD14" s="9"/>
-      <c r="XE14" s="9"/>
-      <c r="XF14" s="9"/>
-      <c r="XG14" s="9"/>
-      <c r="XH14" s="9"/>
-      <c r="XI14" s="9"/>
-      <c r="XJ14" s="9"/>
-      <c r="XK14" s="9"/>
-      <c r="XL14" s="9"/>
-      <c r="XM14" s="9"/>
-      <c r="XN14" s="9"/>
-      <c r="XO14" s="9"/>
-      <c r="XP14" s="9"/>
-      <c r="XQ14" s="9"/>
-      <c r="XR14" s="9"/>
-      <c r="XS14" s="9"/>
-      <c r="XT14" s="9"/>
-      <c r="XU14" s="9"/>
-      <c r="XV14" s="9"/>
-      <c r="XW14" s="9"/>
-      <c r="XX14" s="9"/>
-      <c r="XY14" s="9"/>
-      <c r="XZ14" s="9"/>
-      <c r="YA14" s="9"/>
-      <c r="YB14" s="9"/>
-      <c r="YC14" s="9"/>
-      <c r="YD14" s="9"/>
-      <c r="YE14" s="9"/>
-      <c r="YF14" s="9"/>
-      <c r="YG14" s="9"/>
-      <c r="YH14" s="9"/>
-      <c r="YI14" s="9"/>
-      <c r="YJ14" s="9"/>
-      <c r="YK14" s="9"/>
-      <c r="YL14" s="9"/>
-      <c r="YM14" s="9"/>
-      <c r="YN14" s="9"/>
-      <c r="YO14" s="9"/>
-      <c r="YP14" s="9"/>
-      <c r="YQ14" s="9"/>
-      <c r="YR14" s="9"/>
-      <c r="YS14" s="9"/>
-      <c r="YT14" s="9"/>
-      <c r="YU14" s="9"/>
-      <c r="YV14" s="9"/>
-      <c r="YW14" s="9"/>
-      <c r="YX14" s="9"/>
-      <c r="YY14" s="9"/>
-      <c r="YZ14" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+      <c r="CL20" s="9"/>
+      <c r="CM20" s="9"/>
+      <c r="CN20" s="9"/>
+      <c r="CO20" s="9"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
+      <c r="CS20" s="9"/>
+      <c r="CT20" s="9"/>
+      <c r="CU20" s="9"/>
+      <c r="CV20" s="9"/>
+      <c r="CW20" s="9"/>
+      <c r="CX20" s="9"/>
+      <c r="CY20" s="9"/>
+      <c r="CZ20" s="9"/>
+      <c r="DA20" s="9"/>
+      <c r="DB20" s="9"/>
+      <c r="DC20" s="9"/>
+      <c r="DD20" s="9"/>
+      <c r="DE20" s="9"/>
+      <c r="DF20" s="9"/>
+      <c r="DG20" s="9"/>
+      <c r="DH20" s="9"/>
+      <c r="DI20" s="9"/>
+      <c r="DJ20" s="9"/>
+      <c r="DK20" s="9"/>
+      <c r="DL20" s="9"/>
+      <c r="DM20" s="9"/>
+      <c r="DN20" s="9"/>
+      <c r="DO20" s="9"/>
+      <c r="DP20" s="9"/>
+      <c r="DQ20" s="9"/>
+      <c r="DR20" s="9"/>
+      <c r="DS20" s="9"/>
+      <c r="DT20" s="9"/>
+      <c r="DU20" s="9"/>
+      <c r="DV20" s="9"/>
+      <c r="DW20" s="9"/>
+      <c r="DX20" s="9"/>
+      <c r="DY20" s="9"/>
+      <c r="DZ20" s="9"/>
+      <c r="EA20" s="9"/>
+      <c r="EB20" s="9"/>
+      <c r="EC20" s="9"/>
+      <c r="ED20" s="9"/>
+      <c r="EE20" s="9"/>
+      <c r="EF20" s="9"/>
+      <c r="EG20" s="9"/>
+      <c r="EH20" s="9"/>
+      <c r="EI20" s="9"/>
+      <c r="EJ20" s="9"/>
+      <c r="EK20" s="9"/>
+      <c r="EL20" s="9"/>
+      <c r="EM20" s="9"/>
+      <c r="EN20" s="9"/>
+      <c r="EO20" s="9"/>
+      <c r="EP20" s="9"/>
+      <c r="EQ20" s="9"/>
+      <c r="ER20" s="9"/>
+      <c r="ES20" s="9"/>
+      <c r="ET20" s="9"/>
+      <c r="EU20" s="9"/>
+      <c r="EV20" s="9"/>
+      <c r="EW20" s="9"/>
+      <c r="EX20" s="9"/>
+      <c r="EY20" s="9"/>
+      <c r="EZ20" s="9"/>
+      <c r="FA20" s="9"/>
+      <c r="FB20" s="9"/>
+      <c r="FC20" s="9"/>
+      <c r="FD20" s="9"/>
+      <c r="FE20" s="9"/>
+      <c r="FF20" s="9"/>
+      <c r="FG20" s="9"/>
+      <c r="FH20" s="9"/>
+      <c r="FI20" s="9"/>
+      <c r="FJ20" s="9"/>
+      <c r="FK20" s="9"/>
+      <c r="FL20" s="9"/>
+      <c r="FM20" s="9"/>
+      <c r="FN20" s="9"/>
+      <c r="FO20" s="9"/>
+      <c r="FP20" s="9"/>
+      <c r="FQ20" s="9"/>
+      <c r="FR20" s="9"/>
+      <c r="FS20" s="9"/>
+      <c r="FT20" s="9"/>
+      <c r="FU20" s="9"/>
+      <c r="FV20" s="9"/>
+      <c r="FW20" s="9"/>
+      <c r="FX20" s="9"/>
+      <c r="FY20" s="9"/>
+      <c r="FZ20" s="9"/>
+      <c r="GA20" s="9"/>
+      <c r="GB20" s="9"/>
+      <c r="GC20" s="9"/>
+      <c r="GD20" s="9"/>
+      <c r="GE20" s="9"/>
+      <c r="GF20" s="9"/>
+      <c r="GG20" s="9"/>
+      <c r="GH20" s="9"/>
+      <c r="GI20" s="9"/>
+      <c r="GJ20" s="9"/>
+      <c r="GK20" s="9"/>
+      <c r="GL20" s="9"/>
+      <c r="GM20" s="9"/>
+      <c r="GN20" s="9"/>
+      <c r="GO20" s="9"/>
+      <c r="GP20" s="9"/>
+      <c r="GQ20" s="9"/>
+      <c r="GR20" s="9"/>
+      <c r="GS20" s="9"/>
+      <c r="GT20" s="9"/>
+      <c r="GU20" s="9"/>
+      <c r="GV20" s="9"/>
+      <c r="GW20" s="9"/>
+      <c r="GX20" s="9"/>
+      <c r="GY20" s="9"/>
+      <c r="GZ20" s="9"/>
+      <c r="HA20" s="9"/>
+      <c r="HB20" s="9"/>
+      <c r="HC20" s="9"/>
+      <c r="HD20" s="9"/>
+      <c r="HE20" s="9"/>
+      <c r="HF20" s="9"/>
+      <c r="HG20" s="9"/>
+      <c r="HH20" s="9"/>
+      <c r="HI20" s="9"/>
+      <c r="HJ20" s="9"/>
+      <c r="HK20" s="9"/>
+      <c r="HL20" s="9"/>
+      <c r="HM20" s="9"/>
+      <c r="HN20" s="9"/>
+      <c r="HO20" s="9"/>
+      <c r="HP20" s="9"/>
+      <c r="HQ20" s="9"/>
+      <c r="HR20" s="9"/>
+      <c r="HS20" s="9"/>
+      <c r="HT20" s="9"/>
+      <c r="HU20" s="9"/>
+      <c r="HV20" s="9"/>
+      <c r="HW20" s="9"/>
+      <c r="HX20" s="9"/>
+      <c r="HY20" s="9"/>
+      <c r="HZ20" s="9"/>
+      <c r="IA20" s="9"/>
+      <c r="IB20" s="9"/>
+      <c r="IC20" s="9"/>
+      <c r="ID20" s="9"/>
+      <c r="IE20" s="9"/>
+      <c r="IF20" s="9"/>
+      <c r="IG20" s="9"/>
+      <c r="IH20" s="9"/>
+      <c r="II20" s="9"/>
+      <c r="IJ20" s="9"/>
+      <c r="IK20" s="9"/>
+      <c r="IL20" s="9"/>
+      <c r="IM20" s="9"/>
+      <c r="IN20" s="9"/>
+      <c r="IO20" s="9"/>
+      <c r="IP20" s="9"/>
+      <c r="IQ20" s="9"/>
+      <c r="IR20" s="9"/>
+      <c r="IS20" s="9"/>
+      <c r="IT20" s="9"/>
+      <c r="IU20" s="9"/>
+      <c r="IV20" s="9"/>
+      <c r="IW20" s="9"/>
+      <c r="IX20" s="9"/>
+      <c r="IY20" s="9"/>
+      <c r="IZ20" s="9"/>
+      <c r="JA20" s="9"/>
+      <c r="JB20" s="9"/>
+      <c r="JC20" s="9"/>
+      <c r="JD20" s="9"/>
+      <c r="JE20" s="9"/>
+      <c r="JF20" s="9"/>
+      <c r="JG20" s="9"/>
+      <c r="JH20" s="9"/>
+      <c r="JI20" s="9"/>
+      <c r="JJ20" s="9"/>
+      <c r="JK20" s="9"/>
+      <c r="JL20" s="9"/>
+      <c r="JM20" s="9"/>
+      <c r="JN20" s="9"/>
+      <c r="JO20" s="9"/>
+      <c r="JP20" s="9"/>
+      <c r="JQ20" s="9"/>
+      <c r="JR20" s="9"/>
+      <c r="JS20" s="9"/>
+      <c r="JT20" s="9"/>
+      <c r="JU20" s="9"/>
+      <c r="JV20" s="9"/>
+      <c r="JW20" s="9"/>
+      <c r="JX20" s="9"/>
+      <c r="JY20" s="9"/>
+      <c r="JZ20" s="9"/>
+      <c r="KA20" s="9"/>
+      <c r="KB20" s="9"/>
+      <c r="KC20" s="9"/>
+      <c r="KD20" s="9"/>
+      <c r="KE20" s="9"/>
+      <c r="KF20" s="9"/>
+      <c r="KG20" s="9"/>
+      <c r="KH20" s="9"/>
+      <c r="KI20" s="9"/>
+      <c r="KJ20" s="9"/>
+      <c r="KK20" s="9"/>
+      <c r="KL20" s="9"/>
+      <c r="KM20" s="9"/>
+      <c r="KN20" s="9"/>
+      <c r="KO20" s="9"/>
+      <c r="KP20" s="9"/>
+      <c r="KQ20" s="9"/>
+      <c r="KR20" s="9"/>
+      <c r="KS20" s="9"/>
+      <c r="KT20" s="9"/>
+      <c r="KU20" s="9"/>
+      <c r="KV20" s="9"/>
+      <c r="KW20" s="9"/>
+      <c r="KX20" s="9"/>
+      <c r="KY20" s="9"/>
+      <c r="KZ20" s="9"/>
+      <c r="LA20" s="9"/>
+      <c r="LB20" s="9"/>
+      <c r="LC20" s="9"/>
+      <c r="LD20" s="9"/>
+      <c r="LE20" s="9"/>
+      <c r="LF20" s="9"/>
+      <c r="LG20" s="9"/>
+      <c r="LH20" s="9"/>
+      <c r="LI20" s="9"/>
+      <c r="LJ20" s="9"/>
+      <c r="LK20" s="9"/>
+      <c r="LL20" s="9"/>
+      <c r="LM20" s="9"/>
+      <c r="LN20" s="9"/>
+      <c r="LO20" s="9"/>
+      <c r="LP20" s="9"/>
+      <c r="LQ20" s="9"/>
+      <c r="LR20" s="9"/>
+      <c r="LS20" s="9"/>
+      <c r="LT20" s="9"/>
+      <c r="LU20" s="9"/>
+      <c r="LV20" s="9"/>
+      <c r="LW20" s="9"/>
+      <c r="LX20" s="9"/>
+      <c r="LY20" s="9"/>
+      <c r="LZ20" s="9"/>
+      <c r="MA20" s="9"/>
+      <c r="MB20" s="9"/>
+      <c r="MC20" s="9"/>
+      <c r="MD20" s="9"/>
+      <c r="ME20" s="9"/>
+      <c r="MF20" s="9"/>
+      <c r="MG20" s="9"/>
+      <c r="MH20" s="9"/>
+      <c r="MI20" s="9"/>
+      <c r="MJ20" s="9"/>
+      <c r="MK20" s="9"/>
+      <c r="ML20" s="9"/>
+      <c r="MM20" s="9"/>
+      <c r="MN20" s="9"/>
+      <c r="MO20" s="9"/>
+      <c r="MP20" s="9"/>
+      <c r="MQ20" s="9"/>
+      <c r="MR20" s="9"/>
+      <c r="MS20" s="9"/>
+      <c r="MT20" s="9"/>
+      <c r="MU20" s="9"/>
+      <c r="MV20" s="9"/>
+      <c r="MW20" s="9"/>
+      <c r="MX20" s="9"/>
+      <c r="MY20" s="9"/>
+      <c r="MZ20" s="9"/>
+      <c r="NA20" s="9"/>
+      <c r="NB20" s="9"/>
+      <c r="NC20" s="9"/>
+      <c r="ND20" s="9"/>
+      <c r="NE20" s="9"/>
+      <c r="NF20" s="9"/>
+      <c r="NG20" s="9"/>
+      <c r="NH20" s="9"/>
+      <c r="NI20" s="9"/>
+      <c r="NJ20" s="9"/>
+      <c r="NK20" s="9"/>
+      <c r="NL20" s="9"/>
+      <c r="NM20" s="9"/>
+      <c r="NN20" s="9"/>
+      <c r="NO20" s="9"/>
+      <c r="NP20" s="9"/>
+      <c r="NQ20" s="9"/>
+      <c r="NR20" s="9"/>
+      <c r="NS20" s="9"/>
+      <c r="NT20" s="9"/>
+      <c r="NU20" s="9"/>
+      <c r="NV20" s="9"/>
+      <c r="NW20" s="9"/>
+      <c r="NX20" s="9"/>
+      <c r="NY20" s="9"/>
+      <c r="NZ20" s="9"/>
+      <c r="OA20" s="9"/>
+      <c r="OB20" s="9"/>
+      <c r="OC20" s="9"/>
+      <c r="OD20" s="9"/>
+      <c r="OE20" s="9"/>
+      <c r="OF20" s="9"/>
+      <c r="OG20" s="9"/>
+      <c r="OH20" s="9"/>
+      <c r="OI20" s="9"/>
+      <c r="OJ20" s="9"/>
+      <c r="OK20" s="9"/>
+      <c r="OL20" s="9"/>
+      <c r="OM20" s="9"/>
+      <c r="ON20" s="9"/>
+      <c r="OO20" s="9"/>
+      <c r="OP20" s="9"/>
+      <c r="OQ20" s="9"/>
+      <c r="OR20" s="9"/>
+      <c r="OS20" s="9"/>
+      <c r="OT20" s="9"/>
+      <c r="OU20" s="9"/>
+      <c r="OV20" s="9"/>
+      <c r="OW20" s="9"/>
+      <c r="OX20" s="9"/>
+      <c r="OY20" s="9"/>
+      <c r="OZ20" s="9"/>
+      <c r="PA20" s="9"/>
+      <c r="PB20" s="9"/>
+      <c r="PC20" s="9"/>
+      <c r="PD20" s="9"/>
+      <c r="PE20" s="9"/>
+      <c r="PF20" s="9"/>
+      <c r="PG20" s="9"/>
+      <c r="PH20" s="9"/>
+      <c r="PI20" s="9"/>
+      <c r="PJ20" s="9"/>
+      <c r="PK20" s="9"/>
+      <c r="PL20" s="9"/>
+      <c r="PM20" s="9"/>
+      <c r="PN20" s="9"/>
+      <c r="PO20" s="9"/>
+      <c r="PP20" s="9"/>
+      <c r="PQ20" s="9"/>
+      <c r="PR20" s="9"/>
+      <c r="PS20" s="9"/>
+      <c r="PT20" s="9"/>
+      <c r="PU20" s="9"/>
+      <c r="PV20" s="9"/>
+      <c r="PW20" s="9"/>
+      <c r="PX20" s="9"/>
+      <c r="PY20" s="9"/>
+      <c r="PZ20" s="9"/>
+      <c r="QA20" s="9"/>
+      <c r="QB20" s="9"/>
+      <c r="QC20" s="9"/>
+      <c r="QD20" s="9"/>
+      <c r="QE20" s="9"/>
+      <c r="QF20" s="9"/>
+      <c r="QG20" s="9"/>
+      <c r="QH20" s="9"/>
+      <c r="QI20" s="9"/>
+      <c r="QJ20" s="9"/>
+      <c r="QK20" s="9"/>
+      <c r="QL20" s="9"/>
+      <c r="QM20" s="9"/>
+      <c r="QN20" s="9"/>
+      <c r="QO20" s="9"/>
+      <c r="QP20" s="9"/>
+      <c r="QQ20" s="9"/>
+      <c r="QR20" s="9"/>
+      <c r="QS20" s="9"/>
+      <c r="QT20" s="9"/>
+      <c r="QU20" s="9"/>
+      <c r="QV20" s="9"/>
+      <c r="QW20" s="9"/>
+      <c r="QX20" s="9"/>
+      <c r="QY20" s="9"/>
+      <c r="QZ20" s="9"/>
+      <c r="RA20" s="9"/>
+      <c r="RB20" s="9"/>
+      <c r="RC20" s="9"/>
+      <c r="RD20" s="9"/>
+      <c r="RE20" s="9"/>
+      <c r="RF20" s="9"/>
+      <c r="RG20" s="9"/>
+      <c r="RH20" s="9"/>
+      <c r="RI20" s="9"/>
+      <c r="RJ20" s="9"/>
+      <c r="RK20" s="9"/>
+      <c r="RL20" s="9"/>
+      <c r="RM20" s="9"/>
+      <c r="RN20" s="9"/>
+      <c r="RO20" s="9"/>
+      <c r="RP20" s="9"/>
+      <c r="RQ20" s="9"/>
+      <c r="RR20" s="9"/>
+      <c r="RS20" s="9"/>
+      <c r="RT20" s="9"/>
+      <c r="RU20" s="9"/>
+      <c r="RV20" s="9"/>
+      <c r="RW20" s="9"/>
+      <c r="RX20" s="9"/>
+      <c r="RY20" s="9"/>
+      <c r="RZ20" s="9"/>
+      <c r="SA20" s="9"/>
+      <c r="SB20" s="9"/>
+      <c r="SC20" s="9"/>
+      <c r="SD20" s="9"/>
+      <c r="SE20" s="9"/>
+      <c r="SF20" s="9"/>
+      <c r="SG20" s="9"/>
+      <c r="SH20" s="9"/>
+      <c r="SI20" s="9"/>
+      <c r="SJ20" s="9"/>
+      <c r="SK20" s="9"/>
+      <c r="SL20" s="9"/>
+      <c r="SM20" s="9"/>
+      <c r="SN20" s="9"/>
+      <c r="SO20" s="9"/>
+      <c r="SP20" s="9"/>
+      <c r="SQ20" s="9"/>
+      <c r="SR20" s="9"/>
+      <c r="SS20" s="9"/>
+      <c r="ST20" s="9"/>
+      <c r="SU20" s="9"/>
+      <c r="SV20" s="9"/>
+      <c r="SW20" s="9"/>
+      <c r="SX20" s="9"/>
+      <c r="SY20" s="9"/>
+      <c r="SZ20" s="9"/>
+      <c r="TA20" s="9"/>
+      <c r="TB20" s="9"/>
+      <c r="TC20" s="9"/>
+      <c r="TD20" s="9"/>
+      <c r="TE20" s="9"/>
+      <c r="TF20" s="9"/>
+      <c r="TG20" s="9"/>
+      <c r="TH20" s="9"/>
+      <c r="TI20" s="9"/>
+      <c r="TJ20" s="9"/>
+      <c r="TK20" s="9"/>
+      <c r="TL20" s="9"/>
+      <c r="TM20" s="9"/>
+      <c r="TN20" s="9"/>
+      <c r="TO20" s="9"/>
+      <c r="TP20" s="9"/>
+      <c r="TQ20" s="9"/>
+      <c r="TR20" s="9"/>
+      <c r="TS20" s="9"/>
+      <c r="TT20" s="9"/>
+      <c r="TU20" s="9"/>
+      <c r="TV20" s="9"/>
+      <c r="TW20" s="9"/>
+      <c r="TX20" s="9"/>
+      <c r="TY20" s="9"/>
+      <c r="TZ20" s="9"/>
+      <c r="UA20" s="9"/>
+      <c r="UB20" s="9"/>
+      <c r="UC20" s="9"/>
+      <c r="UD20" s="9"/>
+      <c r="UE20" s="9"/>
+      <c r="UF20" s="9"/>
+      <c r="UG20" s="9"/>
+      <c r="UH20" s="9"/>
+      <c r="UI20" s="9"/>
+      <c r="UJ20" s="9"/>
+      <c r="UK20" s="9"/>
+      <c r="UL20" s="9"/>
+      <c r="UM20" s="9"/>
+      <c r="UN20" s="9"/>
+      <c r="UO20" s="9"/>
+      <c r="UP20" s="9"/>
+      <c r="UQ20" s="9"/>
+      <c r="UR20" s="9"/>
+      <c r="US20" s="9"/>
+      <c r="UT20" s="9"/>
+      <c r="UU20" s="9"/>
+      <c r="UV20" s="9"/>
+      <c r="UW20" s="9"/>
+      <c r="UX20" s="9"/>
+      <c r="UY20" s="9"/>
+      <c r="UZ20" s="9"/>
+      <c r="VA20" s="9"/>
+      <c r="VB20" s="9"/>
+      <c r="VC20" s="9"/>
+      <c r="VD20" s="9"/>
+      <c r="VE20" s="9"/>
+      <c r="VF20" s="9"/>
+      <c r="VG20" s="9"/>
+      <c r="VH20" s="9"/>
+      <c r="VI20" s="9"/>
+      <c r="VJ20" s="9"/>
+      <c r="VK20" s="9"/>
+      <c r="VL20" s="9"/>
+      <c r="VM20" s="9"/>
+      <c r="VN20" s="9"/>
+      <c r="VO20" s="9"/>
+      <c r="VP20" s="9"/>
+      <c r="VQ20" s="9"/>
+      <c r="VR20" s="9"/>
+      <c r="VS20" s="9"/>
+      <c r="VT20" s="9"/>
+      <c r="VU20" s="9"/>
+      <c r="VV20" s="9"/>
+      <c r="VW20" s="9"/>
+      <c r="VX20" s="9"/>
+      <c r="VY20" s="9"/>
+      <c r="VZ20" s="9"/>
+      <c r="WA20" s="9"/>
+      <c r="WB20" s="9"/>
+      <c r="WC20" s="9"/>
+      <c r="WD20" s="9"/>
+      <c r="WE20" s="9"/>
+      <c r="WF20" s="9"/>
+      <c r="WG20" s="9"/>
+      <c r="WH20" s="9"/>
+      <c r="WI20" s="9"/>
+      <c r="WJ20" s="9"/>
+      <c r="WK20" s="9"/>
+      <c r="WL20" s="9"/>
+      <c r="WM20" s="9"/>
+      <c r="WN20" s="9"/>
+      <c r="WO20" s="9"/>
+      <c r="WP20" s="9"/>
+      <c r="WQ20" s="9"/>
+      <c r="WR20" s="9"/>
+      <c r="WS20" s="9"/>
+      <c r="WT20" s="9"/>
+      <c r="WU20" s="9"/>
+      <c r="WV20" s="9"/>
+      <c r="WW20" s="9"/>
+      <c r="WX20" s="9"/>
+      <c r="WY20" s="9"/>
+      <c r="WZ20" s="9"/>
+      <c r="XA20" s="9"/>
+      <c r="XB20" s="9"/>
+      <c r="XC20" s="9"/>
+      <c r="XD20" s="9"/>
+      <c r="XE20" s="9"/>
+      <c r="XF20" s="9"/>
+      <c r="XG20" s="9"/>
+      <c r="XH20" s="9"/>
+      <c r="XI20" s="9"/>
+      <c r="XJ20" s="9"/>
+      <c r="XK20" s="9"/>
+      <c r="XL20" s="9"/>
+      <c r="XM20" s="9"/>
+      <c r="XN20" s="9"/>
+      <c r="XO20" s="9"/>
+      <c r="XP20" s="9"/>
+      <c r="XQ20" s="9"/>
+      <c r="XR20" s="9"/>
+      <c r="XS20" s="9"/>
+      <c r="XT20" s="9"/>
+      <c r="XU20" s="9"/>
+      <c r="XV20" s="9"/>
+      <c r="XW20" s="9"/>
+      <c r="XX20" s="9"/>
+      <c r="XY20" s="9"/>
+      <c r="XZ20" s="9"/>
+      <c r="YA20" s="9"/>
+      <c r="YB20" s="9"/>
+      <c r="YC20" s="9"/>
+      <c r="YD20" s="9"/>
+      <c r="YE20" s="9"/>
+      <c r="YF20" s="9"/>
+      <c r="YG20" s="9"/>
+      <c r="YH20" s="9"/>
+      <c r="YI20" s="9"/>
+      <c r="YJ20" s="9"/>
+      <c r="YK20" s="9"/>
+      <c r="YL20" s="9"/>
+      <c r="YM20" s="9"/>
+      <c r="YN20" s="9"/>
+      <c r="YO20" s="9"/>
+      <c r="YP20" s="9"/>
+      <c r="YQ20" s="9"/>
+      <c r="YR20" s="9"/>
+      <c r="YS20" s="9"/>
+      <c r="YT20" s="9"/>
+      <c r="YU20" s="9"/>
+      <c r="YV20" s="9"/>
+      <c r="YW20" s="9"/>
+      <c r="YX20" s="9"/>
+      <c r="YY20" s="9"/>
+      <c r="YZ20" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-clover/tests/testdata/src_px2/px-files/sitemaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF7763-CA96-CA48-A1F8-BE846689AE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A295B-257D-7D4D-8FF6-1195F71CDED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.11</t>
   </si>
@@ -225,6 +225,22 @@
   </si>
   <si>
     <t>Test Page B/C</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test Page A/E$</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_a/e/{$test}.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test Page A/D*</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/testpage_a/d/{*}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -369,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -382,6 +398,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -690,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:YZ20"/>
+  <dimension ref="A1:YZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N18:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -1408,13 +1425,13 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1480,13 +1497,13 @@
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1689,7 +1706,7 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="1:676">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
@@ -1697,73 +1714,71 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12">
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13">
         <v>1</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:676">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12">
+        <v>66</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13">
         <v>1</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="12">
-        <v>1</v>
-      </c>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:676">
       <c r="A15" s="12"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1772,7 +1787,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -1795,10 +1810,10 @@
     <row r="16" spans="1:676">
       <c r="A16" s="12"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="12"/>
@@ -1806,7 +1821,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -1817,7 +1832,9 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="12">
+        <v>1</v>
+      </c>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
@@ -1831,7 +1848,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1840,7 +1857,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -1860,685 +1877,749 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="20" spans="1:676" ht="5" customHeight="1">
-      <c r="A20" s="9" t="s">
+    <row r="18" spans="1:676">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+    </row>
+    <row r="19" spans="1:676">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+    </row>
+    <row r="22" spans="1:676" ht="5" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="9"/>
-      <c r="BG20" s="9"/>
-      <c r="BH20" s="9"/>
-      <c r="BI20" s="9"/>
-      <c r="BJ20" s="9"/>
-      <c r="BK20" s="9"/>
-      <c r="BL20" s="9"/>
-      <c r="BM20" s="9"/>
-      <c r="BN20" s="9"/>
-      <c r="BO20" s="9"/>
-      <c r="BP20" s="9"/>
-      <c r="BQ20" s="9"/>
-      <c r="BR20" s="9"/>
-      <c r="BS20" s="9"/>
-      <c r="BT20" s="9"/>
-      <c r="BU20" s="9"/>
-      <c r="BV20" s="9"/>
-      <c r="BW20" s="9"/>
-      <c r="BX20" s="9"/>
-      <c r="BY20" s="9"/>
-      <c r="BZ20" s="9"/>
-      <c r="CA20" s="9"/>
-      <c r="CB20" s="9"/>
-      <c r="CC20" s="9"/>
-      <c r="CD20" s="9"/>
-      <c r="CE20" s="9"/>
-      <c r="CF20" s="9"/>
-      <c r="CG20" s="9"/>
-      <c r="CH20" s="9"/>
-      <c r="CI20" s="9"/>
-      <c r="CJ20" s="9"/>
-      <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
-      <c r="CU20" s="9"/>
-      <c r="CV20" s="9"/>
-      <c r="CW20" s="9"/>
-      <c r="CX20" s="9"/>
-      <c r="CY20" s="9"/>
-      <c r="CZ20" s="9"/>
-      <c r="DA20" s="9"/>
-      <c r="DB20" s="9"/>
-      <c r="DC20" s="9"/>
-      <c r="DD20" s="9"/>
-      <c r="DE20" s="9"/>
-      <c r="DF20" s="9"/>
-      <c r="DG20" s="9"/>
-      <c r="DH20" s="9"/>
-      <c r="DI20" s="9"/>
-      <c r="DJ20" s="9"/>
-      <c r="DK20" s="9"/>
-      <c r="DL20" s="9"/>
-      <c r="DM20" s="9"/>
-      <c r="DN20" s="9"/>
-      <c r="DO20" s="9"/>
-      <c r="DP20" s="9"/>
-      <c r="DQ20" s="9"/>
-      <c r="DR20" s="9"/>
-      <c r="DS20" s="9"/>
-      <c r="DT20" s="9"/>
-      <c r="DU20" s="9"/>
-      <c r="DV20" s="9"/>
-      <c r="DW20" s="9"/>
-      <c r="DX20" s="9"/>
-      <c r="DY20" s="9"/>
-      <c r="DZ20" s="9"/>
-      <c r="EA20" s="9"/>
-      <c r="EB20" s="9"/>
-      <c r="EC20" s="9"/>
-      <c r="ED20" s="9"/>
-      <c r="EE20" s="9"/>
-      <c r="EF20" s="9"/>
-      <c r="EG20" s="9"/>
-      <c r="EH20" s="9"/>
-      <c r="EI20" s="9"/>
-      <c r="EJ20" s="9"/>
-      <c r="EK20" s="9"/>
-      <c r="EL20" s="9"/>
-      <c r="EM20" s="9"/>
-      <c r="EN20" s="9"/>
-      <c r="EO20" s="9"/>
-      <c r="EP20" s="9"/>
-      <c r="EQ20" s="9"/>
-      <c r="ER20" s="9"/>
-      <c r="ES20" s="9"/>
-      <c r="ET20" s="9"/>
-      <c r="EU20" s="9"/>
-      <c r="EV20" s="9"/>
-      <c r="EW20" s="9"/>
-      <c r="EX20" s="9"/>
-      <c r="EY20" s="9"/>
-      <c r="EZ20" s="9"/>
-      <c r="FA20" s="9"/>
-      <c r="FB20" s="9"/>
-      <c r="FC20" s="9"/>
-      <c r="FD20" s="9"/>
-      <c r="FE20" s="9"/>
-      <c r="FF20" s="9"/>
-      <c r="FG20" s="9"/>
-      <c r="FH20" s="9"/>
-      <c r="FI20" s="9"/>
-      <c r="FJ20" s="9"/>
-      <c r="FK20" s="9"/>
-      <c r="FL20" s="9"/>
-      <c r="FM20" s="9"/>
-      <c r="FN20" s="9"/>
-      <c r="FO20" s="9"/>
-      <c r="FP20" s="9"/>
-      <c r="FQ20" s="9"/>
-      <c r="FR20" s="9"/>
-      <c r="FS20" s="9"/>
-      <c r="FT20" s="9"/>
-      <c r="FU20" s="9"/>
-      <c r="FV20" s="9"/>
-      <c r="FW20" s="9"/>
-      <c r="FX20" s="9"/>
-      <c r="FY20" s="9"/>
-      <c r="FZ20" s="9"/>
-      <c r="GA20" s="9"/>
-      <c r="GB20" s="9"/>
-      <c r="GC20" s="9"/>
-      <c r="GD20" s="9"/>
-      <c r="GE20" s="9"/>
-      <c r="GF20" s="9"/>
-      <c r="GG20" s="9"/>
-      <c r="GH20" s="9"/>
-      <c r="GI20" s="9"/>
-      <c r="GJ20" s="9"/>
-      <c r="GK20" s="9"/>
-      <c r="GL20" s="9"/>
-      <c r="GM20" s="9"/>
-      <c r="GN20" s="9"/>
-      <c r="GO20" s="9"/>
-      <c r="GP20" s="9"/>
-      <c r="GQ20" s="9"/>
-      <c r="GR20" s="9"/>
-      <c r="GS20" s="9"/>
-      <c r="GT20" s="9"/>
-      <c r="GU20" s="9"/>
-      <c r="GV20" s="9"/>
-      <c r="GW20" s="9"/>
-      <c r="GX20" s="9"/>
-      <c r="GY20" s="9"/>
-      <c r="GZ20" s="9"/>
-      <c r="HA20" s="9"/>
-      <c r="HB20" s="9"/>
-      <c r="HC20" s="9"/>
-      <c r="HD20" s="9"/>
-      <c r="HE20" s="9"/>
-      <c r="HF20" s="9"/>
-      <c r="HG20" s="9"/>
-      <c r="HH20" s="9"/>
-      <c r="HI20" s="9"/>
-      <c r="HJ20" s="9"/>
-      <c r="HK20" s="9"/>
-      <c r="HL20" s="9"/>
-      <c r="HM20" s="9"/>
-      <c r="HN20" s="9"/>
-      <c r="HO20" s="9"/>
-      <c r="HP20" s="9"/>
-      <c r="HQ20" s="9"/>
-      <c r="HR20" s="9"/>
-      <c r="HS20" s="9"/>
-      <c r="HT20" s="9"/>
-      <c r="HU20" s="9"/>
-      <c r="HV20" s="9"/>
-      <c r="HW20" s="9"/>
-      <c r="HX20" s="9"/>
-      <c r="HY20" s="9"/>
-      <c r="HZ20" s="9"/>
-      <c r="IA20" s="9"/>
-      <c r="IB20" s="9"/>
-      <c r="IC20" s="9"/>
-      <c r="ID20" s="9"/>
-      <c r="IE20" s="9"/>
-      <c r="IF20" s="9"/>
-      <c r="IG20" s="9"/>
-      <c r="IH20" s="9"/>
-      <c r="II20" s="9"/>
-      <c r="IJ20" s="9"/>
-      <c r="IK20" s="9"/>
-      <c r="IL20" s="9"/>
-      <c r="IM20" s="9"/>
-      <c r="IN20" s="9"/>
-      <c r="IO20" s="9"/>
-      <c r="IP20" s="9"/>
-      <c r="IQ20" s="9"/>
-      <c r="IR20" s="9"/>
-      <c r="IS20" s="9"/>
-      <c r="IT20" s="9"/>
-      <c r="IU20" s="9"/>
-      <c r="IV20" s="9"/>
-      <c r="IW20" s="9"/>
-      <c r="IX20" s="9"/>
-      <c r="IY20" s="9"/>
-      <c r="IZ20" s="9"/>
-      <c r="JA20" s="9"/>
-      <c r="JB20" s="9"/>
-      <c r="JC20" s="9"/>
-      <c r="JD20" s="9"/>
-      <c r="JE20" s="9"/>
-      <c r="JF20" s="9"/>
-      <c r="JG20" s="9"/>
-      <c r="JH20" s="9"/>
-      <c r="JI20" s="9"/>
-      <c r="JJ20" s="9"/>
-      <c r="JK20" s="9"/>
-      <c r="JL20" s="9"/>
-      <c r="JM20" s="9"/>
-      <c r="JN20" s="9"/>
-      <c r="JO20" s="9"/>
-      <c r="JP20" s="9"/>
-      <c r="JQ20" s="9"/>
-      <c r="JR20" s="9"/>
-      <c r="JS20" s="9"/>
-      <c r="JT20" s="9"/>
-      <c r="JU20" s="9"/>
-      <c r="JV20" s="9"/>
-      <c r="JW20" s="9"/>
-      <c r="JX20" s="9"/>
-      <c r="JY20" s="9"/>
-      <c r="JZ20" s="9"/>
-      <c r="KA20" s="9"/>
-      <c r="KB20" s="9"/>
-      <c r="KC20" s="9"/>
-      <c r="KD20" s="9"/>
-      <c r="KE20" s="9"/>
-      <c r="KF20" s="9"/>
-      <c r="KG20" s="9"/>
-      <c r="KH20" s="9"/>
-      <c r="KI20" s="9"/>
-      <c r="KJ20" s="9"/>
-      <c r="KK20" s="9"/>
-      <c r="KL20" s="9"/>
-      <c r="KM20" s="9"/>
-      <c r="KN20" s="9"/>
-      <c r="KO20" s="9"/>
-      <c r="KP20" s="9"/>
-      <c r="KQ20" s="9"/>
-      <c r="KR20" s="9"/>
-      <c r="KS20" s="9"/>
-      <c r="KT20" s="9"/>
-      <c r="KU20" s="9"/>
-      <c r="KV20" s="9"/>
-      <c r="KW20" s="9"/>
-      <c r="KX20" s="9"/>
-      <c r="KY20" s="9"/>
-      <c r="KZ20" s="9"/>
-      <c r="LA20" s="9"/>
-      <c r="LB20" s="9"/>
-      <c r="LC20" s="9"/>
-      <c r="LD20" s="9"/>
-      <c r="LE20" s="9"/>
-      <c r="LF20" s="9"/>
-      <c r="LG20" s="9"/>
-      <c r="LH20" s="9"/>
-      <c r="LI20" s="9"/>
-      <c r="LJ20" s="9"/>
-      <c r="LK20" s="9"/>
-      <c r="LL20" s="9"/>
-      <c r="LM20" s="9"/>
-      <c r="LN20" s="9"/>
-      <c r="LO20" s="9"/>
-      <c r="LP20" s="9"/>
-      <c r="LQ20" s="9"/>
-      <c r="LR20" s="9"/>
-      <c r="LS20" s="9"/>
-      <c r="LT20" s="9"/>
-      <c r="LU20" s="9"/>
-      <c r="LV20" s="9"/>
-      <c r="LW20" s="9"/>
-      <c r="LX20" s="9"/>
-      <c r="LY20" s="9"/>
-      <c r="LZ20" s="9"/>
-      <c r="MA20" s="9"/>
-      <c r="MB20" s="9"/>
-      <c r="MC20" s="9"/>
-      <c r="MD20" s="9"/>
-      <c r="ME20" s="9"/>
-      <c r="MF20" s="9"/>
-      <c r="MG20" s="9"/>
-      <c r="MH20" s="9"/>
-      <c r="MI20" s="9"/>
-      <c r="MJ20" s="9"/>
-      <c r="MK20" s="9"/>
-      <c r="ML20" s="9"/>
-      <c r="MM20" s="9"/>
-      <c r="MN20" s="9"/>
-      <c r="MO20" s="9"/>
-      <c r="MP20" s="9"/>
-      <c r="MQ20" s="9"/>
-      <c r="MR20" s="9"/>
-      <c r="MS20" s="9"/>
-      <c r="MT20" s="9"/>
-      <c r="MU20" s="9"/>
-      <c r="MV20" s="9"/>
-      <c r="MW20" s="9"/>
-      <c r="MX20" s="9"/>
-      <c r="MY20" s="9"/>
-      <c r="MZ20" s="9"/>
-      <c r="NA20" s="9"/>
-      <c r="NB20" s="9"/>
-      <c r="NC20" s="9"/>
-      <c r="ND20" s="9"/>
-      <c r="NE20" s="9"/>
-      <c r="NF20" s="9"/>
-      <c r="NG20" s="9"/>
-      <c r="NH20" s="9"/>
-      <c r="NI20" s="9"/>
-      <c r="NJ20" s="9"/>
-      <c r="NK20" s="9"/>
-      <c r="NL20" s="9"/>
-      <c r="NM20" s="9"/>
-      <c r="NN20" s="9"/>
-      <c r="NO20" s="9"/>
-      <c r="NP20" s="9"/>
-      <c r="NQ20" s="9"/>
-      <c r="NR20" s="9"/>
-      <c r="NS20" s="9"/>
-      <c r="NT20" s="9"/>
-      <c r="NU20" s="9"/>
-      <c r="NV20" s="9"/>
-      <c r="NW20" s="9"/>
-      <c r="NX20" s="9"/>
-      <c r="NY20" s="9"/>
-      <c r="NZ20" s="9"/>
-      <c r="OA20" s="9"/>
-      <c r="OB20" s="9"/>
-      <c r="OC20" s="9"/>
-      <c r="OD20" s="9"/>
-      <c r="OE20" s="9"/>
-      <c r="OF20" s="9"/>
-      <c r="OG20" s="9"/>
-      <c r="OH20" s="9"/>
-      <c r="OI20" s="9"/>
-      <c r="OJ20" s="9"/>
-      <c r="OK20" s="9"/>
-      <c r="OL20" s="9"/>
-      <c r="OM20" s="9"/>
-      <c r="ON20" s="9"/>
-      <c r="OO20" s="9"/>
-      <c r="OP20" s="9"/>
-      <c r="OQ20" s="9"/>
-      <c r="OR20" s="9"/>
-      <c r="OS20" s="9"/>
-      <c r="OT20" s="9"/>
-      <c r="OU20" s="9"/>
-      <c r="OV20" s="9"/>
-      <c r="OW20" s="9"/>
-      <c r="OX20" s="9"/>
-      <c r="OY20" s="9"/>
-      <c r="OZ20" s="9"/>
-      <c r="PA20" s="9"/>
-      <c r="PB20" s="9"/>
-      <c r="PC20" s="9"/>
-      <c r="PD20" s="9"/>
-      <c r="PE20" s="9"/>
-      <c r="PF20" s="9"/>
-      <c r="PG20" s="9"/>
-      <c r="PH20" s="9"/>
-      <c r="PI20" s="9"/>
-      <c r="PJ20" s="9"/>
-      <c r="PK20" s="9"/>
-      <c r="PL20" s="9"/>
-      <c r="PM20" s="9"/>
-      <c r="PN20" s="9"/>
-      <c r="PO20" s="9"/>
-      <c r="PP20" s="9"/>
-      <c r="PQ20" s="9"/>
-      <c r="PR20" s="9"/>
-      <c r="PS20" s="9"/>
-      <c r="PT20" s="9"/>
-      <c r="PU20" s="9"/>
-      <c r="PV20" s="9"/>
-      <c r="PW20" s="9"/>
-      <c r="PX20" s="9"/>
-      <c r="PY20" s="9"/>
-      <c r="PZ20" s="9"/>
-      <c r="QA20" s="9"/>
-      <c r="QB20" s="9"/>
-      <c r="QC20" s="9"/>
-      <c r="QD20" s="9"/>
-      <c r="QE20" s="9"/>
-      <c r="QF20" s="9"/>
-      <c r="QG20" s="9"/>
-      <c r="QH20" s="9"/>
-      <c r="QI20" s="9"/>
-      <c r="QJ20" s="9"/>
-      <c r="QK20" s="9"/>
-      <c r="QL20" s="9"/>
-      <c r="QM20" s="9"/>
-      <c r="QN20" s="9"/>
-      <c r="QO20" s="9"/>
-      <c r="QP20" s="9"/>
-      <c r="QQ20" s="9"/>
-      <c r="QR20" s="9"/>
-      <c r="QS20" s="9"/>
-      <c r="QT20" s="9"/>
-      <c r="QU20" s="9"/>
-      <c r="QV20" s="9"/>
-      <c r="QW20" s="9"/>
-      <c r="QX20" s="9"/>
-      <c r="QY20" s="9"/>
-      <c r="QZ20" s="9"/>
-      <c r="RA20" s="9"/>
-      <c r="RB20" s="9"/>
-      <c r="RC20" s="9"/>
-      <c r="RD20" s="9"/>
-      <c r="RE20" s="9"/>
-      <c r="RF20" s="9"/>
-      <c r="RG20" s="9"/>
-      <c r="RH20" s="9"/>
-      <c r="RI20" s="9"/>
-      <c r="RJ20" s="9"/>
-      <c r="RK20" s="9"/>
-      <c r="RL20" s="9"/>
-      <c r="RM20" s="9"/>
-      <c r="RN20" s="9"/>
-      <c r="RO20" s="9"/>
-      <c r="RP20" s="9"/>
-      <c r="RQ20" s="9"/>
-      <c r="RR20" s="9"/>
-      <c r="RS20" s="9"/>
-      <c r="RT20" s="9"/>
-      <c r="RU20" s="9"/>
-      <c r="RV20" s="9"/>
-      <c r="RW20" s="9"/>
-      <c r="RX20" s="9"/>
-      <c r="RY20" s="9"/>
-      <c r="RZ20" s="9"/>
-      <c r="SA20" s="9"/>
-      <c r="SB20" s="9"/>
-      <c r="SC20" s="9"/>
-      <c r="SD20" s="9"/>
-      <c r="SE20" s="9"/>
-      <c r="SF20" s="9"/>
-      <c r="SG20" s="9"/>
-      <c r="SH20" s="9"/>
-      <c r="SI20" s="9"/>
-      <c r="SJ20" s="9"/>
-      <c r="SK20" s="9"/>
-      <c r="SL20" s="9"/>
-      <c r="SM20" s="9"/>
-      <c r="SN20" s="9"/>
-      <c r="SO20" s="9"/>
-      <c r="SP20" s="9"/>
-      <c r="SQ20" s="9"/>
-      <c r="SR20" s="9"/>
-      <c r="SS20" s="9"/>
-      <c r="ST20" s="9"/>
-      <c r="SU20" s="9"/>
-      <c r="SV20" s="9"/>
-      <c r="SW20" s="9"/>
-      <c r="SX20" s="9"/>
-      <c r="SY20" s="9"/>
-      <c r="SZ20" s="9"/>
-      <c r="TA20" s="9"/>
-      <c r="TB20" s="9"/>
-      <c r="TC20" s="9"/>
-      <c r="TD20" s="9"/>
-      <c r="TE20" s="9"/>
-      <c r="TF20" s="9"/>
-      <c r="TG20" s="9"/>
-      <c r="TH20" s="9"/>
-      <c r="TI20" s="9"/>
-      <c r="TJ20" s="9"/>
-      <c r="TK20" s="9"/>
-      <c r="TL20" s="9"/>
-      <c r="TM20" s="9"/>
-      <c r="TN20" s="9"/>
-      <c r="TO20" s="9"/>
-      <c r="TP20" s="9"/>
-      <c r="TQ20" s="9"/>
-      <c r="TR20" s="9"/>
-      <c r="TS20" s="9"/>
-      <c r="TT20" s="9"/>
-      <c r="TU20" s="9"/>
-      <c r="TV20" s="9"/>
-      <c r="TW20" s="9"/>
-      <c r="TX20" s="9"/>
-      <c r="TY20" s="9"/>
-      <c r="TZ20" s="9"/>
-      <c r="UA20" s="9"/>
-      <c r="UB20" s="9"/>
-      <c r="UC20" s="9"/>
-      <c r="UD20" s="9"/>
-      <c r="UE20" s="9"/>
-      <c r="UF20" s="9"/>
-      <c r="UG20" s="9"/>
-      <c r="UH20" s="9"/>
-      <c r="UI20" s="9"/>
-      <c r="UJ20" s="9"/>
-      <c r="UK20" s="9"/>
-      <c r="UL20" s="9"/>
-      <c r="UM20" s="9"/>
-      <c r="UN20" s="9"/>
-      <c r="UO20" s="9"/>
-      <c r="UP20" s="9"/>
-      <c r="UQ20" s="9"/>
-      <c r="UR20" s="9"/>
-      <c r="US20" s="9"/>
-      <c r="UT20" s="9"/>
-      <c r="UU20" s="9"/>
-      <c r="UV20" s="9"/>
-      <c r="UW20" s="9"/>
-      <c r="UX20" s="9"/>
-      <c r="UY20" s="9"/>
-      <c r="UZ20" s="9"/>
-      <c r="VA20" s="9"/>
-      <c r="VB20" s="9"/>
-      <c r="VC20" s="9"/>
-      <c r="VD20" s="9"/>
-      <c r="VE20" s="9"/>
-      <c r="VF20" s="9"/>
-      <c r="VG20" s="9"/>
-      <c r="VH20" s="9"/>
-      <c r="VI20" s="9"/>
-      <c r="VJ20" s="9"/>
-      <c r="VK20" s="9"/>
-      <c r="VL20" s="9"/>
-      <c r="VM20" s="9"/>
-      <c r="VN20" s="9"/>
-      <c r="VO20" s="9"/>
-      <c r="VP20" s="9"/>
-      <c r="VQ20" s="9"/>
-      <c r="VR20" s="9"/>
-      <c r="VS20" s="9"/>
-      <c r="VT20" s="9"/>
-      <c r="VU20" s="9"/>
-      <c r="VV20" s="9"/>
-      <c r="VW20" s="9"/>
-      <c r="VX20" s="9"/>
-      <c r="VY20" s="9"/>
-      <c r="VZ20" s="9"/>
-      <c r="WA20" s="9"/>
-      <c r="WB20" s="9"/>
-      <c r="WC20" s="9"/>
-      <c r="WD20" s="9"/>
-      <c r="WE20" s="9"/>
-      <c r="WF20" s="9"/>
-      <c r="WG20" s="9"/>
-      <c r="WH20" s="9"/>
-      <c r="WI20" s="9"/>
-      <c r="WJ20" s="9"/>
-      <c r="WK20" s="9"/>
-      <c r="WL20" s="9"/>
-      <c r="WM20" s="9"/>
-      <c r="WN20" s="9"/>
-      <c r="WO20" s="9"/>
-      <c r="WP20" s="9"/>
-      <c r="WQ20" s="9"/>
-      <c r="WR20" s="9"/>
-      <c r="WS20" s="9"/>
-      <c r="WT20" s="9"/>
-      <c r="WU20" s="9"/>
-      <c r="WV20" s="9"/>
-      <c r="WW20" s="9"/>
-      <c r="WX20" s="9"/>
-      <c r="WY20" s="9"/>
-      <c r="WZ20" s="9"/>
-      <c r="XA20" s="9"/>
-      <c r="XB20" s="9"/>
-      <c r="XC20" s="9"/>
-      <c r="XD20" s="9"/>
-      <c r="XE20" s="9"/>
-      <c r="XF20" s="9"/>
-      <c r="XG20" s="9"/>
-      <c r="XH20" s="9"/>
-      <c r="XI20" s="9"/>
-      <c r="XJ20" s="9"/>
-      <c r="XK20" s="9"/>
-      <c r="XL20" s="9"/>
-      <c r="XM20" s="9"/>
-      <c r="XN20" s="9"/>
-      <c r="XO20" s="9"/>
-      <c r="XP20" s="9"/>
-      <c r="XQ20" s="9"/>
-      <c r="XR20" s="9"/>
-      <c r="XS20" s="9"/>
-      <c r="XT20" s="9"/>
-      <c r="XU20" s="9"/>
-      <c r="XV20" s="9"/>
-      <c r="XW20" s="9"/>
-      <c r="XX20" s="9"/>
-      <c r="XY20" s="9"/>
-      <c r="XZ20" s="9"/>
-      <c r="YA20" s="9"/>
-      <c r="YB20" s="9"/>
-      <c r="YC20" s="9"/>
-      <c r="YD20" s="9"/>
-      <c r="YE20" s="9"/>
-      <c r="YF20" s="9"/>
-      <c r="YG20" s="9"/>
-      <c r="YH20" s="9"/>
-      <c r="YI20" s="9"/>
-      <c r="YJ20" s="9"/>
-      <c r="YK20" s="9"/>
-      <c r="YL20" s="9"/>
-      <c r="YM20" s="9"/>
-      <c r="YN20" s="9"/>
-      <c r="YO20" s="9"/>
-      <c r="YP20" s="9"/>
-      <c r="YQ20" s="9"/>
-      <c r="YR20" s="9"/>
-      <c r="YS20" s="9"/>
-      <c r="YT20" s="9"/>
-      <c r="YU20" s="9"/>
-      <c r="YV20" s="9"/>
-      <c r="YW20" s="9"/>
-      <c r="YX20" s="9"/>
-      <c r="YY20" s="9"/>
-      <c r="YZ20" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="9"/>
+      <c r="CA22" s="9"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="9"/>
+      <c r="CE22" s="9"/>
+      <c r="CF22" s="9"/>
+      <c r="CG22" s="9"/>
+      <c r="CH22" s="9"/>
+      <c r="CI22" s="9"/>
+      <c r="CJ22" s="9"/>
+      <c r="CK22" s="9"/>
+      <c r="CL22" s="9"/>
+      <c r="CM22" s="9"/>
+      <c r="CN22" s="9"/>
+      <c r="CO22" s="9"/>
+      <c r="CP22" s="9"/>
+      <c r="CQ22" s="9"/>
+      <c r="CR22" s="9"/>
+      <c r="CS22" s="9"/>
+      <c r="CT22" s="9"/>
+      <c r="CU22" s="9"/>
+      <c r="CV22" s="9"/>
+      <c r="CW22" s="9"/>
+      <c r="CX22" s="9"/>
+      <c r="CY22" s="9"/>
+      <c r="CZ22" s="9"/>
+      <c r="DA22" s="9"/>
+      <c r="DB22" s="9"/>
+      <c r="DC22" s="9"/>
+      <c r="DD22" s="9"/>
+      <c r="DE22" s="9"/>
+      <c r="DF22" s="9"/>
+      <c r="DG22" s="9"/>
+      <c r="DH22" s="9"/>
+      <c r="DI22" s="9"/>
+      <c r="DJ22" s="9"/>
+      <c r="DK22" s="9"/>
+      <c r="DL22" s="9"/>
+      <c r="DM22" s="9"/>
+      <c r="DN22" s="9"/>
+      <c r="DO22" s="9"/>
+      <c r="DP22" s="9"/>
+      <c r="DQ22" s="9"/>
+      <c r="DR22" s="9"/>
+      <c r="DS22" s="9"/>
+      <c r="DT22" s="9"/>
+      <c r="DU22" s="9"/>
+      <c r="DV22" s="9"/>
+      <c r="DW22" s="9"/>
+      <c r="DX22" s="9"/>
+      <c r="DY22" s="9"/>
+      <c r="DZ22" s="9"/>
+      <c r="EA22" s="9"/>
+      <c r="EB22" s="9"/>
+      <c r="EC22" s="9"/>
+      <c r="ED22" s="9"/>
+      <c r="EE22" s="9"/>
+      <c r="EF22" s="9"/>
+      <c r="EG22" s="9"/>
+      <c r="EH22" s="9"/>
+      <c r="EI22" s="9"/>
+      <c r="EJ22" s="9"/>
+      <c r="EK22" s="9"/>
+      <c r="EL22" s="9"/>
+      <c r="EM22" s="9"/>
+      <c r="EN22" s="9"/>
+      <c r="EO22" s="9"/>
+      <c r="EP22" s="9"/>
+      <c r="EQ22" s="9"/>
+      <c r="ER22" s="9"/>
+      <c r="ES22" s="9"/>
+      <c r="ET22" s="9"/>
+      <c r="EU22" s="9"/>
+      <c r="EV22" s="9"/>
+      <c r="EW22" s="9"/>
+      <c r="EX22" s="9"/>
+      <c r="EY22" s="9"/>
+      <c r="EZ22" s="9"/>
+      <c r="FA22" s="9"/>
+      <c r="FB22" s="9"/>
+      <c r="FC22" s="9"/>
+      <c r="FD22" s="9"/>
+      <c r="FE22" s="9"/>
+      <c r="FF22" s="9"/>
+      <c r="FG22" s="9"/>
+      <c r="FH22" s="9"/>
+      <c r="FI22" s="9"/>
+      <c r="FJ22" s="9"/>
+      <c r="FK22" s="9"/>
+      <c r="FL22" s="9"/>
+      <c r="FM22" s="9"/>
+      <c r="FN22" s="9"/>
+      <c r="FO22" s="9"/>
+      <c r="FP22" s="9"/>
+      <c r="FQ22" s="9"/>
+      <c r="FR22" s="9"/>
+      <c r="FS22" s="9"/>
+      <c r="FT22" s="9"/>
+      <c r="FU22" s="9"/>
+      <c r="FV22" s="9"/>
+      <c r="FW22" s="9"/>
+      <c r="FX22" s="9"/>
+      <c r="FY22" s="9"/>
+      <c r="FZ22" s="9"/>
+      <c r="GA22" s="9"/>
+      <c r="GB22" s="9"/>
+      <c r="GC22" s="9"/>
+      <c r="GD22" s="9"/>
+      <c r="GE22" s="9"/>
+      <c r="GF22" s="9"/>
+      <c r="GG22" s="9"/>
+      <c r="GH22" s="9"/>
+      <c r="GI22" s="9"/>
+      <c r="GJ22" s="9"/>
+      <c r="GK22" s="9"/>
+      <c r="GL22" s="9"/>
+      <c r="GM22" s="9"/>
+      <c r="GN22" s="9"/>
+      <c r="GO22" s="9"/>
+      <c r="GP22" s="9"/>
+      <c r="GQ22" s="9"/>
+      <c r="GR22" s="9"/>
+      <c r="GS22" s="9"/>
+      <c r="GT22" s="9"/>
+      <c r="GU22" s="9"/>
+      <c r="GV22" s="9"/>
+      <c r="GW22" s="9"/>
+      <c r="GX22" s="9"/>
+      <c r="GY22" s="9"/>
+      <c r="GZ22" s="9"/>
+      <c r="HA22" s="9"/>
+      <c r="HB22" s="9"/>
+      <c r="HC22" s="9"/>
+      <c r="HD22" s="9"/>
+      <c r="HE22" s="9"/>
+      <c r="HF22" s="9"/>
+      <c r="HG22" s="9"/>
+      <c r="HH22" s="9"/>
+      <c r="HI22" s="9"/>
+      <c r="HJ22" s="9"/>
+      <c r="HK22" s="9"/>
+      <c r="HL22" s="9"/>
+      <c r="HM22" s="9"/>
+      <c r="HN22" s="9"/>
+      <c r="HO22" s="9"/>
+      <c r="HP22" s="9"/>
+      <c r="HQ22" s="9"/>
+      <c r="HR22" s="9"/>
+      <c r="HS22" s="9"/>
+      <c r="HT22" s="9"/>
+      <c r="HU22" s="9"/>
+      <c r="HV22" s="9"/>
+      <c r="HW22" s="9"/>
+      <c r="HX22" s="9"/>
+      <c r="HY22" s="9"/>
+      <c r="HZ22" s="9"/>
+      <c r="IA22" s="9"/>
+      <c r="IB22" s="9"/>
+      <c r="IC22" s="9"/>
+      <c r="ID22" s="9"/>
+      <c r="IE22" s="9"/>
+      <c r="IF22" s="9"/>
+      <c r="IG22" s="9"/>
+      <c r="IH22" s="9"/>
+      <c r="II22" s="9"/>
+      <c r="IJ22" s="9"/>
+      <c r="IK22" s="9"/>
+      <c r="IL22" s="9"/>
+      <c r="IM22" s="9"/>
+      <c r="IN22" s="9"/>
+      <c r="IO22" s="9"/>
+      <c r="IP22" s="9"/>
+      <c r="IQ22" s="9"/>
+      <c r="IR22" s="9"/>
+      <c r="IS22" s="9"/>
+      <c r="IT22" s="9"/>
+      <c r="IU22" s="9"/>
+      <c r="IV22" s="9"/>
+      <c r="IW22" s="9"/>
+      <c r="IX22" s="9"/>
+      <c r="IY22" s="9"/>
+      <c r="IZ22" s="9"/>
+      <c r="JA22" s="9"/>
+      <c r="JB22" s="9"/>
+      <c r="JC22" s="9"/>
+      <c r="JD22" s="9"/>
+      <c r="JE22" s="9"/>
+      <c r="JF22" s="9"/>
+      <c r="JG22" s="9"/>
+      <c r="JH22" s="9"/>
+      <c r="JI22" s="9"/>
+      <c r="JJ22" s="9"/>
+      <c r="JK22" s="9"/>
+      <c r="JL22" s="9"/>
+      <c r="JM22" s="9"/>
+      <c r="JN22" s="9"/>
+      <c r="JO22" s="9"/>
+      <c r="JP22" s="9"/>
+      <c r="JQ22" s="9"/>
+      <c r="JR22" s="9"/>
+      <c r="JS22" s="9"/>
+      <c r="JT22" s="9"/>
+      <c r="JU22" s="9"/>
+      <c r="JV22" s="9"/>
+      <c r="JW22" s="9"/>
+      <c r="JX22" s="9"/>
+      <c r="JY22" s="9"/>
+      <c r="JZ22" s="9"/>
+      <c r="KA22" s="9"/>
+      <c r="KB22" s="9"/>
+      <c r="KC22" s="9"/>
+      <c r="KD22" s="9"/>
+      <c r="KE22" s="9"/>
+      <c r="KF22" s="9"/>
+      <c r="KG22" s="9"/>
+      <c r="KH22" s="9"/>
+      <c r="KI22" s="9"/>
+      <c r="KJ22" s="9"/>
+      <c r="KK22" s="9"/>
+      <c r="KL22" s="9"/>
+      <c r="KM22" s="9"/>
+      <c r="KN22" s="9"/>
+      <c r="KO22" s="9"/>
+      <c r="KP22" s="9"/>
+      <c r="KQ22" s="9"/>
+      <c r="KR22" s="9"/>
+      <c r="KS22" s="9"/>
+      <c r="KT22" s="9"/>
+      <c r="KU22" s="9"/>
+      <c r="KV22" s="9"/>
+      <c r="KW22" s="9"/>
+      <c r="KX22" s="9"/>
+      <c r="KY22" s="9"/>
+      <c r="KZ22" s="9"/>
+      <c r="LA22" s="9"/>
+      <c r="LB22" s="9"/>
+      <c r="LC22" s="9"/>
+      <c r="LD22" s="9"/>
+      <c r="LE22" s="9"/>
+      <c r="LF22" s="9"/>
+      <c r="LG22" s="9"/>
+      <c r="LH22" s="9"/>
+      <c r="LI22" s="9"/>
+      <c r="LJ22" s="9"/>
+      <c r="LK22" s="9"/>
+      <c r="LL22" s="9"/>
+      <c r="LM22" s="9"/>
+      <c r="LN22" s="9"/>
+      <c r="LO22" s="9"/>
+      <c r="LP22" s="9"/>
+      <c r="LQ22" s="9"/>
+      <c r="LR22" s="9"/>
+      <c r="LS22" s="9"/>
+      <c r="LT22" s="9"/>
+      <c r="LU22" s="9"/>
+      <c r="LV22" s="9"/>
+      <c r="LW22" s="9"/>
+      <c r="LX22" s="9"/>
+      <c r="LY22" s="9"/>
+      <c r="LZ22" s="9"/>
+      <c r="MA22" s="9"/>
+      <c r="MB22" s="9"/>
+      <c r="MC22" s="9"/>
+      <c r="MD22" s="9"/>
+      <c r="ME22" s="9"/>
+      <c r="MF22" s="9"/>
+      <c r="MG22" s="9"/>
+      <c r="MH22" s="9"/>
+      <c r="MI22" s="9"/>
+      <c r="MJ22" s="9"/>
+      <c r="MK22" s="9"/>
+      <c r="ML22" s="9"/>
+      <c r="MM22" s="9"/>
+      <c r="MN22" s="9"/>
+      <c r="MO22" s="9"/>
+      <c r="MP22" s="9"/>
+      <c r="MQ22" s="9"/>
+      <c r="MR22" s="9"/>
+      <c r="MS22" s="9"/>
+      <c r="MT22" s="9"/>
+      <c r="MU22" s="9"/>
+      <c r="MV22" s="9"/>
+      <c r="MW22" s="9"/>
+      <c r="MX22" s="9"/>
+      <c r="MY22" s="9"/>
+      <c r="MZ22" s="9"/>
+      <c r="NA22" s="9"/>
+      <c r="NB22" s="9"/>
+      <c r="NC22" s="9"/>
+      <c r="ND22" s="9"/>
+      <c r="NE22" s="9"/>
+      <c r="NF22" s="9"/>
+      <c r="NG22" s="9"/>
+      <c r="NH22" s="9"/>
+      <c r="NI22" s="9"/>
+      <c r="NJ22" s="9"/>
+      <c r="NK22" s="9"/>
+      <c r="NL22" s="9"/>
+      <c r="NM22" s="9"/>
+      <c r="NN22" s="9"/>
+      <c r="NO22" s="9"/>
+      <c r="NP22" s="9"/>
+      <c r="NQ22" s="9"/>
+      <c r="NR22" s="9"/>
+      <c r="NS22" s="9"/>
+      <c r="NT22" s="9"/>
+      <c r="NU22" s="9"/>
+      <c r="NV22" s="9"/>
+      <c r="NW22" s="9"/>
+      <c r="NX22" s="9"/>
+      <c r="NY22" s="9"/>
+      <c r="NZ22" s="9"/>
+      <c r="OA22" s="9"/>
+      <c r="OB22" s="9"/>
+      <c r="OC22" s="9"/>
+      <c r="OD22" s="9"/>
+      <c r="OE22" s="9"/>
+      <c r="OF22" s="9"/>
+      <c r="OG22" s="9"/>
+      <c r="OH22" s="9"/>
+      <c r="OI22" s="9"/>
+      <c r="OJ22" s="9"/>
+      <c r="OK22" s="9"/>
+      <c r="OL22" s="9"/>
+      <c r="OM22" s="9"/>
+      <c r="ON22" s="9"/>
+      <c r="OO22" s="9"/>
+      <c r="OP22" s="9"/>
+      <c r="OQ22" s="9"/>
+      <c r="OR22" s="9"/>
+      <c r="OS22" s="9"/>
+      <c r="OT22" s="9"/>
+      <c r="OU22" s="9"/>
+      <c r="OV22" s="9"/>
+      <c r="OW22" s="9"/>
+      <c r="OX22" s="9"/>
+      <c r="OY22" s="9"/>
+      <c r="OZ22" s="9"/>
+      <c r="PA22" s="9"/>
+      <c r="PB22" s="9"/>
+      <c r="PC22" s="9"/>
+      <c r="PD22" s="9"/>
+      <c r="PE22" s="9"/>
+      <c r="PF22" s="9"/>
+      <c r="PG22" s="9"/>
+      <c r="PH22" s="9"/>
+      <c r="PI22" s="9"/>
+      <c r="PJ22" s="9"/>
+      <c r="PK22" s="9"/>
+      <c r="PL22" s="9"/>
+      <c r="PM22" s="9"/>
+      <c r="PN22" s="9"/>
+      <c r="PO22" s="9"/>
+      <c r="PP22" s="9"/>
+      <c r="PQ22" s="9"/>
+      <c r="PR22" s="9"/>
+      <c r="PS22" s="9"/>
+      <c r="PT22" s="9"/>
+      <c r="PU22" s="9"/>
+      <c r="PV22" s="9"/>
+      <c r="PW22" s="9"/>
+      <c r="PX22" s="9"/>
+      <c r="PY22" s="9"/>
+      <c r="PZ22" s="9"/>
+      <c r="QA22" s="9"/>
+      <c r="QB22" s="9"/>
+      <c r="QC22" s="9"/>
+      <c r="QD22" s="9"/>
+      <c r="QE22" s="9"/>
+      <c r="QF22" s="9"/>
+      <c r="QG22" s="9"/>
+      <c r="QH22" s="9"/>
+      <c r="QI22" s="9"/>
+      <c r="QJ22" s="9"/>
+      <c r="QK22" s="9"/>
+      <c r="QL22" s="9"/>
+      <c r="QM22" s="9"/>
+      <c r="QN22" s="9"/>
+      <c r="QO22" s="9"/>
+      <c r="QP22" s="9"/>
+      <c r="QQ22" s="9"/>
+      <c r="QR22" s="9"/>
+      <c r="QS22" s="9"/>
+      <c r="QT22" s="9"/>
+      <c r="QU22" s="9"/>
+      <c r="QV22" s="9"/>
+      <c r="QW22" s="9"/>
+      <c r="QX22" s="9"/>
+      <c r="QY22" s="9"/>
+      <c r="QZ22" s="9"/>
+      <c r="RA22" s="9"/>
+      <c r="RB22" s="9"/>
+      <c r="RC22" s="9"/>
+      <c r="RD22" s="9"/>
+      <c r="RE22" s="9"/>
+      <c r="RF22" s="9"/>
+      <c r="RG22" s="9"/>
+      <c r="RH22" s="9"/>
+      <c r="RI22" s="9"/>
+      <c r="RJ22" s="9"/>
+      <c r="RK22" s="9"/>
+      <c r="RL22" s="9"/>
+      <c r="RM22" s="9"/>
+      <c r="RN22" s="9"/>
+      <c r="RO22" s="9"/>
+      <c r="RP22" s="9"/>
+      <c r="RQ22" s="9"/>
+      <c r="RR22" s="9"/>
+      <c r="RS22" s="9"/>
+      <c r="RT22" s="9"/>
+      <c r="RU22" s="9"/>
+      <c r="RV22" s="9"/>
+      <c r="RW22" s="9"/>
+      <c r="RX22" s="9"/>
+      <c r="RY22" s="9"/>
+      <c r="RZ22" s="9"/>
+      <c r="SA22" s="9"/>
+      <c r="SB22" s="9"/>
+      <c r="SC22" s="9"/>
+      <c r="SD22" s="9"/>
+      <c r="SE22" s="9"/>
+      <c r="SF22" s="9"/>
+      <c r="SG22" s="9"/>
+      <c r="SH22" s="9"/>
+      <c r="SI22" s="9"/>
+      <c r="SJ22" s="9"/>
+      <c r="SK22" s="9"/>
+      <c r="SL22" s="9"/>
+      <c r="SM22" s="9"/>
+      <c r="SN22" s="9"/>
+      <c r="SO22" s="9"/>
+      <c r="SP22" s="9"/>
+      <c r="SQ22" s="9"/>
+      <c r="SR22" s="9"/>
+      <c r="SS22" s="9"/>
+      <c r="ST22" s="9"/>
+      <c r="SU22" s="9"/>
+      <c r="SV22" s="9"/>
+      <c r="SW22" s="9"/>
+      <c r="SX22" s="9"/>
+      <c r="SY22" s="9"/>
+      <c r="SZ22" s="9"/>
+      <c r="TA22" s="9"/>
+      <c r="TB22" s="9"/>
+      <c r="TC22" s="9"/>
+      <c r="TD22" s="9"/>
+      <c r="TE22" s="9"/>
+      <c r="TF22" s="9"/>
+      <c r="TG22" s="9"/>
+      <c r="TH22" s="9"/>
+      <c r="TI22" s="9"/>
+      <c r="TJ22" s="9"/>
+      <c r="TK22" s="9"/>
+      <c r="TL22" s="9"/>
+      <c r="TM22" s="9"/>
+      <c r="TN22" s="9"/>
+      <c r="TO22" s="9"/>
+      <c r="TP22" s="9"/>
+      <c r="TQ22" s="9"/>
+      <c r="TR22" s="9"/>
+      <c r="TS22" s="9"/>
+      <c r="TT22" s="9"/>
+      <c r="TU22" s="9"/>
+      <c r="TV22" s="9"/>
+      <c r="TW22" s="9"/>
+      <c r="TX22" s="9"/>
+      <c r="TY22" s="9"/>
+      <c r="TZ22" s="9"/>
+      <c r="UA22" s="9"/>
+      <c r="UB22" s="9"/>
+      <c r="UC22" s="9"/>
+      <c r="UD22" s="9"/>
+      <c r="UE22" s="9"/>
+      <c r="UF22" s="9"/>
+      <c r="UG22" s="9"/>
+      <c r="UH22" s="9"/>
+      <c r="UI22" s="9"/>
+      <c r="UJ22" s="9"/>
+      <c r="UK22" s="9"/>
+      <c r="UL22" s="9"/>
+      <c r="UM22" s="9"/>
+      <c r="UN22" s="9"/>
+      <c r="UO22" s="9"/>
+      <c r="UP22" s="9"/>
+      <c r="UQ22" s="9"/>
+      <c r="UR22" s="9"/>
+      <c r="US22" s="9"/>
+      <c r="UT22" s="9"/>
+      <c r="UU22" s="9"/>
+      <c r="UV22" s="9"/>
+      <c r="UW22" s="9"/>
+      <c r="UX22" s="9"/>
+      <c r="UY22" s="9"/>
+      <c r="UZ22" s="9"/>
+      <c r="VA22" s="9"/>
+      <c r="VB22" s="9"/>
+      <c r="VC22" s="9"/>
+      <c r="VD22" s="9"/>
+      <c r="VE22" s="9"/>
+      <c r="VF22" s="9"/>
+      <c r="VG22" s="9"/>
+      <c r="VH22" s="9"/>
+      <c r="VI22" s="9"/>
+      <c r="VJ22" s="9"/>
+      <c r="VK22" s="9"/>
+      <c r="VL22" s="9"/>
+      <c r="VM22" s="9"/>
+      <c r="VN22" s="9"/>
+      <c r="VO22" s="9"/>
+      <c r="VP22" s="9"/>
+      <c r="VQ22" s="9"/>
+      <c r="VR22" s="9"/>
+      <c r="VS22" s="9"/>
+      <c r="VT22" s="9"/>
+      <c r="VU22" s="9"/>
+      <c r="VV22" s="9"/>
+      <c r="VW22" s="9"/>
+      <c r="VX22" s="9"/>
+      <c r="VY22" s="9"/>
+      <c r="VZ22" s="9"/>
+      <c r="WA22" s="9"/>
+      <c r="WB22" s="9"/>
+      <c r="WC22" s="9"/>
+      <c r="WD22" s="9"/>
+      <c r="WE22" s="9"/>
+      <c r="WF22" s="9"/>
+      <c r="WG22" s="9"/>
+      <c r="WH22" s="9"/>
+      <c r="WI22" s="9"/>
+      <c r="WJ22" s="9"/>
+      <c r="WK22" s="9"/>
+      <c r="WL22" s="9"/>
+      <c r="WM22" s="9"/>
+      <c r="WN22" s="9"/>
+      <c r="WO22" s="9"/>
+      <c r="WP22" s="9"/>
+      <c r="WQ22" s="9"/>
+      <c r="WR22" s="9"/>
+      <c r="WS22" s="9"/>
+      <c r="WT22" s="9"/>
+      <c r="WU22" s="9"/>
+      <c r="WV22" s="9"/>
+      <c r="WW22" s="9"/>
+      <c r="WX22" s="9"/>
+      <c r="WY22" s="9"/>
+      <c r="WZ22" s="9"/>
+      <c r="XA22" s="9"/>
+      <c r="XB22" s="9"/>
+      <c r="XC22" s="9"/>
+      <c r="XD22" s="9"/>
+      <c r="XE22" s="9"/>
+      <c r="XF22" s="9"/>
+      <c r="XG22" s="9"/>
+      <c r="XH22" s="9"/>
+      <c r="XI22" s="9"/>
+      <c r="XJ22" s="9"/>
+      <c r="XK22" s="9"/>
+      <c r="XL22" s="9"/>
+      <c r="XM22" s="9"/>
+      <c r="XN22" s="9"/>
+      <c r="XO22" s="9"/>
+      <c r="XP22" s="9"/>
+      <c r="XQ22" s="9"/>
+      <c r="XR22" s="9"/>
+      <c r="XS22" s="9"/>
+      <c r="XT22" s="9"/>
+      <c r="XU22" s="9"/>
+      <c r="XV22" s="9"/>
+      <c r="XW22" s="9"/>
+      <c r="XX22" s="9"/>
+      <c r="XY22" s="9"/>
+      <c r="XZ22" s="9"/>
+      <c r="YA22" s="9"/>
+      <c r="YB22" s="9"/>
+      <c r="YC22" s="9"/>
+      <c r="YD22" s="9"/>
+      <c r="YE22" s="9"/>
+      <c r="YF22" s="9"/>
+      <c r="YG22" s="9"/>
+      <c r="YH22" s="9"/>
+      <c r="YI22" s="9"/>
+      <c r="YJ22" s="9"/>
+      <c r="YK22" s="9"/>
+      <c r="YL22" s="9"/>
+      <c r="YM22" s="9"/>
+      <c r="YN22" s="9"/>
+      <c r="YO22" s="9"/>
+      <c r="YP22" s="9"/>
+      <c r="YQ22" s="9"/>
+      <c r="YR22" s="9"/>
+      <c r="YS22" s="9"/>
+      <c r="YT22" s="9"/>
+      <c r="YU22" s="9"/>
+      <c r="YV22" s="9"/>
+      <c r="YW22" s="9"/>
+      <c r="YX22" s="9"/>
+      <c r="YY22" s="9"/>
+      <c r="YZ22" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-clover/tests/testdata/src_px2/px-files/sitemaps/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A295B-257D-7D4D-8FF6-1195F71CDED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.11</t>
-  </si>
-  <si>
-    <t>Exported: 2020-03-30 21:22:23</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.2.0</t>
+  </si>
+  <si>
+    <t>「px2-clover」 サイトマップ</t>
+  </si>
+  <si>
+    <t>Exported: 2022-08-23 01:12:04</t>
   </si>
   <si>
     <t>ページID</t>
@@ -157,143 +155,125 @@
     <t>top</t>
   </si>
   <si>
+    <t>Test Page A</t>
+  </si>
+  <si>
+    <t>/testpage_a/</t>
+  </si>
+  <si>
+    <t>Test Page A/A</t>
+  </si>
+  <si>
+    <t>/testpage_a/a.html</t>
+  </si>
+  <si>
+    <t>Test Page A/B</t>
+  </si>
+  <si>
+    <t>/testpage_a/b.html</t>
+  </si>
+  <si>
+    <t>Test Page A/C</t>
+  </si>
+  <si>
+    <t>/testpage_a/c.html</t>
+  </si>
+  <si>
+    <t>Test Page A/D*</t>
+  </si>
+  <si>
+    <t>/testpage_a/d/{*}</t>
+  </si>
+  <si>
+    <t>/testpage_a/d/index.html</t>
+  </si>
+  <si>
+    <t>Test Page A/E$</t>
+  </si>
+  <si>
+    <t>/testpage_a/e/{$test}.html</t>
+  </si>
+  <si>
+    <t>/testpage_a/e/test.html</t>
+  </si>
+  <si>
+    <t>Test Page B</t>
+  </si>
+  <si>
+    <t>/testpage_b/</t>
+  </si>
+  <si>
+    <t>Test Page B/A</t>
+  </si>
+  <si>
+    <t>/testpage_b/a.html</t>
+  </si>
+  <si>
+    <t>Test Page B/B</t>
+  </si>
+  <si>
+    <t>/testpage_b/b.html</t>
+  </si>
+  <si>
+    <t>Test Page B/C</t>
+  </si>
+  <si>
+    <t>/testpage_b/c.html</t>
+  </si>
+  <si>
     <t>EndOfData</t>
-  </si>
-  <si>
-    <t>Test Page A</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_a/</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Test Page A/B</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_a/b.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>「px2-clover」 サイトマップ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Test Page A/A</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_a/a.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Test Page A/C</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_a/c.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Test Page B</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_b/</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_b/a.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_b/b.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_b/c.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Test Page B/A</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Test Page B/B</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Test Page B/C</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Test Page A/E$</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_a/e/{$test}.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Test Page A/D*</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/testpage_a/d/{*}</t>
-    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Source Han Code JP EL"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -317,106 +297,63 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFcccccc"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFdddddd"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="10">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -706,32 +643,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:YZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N18:N19"/>
+      <selection pane="bottomRight" activeCell="YZ22" sqref="YZ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="18" width="30" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="true" style="0"/>
+    <col min="2" max="2" width="3" customWidth="true" style="0"/>
+    <col min="3" max="3" width="3" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="7" max="7" width="2" customWidth="true" style="0"/>
+    <col min="8" max="8" width="2" customWidth="true" style="0"/>
+    <col min="9" max="9" width="2" customWidth="true" style="0"/>
+    <col min="10" max="10" width="2" customWidth="true" style="0"/>
+    <col min="11" max="11" width="40" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="18" max="18" width="30" customWidth="true" style="0"/>
+    <col min="17" max="17" width="30" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:676" ht="10" customHeight="1">
+    <row r="1" spans="1:676" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,539 +1358,543 @@
       <c r="YY1" s="1"/>
       <c r="YZ1" s="1"/>
     </row>
-    <row r="3" spans="1:676" ht="38">
+    <row r="3" spans="1:676">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:676">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:676">
       <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:676">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:676">
-      <c r="A9" s="4"/>
+      <c r="A9"/>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="4"/>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
     </row>
     <row r="10" spans="1:676">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="10" t="s">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="O10"/>
+      <c r="P10"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="4">
+      <c r="S10">
         <v>1</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
     </row>
     <row r="11" spans="1:676">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11" t="s">
-        <v>51</v>
+      <c r="A11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="O11"/>
+      <c r="P11"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
     </row>
     <row r="12" spans="1:676">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11" t="s">
-        <v>48</v>
+      <c r="A12"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="O12"/>
+      <c r="P12"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
     </row>
     <row r="13" spans="1:676">
-      <c r="A13" s="13"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11" t="s">
-        <v>53</v>
+      <c r="A13"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13">
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="O13"/>
+      <c r="P13"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
     </row>
     <row r="14" spans="1:676">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11" t="s">
-        <v>65</v>
+      <c r="A14"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="O14"/>
+      <c r="P14"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
     </row>
     <row r="15" spans="1:676">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11" t="s">
-        <v>63</v>
+      <c r="A15"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="O15"/>
+      <c r="P15"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
     </row>
     <row r="16" spans="1:676">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="11" t="s">
-        <v>55</v>
+      <c r="A16"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="O16"/>
+      <c r="P16"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="12">
+      <c r="S16">
         <v>1</v>
       </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
     </row>
     <row r="17" spans="1:676">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="11" t="s">
-        <v>60</v>
+      <c r="A17"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12">
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="O17"/>
+      <c r="P17"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
     </row>
     <row r="18" spans="1:676">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11" t="s">
-        <v>61</v>
+      <c r="A18"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
     </row>
     <row r="19" spans="1:676">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="11" t="s">
-        <v>62</v>
+      <c r="A19"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
     </row>
-    <row r="22" spans="1:676" ht="5" customHeight="1">
+    <row r="22" spans="1:676" customHeight="1" ht="5">
       <c r="A22" s="9" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2622,13 +2573,22 @@
       <c r="YZ22" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.2.0</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「px2-clover」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2022-08-23 01:12:04</t>
+    <t>Exported: 2022-10-21 22:21:54</t>
   </si>
   <si>
     <t>ページID</t>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>/testpage_a/a.html</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
   </si>
   <si>
     <t>Test Page A/B</t>
@@ -319,34 +322,34 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1614,8 +1617,12 @@
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
+      <c r="X11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>50</v>
+      </c>
       <c r="Z11"/>
     </row>
     <row r="12" spans="1:676">
@@ -1623,7 +1630,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1632,7 +1639,7 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -1657,7 +1664,7 @@
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1666,7 +1673,7 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
@@ -1691,7 +1698,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1700,10 +1707,10 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M14"/>
       <c r="N14">
@@ -1727,7 +1734,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1736,10 +1743,10 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15"/>
       <c r="N15">
@@ -1762,7 +1769,7 @@
       <c r="A16"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1772,7 +1779,7 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -1799,7 +1806,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1808,7 +1815,7 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -1833,7 +1840,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1842,7 +1849,7 @@
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -1865,7 +1872,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1874,7 +1881,7 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
@@ -1894,7 +1901,7 @@
     </row>
     <row r="22" spans="1:676" customHeight="1" ht="5">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>

--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.2.0</t>
-  </si>
-  <si>
-    <t>「px2-clover」 サイトマップ</t>
-  </si>
-  <si>
-    <t>Exported: 2022-10-21 22:21:54</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.0-alpha.1</t>
+  </si>
+  <si>
+    <t>[px2-clover] Sitemap</t>
+  </si>
+  <si>
+    <t>Exported: 2023-04-05 09:52:55</t>
   </si>
   <si>
     <t>ページID</t>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>/testpage_b/c.html</t>
+  </si>
+  <si>
+    <t>Blog Test</t>
+  </si>
+  <si>
+    <t>/blogtest/{*}</t>
+  </si>
+  <si>
+    <t>/blogtest/index.html</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -311,46 +320,90 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFdddddd"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFdddddd"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFdddddd"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFdddddd"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="11">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,13 +703,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:YZ22"/>
+  <dimension ref="A1:YZ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="YZ22" sqref="YZ22"/>
+      <selection pane="bottomRight" activeCell="YZ23" sqref="YZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1378,10 +1431,10 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1444,1143 +1497,1180 @@
       </c>
     </row>
     <row r="8" spans="1:676">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8" s="4" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:676">
-      <c r="A9"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P9"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:676">
-      <c r="A10"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>1</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:676">
-      <c r="A11"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
         <v>1</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11" t="s">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Z11"/>
+      <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:676">
-      <c r="A12"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>1</v>
       </c>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:676">
-      <c r="A13"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>1</v>
       </c>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:676">
-      <c r="A14"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M14"/>
-      <c r="N14">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
         <v>1</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:676">
-      <c r="A15"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M15"/>
-      <c r="N15">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
         <v>1</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:676">
-      <c r="A16"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
         <v>1</v>
       </c>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="4">
         <v>1</v>
       </c>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:676">
-      <c r="A17"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
         <v>1</v>
       </c>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:676">
-      <c r="A18"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:676">
-      <c r="A19"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
     </row>
-    <row r="22" spans="1:676" customHeight="1" ht="5">
-      <c r="A22" s="9" t="s">
+    <row r="20" spans="1:676">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
-      <c r="BO22" s="9"/>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="9"/>
-      <c r="BT22" s="9"/>
-      <c r="BU22" s="9"/>
-      <c r="BV22" s="9"/>
-      <c r="BW22" s="9"/>
-      <c r="BX22" s="9"/>
-      <c r="BY22" s="9"/>
-      <c r="BZ22" s="9"/>
-      <c r="CA22" s="9"/>
-      <c r="CB22" s="9"/>
-      <c r="CC22" s="9"/>
-      <c r="CD22" s="9"/>
-      <c r="CE22" s="9"/>
-      <c r="CF22" s="9"/>
-      <c r="CG22" s="9"/>
-      <c r="CH22" s="9"/>
-      <c r="CI22" s="9"/>
-      <c r="CJ22" s="9"/>
-      <c r="CK22" s="9"/>
-      <c r="CL22" s="9"/>
-      <c r="CM22" s="9"/>
-      <c r="CN22" s="9"/>
-      <c r="CO22" s="9"/>
-      <c r="CP22" s="9"/>
-      <c r="CQ22" s="9"/>
-      <c r="CR22" s="9"/>
-      <c r="CS22" s="9"/>
-      <c r="CT22" s="9"/>
-      <c r="CU22" s="9"/>
-      <c r="CV22" s="9"/>
-      <c r="CW22" s="9"/>
-      <c r="CX22" s="9"/>
-      <c r="CY22" s="9"/>
-      <c r="CZ22" s="9"/>
-      <c r="DA22" s="9"/>
-      <c r="DB22" s="9"/>
-      <c r="DC22" s="9"/>
-      <c r="DD22" s="9"/>
-      <c r="DE22" s="9"/>
-      <c r="DF22" s="9"/>
-      <c r="DG22" s="9"/>
-      <c r="DH22" s="9"/>
-      <c r="DI22" s="9"/>
-      <c r="DJ22" s="9"/>
-      <c r="DK22" s="9"/>
-      <c r="DL22" s="9"/>
-      <c r="DM22" s="9"/>
-      <c r="DN22" s="9"/>
-      <c r="DO22" s="9"/>
-      <c r="DP22" s="9"/>
-      <c r="DQ22" s="9"/>
-      <c r="DR22" s="9"/>
-      <c r="DS22" s="9"/>
-      <c r="DT22" s="9"/>
-      <c r="DU22" s="9"/>
-      <c r="DV22" s="9"/>
-      <c r="DW22" s="9"/>
-      <c r="DX22" s="9"/>
-      <c r="DY22" s="9"/>
-      <c r="DZ22" s="9"/>
-      <c r="EA22" s="9"/>
-      <c r="EB22" s="9"/>
-      <c r="EC22" s="9"/>
-      <c r="ED22" s="9"/>
-      <c r="EE22" s="9"/>
-      <c r="EF22" s="9"/>
-      <c r="EG22" s="9"/>
-      <c r="EH22" s="9"/>
-      <c r="EI22" s="9"/>
-      <c r="EJ22" s="9"/>
-      <c r="EK22" s="9"/>
-      <c r="EL22" s="9"/>
-      <c r="EM22" s="9"/>
-      <c r="EN22" s="9"/>
-      <c r="EO22" s="9"/>
-      <c r="EP22" s="9"/>
-      <c r="EQ22" s="9"/>
-      <c r="ER22" s="9"/>
-      <c r="ES22" s="9"/>
-      <c r="ET22" s="9"/>
-      <c r="EU22" s="9"/>
-      <c r="EV22" s="9"/>
-      <c r="EW22" s="9"/>
-      <c r="EX22" s="9"/>
-      <c r="EY22" s="9"/>
-      <c r="EZ22" s="9"/>
-      <c r="FA22" s="9"/>
-      <c r="FB22" s="9"/>
-      <c r="FC22" s="9"/>
-      <c r="FD22" s="9"/>
-      <c r="FE22" s="9"/>
-      <c r="FF22" s="9"/>
-      <c r="FG22" s="9"/>
-      <c r="FH22" s="9"/>
-      <c r="FI22" s="9"/>
-      <c r="FJ22" s="9"/>
-      <c r="FK22" s="9"/>
-      <c r="FL22" s="9"/>
-      <c r="FM22" s="9"/>
-      <c r="FN22" s="9"/>
-      <c r="FO22" s="9"/>
-      <c r="FP22" s="9"/>
-      <c r="FQ22" s="9"/>
-      <c r="FR22" s="9"/>
-      <c r="FS22" s="9"/>
-      <c r="FT22" s="9"/>
-      <c r="FU22" s="9"/>
-      <c r="FV22" s="9"/>
-      <c r="FW22" s="9"/>
-      <c r="FX22" s="9"/>
-      <c r="FY22" s="9"/>
-      <c r="FZ22" s="9"/>
-      <c r="GA22" s="9"/>
-      <c r="GB22" s="9"/>
-      <c r="GC22" s="9"/>
-      <c r="GD22" s="9"/>
-      <c r="GE22" s="9"/>
-      <c r="GF22" s="9"/>
-      <c r="GG22" s="9"/>
-      <c r="GH22" s="9"/>
-      <c r="GI22" s="9"/>
-      <c r="GJ22" s="9"/>
-      <c r="GK22" s="9"/>
-      <c r="GL22" s="9"/>
-      <c r="GM22" s="9"/>
-      <c r="GN22" s="9"/>
-      <c r="GO22" s="9"/>
-      <c r="GP22" s="9"/>
-      <c r="GQ22" s="9"/>
-      <c r="GR22" s="9"/>
-      <c r="GS22" s="9"/>
-      <c r="GT22" s="9"/>
-      <c r="GU22" s="9"/>
-      <c r="GV22" s="9"/>
-      <c r="GW22" s="9"/>
-      <c r="GX22" s="9"/>
-      <c r="GY22" s="9"/>
-      <c r="GZ22" s="9"/>
-      <c r="HA22" s="9"/>
-      <c r="HB22" s="9"/>
-      <c r="HC22" s="9"/>
-      <c r="HD22" s="9"/>
-      <c r="HE22" s="9"/>
-      <c r="HF22" s="9"/>
-      <c r="HG22" s="9"/>
-      <c r="HH22" s="9"/>
-      <c r="HI22" s="9"/>
-      <c r="HJ22" s="9"/>
-      <c r="HK22" s="9"/>
-      <c r="HL22" s="9"/>
-      <c r="HM22" s="9"/>
-      <c r="HN22" s="9"/>
-      <c r="HO22" s="9"/>
-      <c r="HP22" s="9"/>
-      <c r="HQ22" s="9"/>
-      <c r="HR22" s="9"/>
-      <c r="HS22" s="9"/>
-      <c r="HT22" s="9"/>
-      <c r="HU22" s="9"/>
-      <c r="HV22" s="9"/>
-      <c r="HW22" s="9"/>
-      <c r="HX22" s="9"/>
-      <c r="HY22" s="9"/>
-      <c r="HZ22" s="9"/>
-      <c r="IA22" s="9"/>
-      <c r="IB22" s="9"/>
-      <c r="IC22" s="9"/>
-      <c r="ID22" s="9"/>
-      <c r="IE22" s="9"/>
-      <c r="IF22" s="9"/>
-      <c r="IG22" s="9"/>
-      <c r="IH22" s="9"/>
-      <c r="II22" s="9"/>
-      <c r="IJ22" s="9"/>
-      <c r="IK22" s="9"/>
-      <c r="IL22" s="9"/>
-      <c r="IM22" s="9"/>
-      <c r="IN22" s="9"/>
-      <c r="IO22" s="9"/>
-      <c r="IP22" s="9"/>
-      <c r="IQ22" s="9"/>
-      <c r="IR22" s="9"/>
-      <c r="IS22" s="9"/>
-      <c r="IT22" s="9"/>
-      <c r="IU22" s="9"/>
-      <c r="IV22" s="9"/>
-      <c r="IW22" s="9"/>
-      <c r="IX22" s="9"/>
-      <c r="IY22" s="9"/>
-      <c r="IZ22" s="9"/>
-      <c r="JA22" s="9"/>
-      <c r="JB22" s="9"/>
-      <c r="JC22" s="9"/>
-      <c r="JD22" s="9"/>
-      <c r="JE22" s="9"/>
-      <c r="JF22" s="9"/>
-      <c r="JG22" s="9"/>
-      <c r="JH22" s="9"/>
-      <c r="JI22" s="9"/>
-      <c r="JJ22" s="9"/>
-      <c r="JK22" s="9"/>
-      <c r="JL22" s="9"/>
-      <c r="JM22" s="9"/>
-      <c r="JN22" s="9"/>
-      <c r="JO22" s="9"/>
-      <c r="JP22" s="9"/>
-      <c r="JQ22" s="9"/>
-      <c r="JR22" s="9"/>
-      <c r="JS22" s="9"/>
-      <c r="JT22" s="9"/>
-      <c r="JU22" s="9"/>
-      <c r="JV22" s="9"/>
-      <c r="JW22" s="9"/>
-      <c r="JX22" s="9"/>
-      <c r="JY22" s="9"/>
-      <c r="JZ22" s="9"/>
-      <c r="KA22" s="9"/>
-      <c r="KB22" s="9"/>
-      <c r="KC22" s="9"/>
-      <c r="KD22" s="9"/>
-      <c r="KE22" s="9"/>
-      <c r="KF22" s="9"/>
-      <c r="KG22" s="9"/>
-      <c r="KH22" s="9"/>
-      <c r="KI22" s="9"/>
-      <c r="KJ22" s="9"/>
-      <c r="KK22" s="9"/>
-      <c r="KL22" s="9"/>
-      <c r="KM22" s="9"/>
-      <c r="KN22" s="9"/>
-      <c r="KO22" s="9"/>
-      <c r="KP22" s="9"/>
-      <c r="KQ22" s="9"/>
-      <c r="KR22" s="9"/>
-      <c r="KS22" s="9"/>
-      <c r="KT22" s="9"/>
-      <c r="KU22" s="9"/>
-      <c r="KV22" s="9"/>
-      <c r="KW22" s="9"/>
-      <c r="KX22" s="9"/>
-      <c r="KY22" s="9"/>
-      <c r="KZ22" s="9"/>
-      <c r="LA22" s="9"/>
-      <c r="LB22" s="9"/>
-      <c r="LC22" s="9"/>
-      <c r="LD22" s="9"/>
-      <c r="LE22" s="9"/>
-      <c r="LF22" s="9"/>
-      <c r="LG22" s="9"/>
-      <c r="LH22" s="9"/>
-      <c r="LI22" s="9"/>
-      <c r="LJ22" s="9"/>
-      <c r="LK22" s="9"/>
-      <c r="LL22" s="9"/>
-      <c r="LM22" s="9"/>
-      <c r="LN22" s="9"/>
-      <c r="LO22" s="9"/>
-      <c r="LP22" s="9"/>
-      <c r="LQ22" s="9"/>
-      <c r="LR22" s="9"/>
-      <c r="LS22" s="9"/>
-      <c r="LT22" s="9"/>
-      <c r="LU22" s="9"/>
-      <c r="LV22" s="9"/>
-      <c r="LW22" s="9"/>
-      <c r="LX22" s="9"/>
-      <c r="LY22" s="9"/>
-      <c r="LZ22" s="9"/>
-      <c r="MA22" s="9"/>
-      <c r="MB22" s="9"/>
-      <c r="MC22" s="9"/>
-      <c r="MD22" s="9"/>
-      <c r="ME22" s="9"/>
-      <c r="MF22" s="9"/>
-      <c r="MG22" s="9"/>
-      <c r="MH22" s="9"/>
-      <c r="MI22" s="9"/>
-      <c r="MJ22" s="9"/>
-      <c r="MK22" s="9"/>
-      <c r="ML22" s="9"/>
-      <c r="MM22" s="9"/>
-      <c r="MN22" s="9"/>
-      <c r="MO22" s="9"/>
-      <c r="MP22" s="9"/>
-      <c r="MQ22" s="9"/>
-      <c r="MR22" s="9"/>
-      <c r="MS22" s="9"/>
-      <c r="MT22" s="9"/>
-      <c r="MU22" s="9"/>
-      <c r="MV22" s="9"/>
-      <c r="MW22" s="9"/>
-      <c r="MX22" s="9"/>
-      <c r="MY22" s="9"/>
-      <c r="MZ22" s="9"/>
-      <c r="NA22" s="9"/>
-      <c r="NB22" s="9"/>
-      <c r="NC22" s="9"/>
-      <c r="ND22" s="9"/>
-      <c r="NE22" s="9"/>
-      <c r="NF22" s="9"/>
-      <c r="NG22" s="9"/>
-      <c r="NH22" s="9"/>
-      <c r="NI22" s="9"/>
-      <c r="NJ22" s="9"/>
-      <c r="NK22" s="9"/>
-      <c r="NL22" s="9"/>
-      <c r="NM22" s="9"/>
-      <c r="NN22" s="9"/>
-      <c r="NO22" s="9"/>
-      <c r="NP22" s="9"/>
-      <c r="NQ22" s="9"/>
-      <c r="NR22" s="9"/>
-      <c r="NS22" s="9"/>
-      <c r="NT22" s="9"/>
-      <c r="NU22" s="9"/>
-      <c r="NV22" s="9"/>
-      <c r="NW22" s="9"/>
-      <c r="NX22" s="9"/>
-      <c r="NY22" s="9"/>
-      <c r="NZ22" s="9"/>
-      <c r="OA22" s="9"/>
-      <c r="OB22" s="9"/>
-      <c r="OC22" s="9"/>
-      <c r="OD22" s="9"/>
-      <c r="OE22" s="9"/>
-      <c r="OF22" s="9"/>
-      <c r="OG22" s="9"/>
-      <c r="OH22" s="9"/>
-      <c r="OI22" s="9"/>
-      <c r="OJ22" s="9"/>
-      <c r="OK22" s="9"/>
-      <c r="OL22" s="9"/>
-      <c r="OM22" s="9"/>
-      <c r="ON22" s="9"/>
-      <c r="OO22" s="9"/>
-      <c r="OP22" s="9"/>
-      <c r="OQ22" s="9"/>
-      <c r="OR22" s="9"/>
-      <c r="OS22" s="9"/>
-      <c r="OT22" s="9"/>
-      <c r="OU22" s="9"/>
-      <c r="OV22" s="9"/>
-      <c r="OW22" s="9"/>
-      <c r="OX22" s="9"/>
-      <c r="OY22" s="9"/>
-      <c r="OZ22" s="9"/>
-      <c r="PA22" s="9"/>
-      <c r="PB22" s="9"/>
-      <c r="PC22" s="9"/>
-      <c r="PD22" s="9"/>
-      <c r="PE22" s="9"/>
-      <c r="PF22" s="9"/>
-      <c r="PG22" s="9"/>
-      <c r="PH22" s="9"/>
-      <c r="PI22" s="9"/>
-      <c r="PJ22" s="9"/>
-      <c r="PK22" s="9"/>
-      <c r="PL22" s="9"/>
-      <c r="PM22" s="9"/>
-      <c r="PN22" s="9"/>
-      <c r="PO22" s="9"/>
-      <c r="PP22" s="9"/>
-      <c r="PQ22" s="9"/>
-      <c r="PR22" s="9"/>
-      <c r="PS22" s="9"/>
-      <c r="PT22" s="9"/>
-      <c r="PU22" s="9"/>
-      <c r="PV22" s="9"/>
-      <c r="PW22" s="9"/>
-      <c r="PX22" s="9"/>
-      <c r="PY22" s="9"/>
-      <c r="PZ22" s="9"/>
-      <c r="QA22" s="9"/>
-      <c r="QB22" s="9"/>
-      <c r="QC22" s="9"/>
-      <c r="QD22" s="9"/>
-      <c r="QE22" s="9"/>
-      <c r="QF22" s="9"/>
-      <c r="QG22" s="9"/>
-      <c r="QH22" s="9"/>
-      <c r="QI22" s="9"/>
-      <c r="QJ22" s="9"/>
-      <c r="QK22" s="9"/>
-      <c r="QL22" s="9"/>
-      <c r="QM22" s="9"/>
-      <c r="QN22" s="9"/>
-      <c r="QO22" s="9"/>
-      <c r="QP22" s="9"/>
-      <c r="QQ22" s="9"/>
-      <c r="QR22" s="9"/>
-      <c r="QS22" s="9"/>
-      <c r="QT22" s="9"/>
-      <c r="QU22" s="9"/>
-      <c r="QV22" s="9"/>
-      <c r="QW22" s="9"/>
-      <c r="QX22" s="9"/>
-      <c r="QY22" s="9"/>
-      <c r="QZ22" s="9"/>
-      <c r="RA22" s="9"/>
-      <c r="RB22" s="9"/>
-      <c r="RC22" s="9"/>
-      <c r="RD22" s="9"/>
-      <c r="RE22" s="9"/>
-      <c r="RF22" s="9"/>
-      <c r="RG22" s="9"/>
-      <c r="RH22" s="9"/>
-      <c r="RI22" s="9"/>
-      <c r="RJ22" s="9"/>
-      <c r="RK22" s="9"/>
-      <c r="RL22" s="9"/>
-      <c r="RM22" s="9"/>
-      <c r="RN22" s="9"/>
-      <c r="RO22" s="9"/>
-      <c r="RP22" s="9"/>
-      <c r="RQ22" s="9"/>
-      <c r="RR22" s="9"/>
-      <c r="RS22" s="9"/>
-      <c r="RT22" s="9"/>
-      <c r="RU22" s="9"/>
-      <c r="RV22" s="9"/>
-      <c r="RW22" s="9"/>
-      <c r="RX22" s="9"/>
-      <c r="RY22" s="9"/>
-      <c r="RZ22" s="9"/>
-      <c r="SA22" s="9"/>
-      <c r="SB22" s="9"/>
-      <c r="SC22" s="9"/>
-      <c r="SD22" s="9"/>
-      <c r="SE22" s="9"/>
-      <c r="SF22" s="9"/>
-      <c r="SG22" s="9"/>
-      <c r="SH22" s="9"/>
-      <c r="SI22" s="9"/>
-      <c r="SJ22" s="9"/>
-      <c r="SK22" s="9"/>
-      <c r="SL22" s="9"/>
-      <c r="SM22" s="9"/>
-      <c r="SN22" s="9"/>
-      <c r="SO22" s="9"/>
-      <c r="SP22" s="9"/>
-      <c r="SQ22" s="9"/>
-      <c r="SR22" s="9"/>
-      <c r="SS22" s="9"/>
-      <c r="ST22" s="9"/>
-      <c r="SU22" s="9"/>
-      <c r="SV22" s="9"/>
-      <c r="SW22" s="9"/>
-      <c r="SX22" s="9"/>
-      <c r="SY22" s="9"/>
-      <c r="SZ22" s="9"/>
-      <c r="TA22" s="9"/>
-      <c r="TB22" s="9"/>
-      <c r="TC22" s="9"/>
-      <c r="TD22" s="9"/>
-      <c r="TE22" s="9"/>
-      <c r="TF22" s="9"/>
-      <c r="TG22" s="9"/>
-      <c r="TH22" s="9"/>
-      <c r="TI22" s="9"/>
-      <c r="TJ22" s="9"/>
-      <c r="TK22" s="9"/>
-      <c r="TL22" s="9"/>
-      <c r="TM22" s="9"/>
-      <c r="TN22" s="9"/>
-      <c r="TO22" s="9"/>
-      <c r="TP22" s="9"/>
-      <c r="TQ22" s="9"/>
-      <c r="TR22" s="9"/>
-      <c r="TS22" s="9"/>
-      <c r="TT22" s="9"/>
-      <c r="TU22" s="9"/>
-      <c r="TV22" s="9"/>
-      <c r="TW22" s="9"/>
-      <c r="TX22" s="9"/>
-      <c r="TY22" s="9"/>
-      <c r="TZ22" s="9"/>
-      <c r="UA22" s="9"/>
-      <c r="UB22" s="9"/>
-      <c r="UC22" s="9"/>
-      <c r="UD22" s="9"/>
-      <c r="UE22" s="9"/>
-      <c r="UF22" s="9"/>
-      <c r="UG22" s="9"/>
-      <c r="UH22" s="9"/>
-      <c r="UI22" s="9"/>
-      <c r="UJ22" s="9"/>
-      <c r="UK22" s="9"/>
-      <c r="UL22" s="9"/>
-      <c r="UM22" s="9"/>
-      <c r="UN22" s="9"/>
-      <c r="UO22" s="9"/>
-      <c r="UP22" s="9"/>
-      <c r="UQ22" s="9"/>
-      <c r="UR22" s="9"/>
-      <c r="US22" s="9"/>
-      <c r="UT22" s="9"/>
-      <c r="UU22" s="9"/>
-      <c r="UV22" s="9"/>
-      <c r="UW22" s="9"/>
-      <c r="UX22" s="9"/>
-      <c r="UY22" s="9"/>
-      <c r="UZ22" s="9"/>
-      <c r="VA22" s="9"/>
-      <c r="VB22" s="9"/>
-      <c r="VC22" s="9"/>
-      <c r="VD22" s="9"/>
-      <c r="VE22" s="9"/>
-      <c r="VF22" s="9"/>
-      <c r="VG22" s="9"/>
-      <c r="VH22" s="9"/>
-      <c r="VI22" s="9"/>
-      <c r="VJ22" s="9"/>
-      <c r="VK22" s="9"/>
-      <c r="VL22" s="9"/>
-      <c r="VM22" s="9"/>
-      <c r="VN22" s="9"/>
-      <c r="VO22" s="9"/>
-      <c r="VP22" s="9"/>
-      <c r="VQ22" s="9"/>
-      <c r="VR22" s="9"/>
-      <c r="VS22" s="9"/>
-      <c r="VT22" s="9"/>
-      <c r="VU22" s="9"/>
-      <c r="VV22" s="9"/>
-      <c r="VW22" s="9"/>
-      <c r="VX22" s="9"/>
-      <c r="VY22" s="9"/>
-      <c r="VZ22" s="9"/>
-      <c r="WA22" s="9"/>
-      <c r="WB22" s="9"/>
-      <c r="WC22" s="9"/>
-      <c r="WD22" s="9"/>
-      <c r="WE22" s="9"/>
-      <c r="WF22" s="9"/>
-      <c r="WG22" s="9"/>
-      <c r="WH22" s="9"/>
-      <c r="WI22" s="9"/>
-      <c r="WJ22" s="9"/>
-      <c r="WK22" s="9"/>
-      <c r="WL22" s="9"/>
-      <c r="WM22" s="9"/>
-      <c r="WN22" s="9"/>
-      <c r="WO22" s="9"/>
-      <c r="WP22" s="9"/>
-      <c r="WQ22" s="9"/>
-      <c r="WR22" s="9"/>
-      <c r="WS22" s="9"/>
-      <c r="WT22" s="9"/>
-      <c r="WU22" s="9"/>
-      <c r="WV22" s="9"/>
-      <c r="WW22" s="9"/>
-      <c r="WX22" s="9"/>
-      <c r="WY22" s="9"/>
-      <c r="WZ22" s="9"/>
-      <c r="XA22" s="9"/>
-      <c r="XB22" s="9"/>
-      <c r="XC22" s="9"/>
-      <c r="XD22" s="9"/>
-      <c r="XE22" s="9"/>
-      <c r="XF22" s="9"/>
-      <c r="XG22" s="9"/>
-      <c r="XH22" s="9"/>
-      <c r="XI22" s="9"/>
-      <c r="XJ22" s="9"/>
-      <c r="XK22" s="9"/>
-      <c r="XL22" s="9"/>
-      <c r="XM22" s="9"/>
-      <c r="XN22" s="9"/>
-      <c r="XO22" s="9"/>
-      <c r="XP22" s="9"/>
-      <c r="XQ22" s="9"/>
-      <c r="XR22" s="9"/>
-      <c r="XS22" s="9"/>
-      <c r="XT22" s="9"/>
-      <c r="XU22" s="9"/>
-      <c r="XV22" s="9"/>
-      <c r="XW22" s="9"/>
-      <c r="XX22" s="9"/>
-      <c r="XY22" s="9"/>
-      <c r="XZ22" s="9"/>
-      <c r="YA22" s="9"/>
-      <c r="YB22" s="9"/>
-      <c r="YC22" s="9"/>
-      <c r="YD22" s="9"/>
-      <c r="YE22" s="9"/>
-      <c r="YF22" s="9"/>
-      <c r="YG22" s="9"/>
-      <c r="YH22" s="9"/>
-      <c r="YI22" s="9"/>
-      <c r="YJ22" s="9"/>
-      <c r="YK22" s="9"/>
-      <c r="YL22" s="9"/>
-      <c r="YM22" s="9"/>
-      <c r="YN22" s="9"/>
-      <c r="YO22" s="9"/>
-      <c r="YP22" s="9"/>
-      <c r="YQ22" s="9"/>
-      <c r="YR22" s="9"/>
-      <c r="YS22" s="9"/>
-      <c r="YT22" s="9"/>
-      <c r="YU22" s="9"/>
-      <c r="YV22" s="9"/>
-      <c r="YW22" s="9"/>
-      <c r="YX22" s="9"/>
-      <c r="YY22" s="9"/>
-      <c r="YZ22" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="23" spans="1:676" customHeight="1" ht="5">
+      <c r="A23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+      <c r="BK23" s="10"/>
+      <c r="BL23" s="10"/>
+      <c r="BM23" s="10"/>
+      <c r="BN23" s="10"/>
+      <c r="BO23" s="10"/>
+      <c r="BP23" s="10"/>
+      <c r="BQ23" s="10"/>
+      <c r="BR23" s="10"/>
+      <c r="BS23" s="10"/>
+      <c r="BT23" s="10"/>
+      <c r="BU23" s="10"/>
+      <c r="BV23" s="10"/>
+      <c r="BW23" s="10"/>
+      <c r="BX23" s="10"/>
+      <c r="BY23" s="10"/>
+      <c r="BZ23" s="10"/>
+      <c r="CA23" s="10"/>
+      <c r="CB23" s="10"/>
+      <c r="CC23" s="10"/>
+      <c r="CD23" s="10"/>
+      <c r="CE23" s="10"/>
+      <c r="CF23" s="10"/>
+      <c r="CG23" s="10"/>
+      <c r="CH23" s="10"/>
+      <c r="CI23" s="10"/>
+      <c r="CJ23" s="10"/>
+      <c r="CK23" s="10"/>
+      <c r="CL23" s="10"/>
+      <c r="CM23" s="10"/>
+      <c r="CN23" s="10"/>
+      <c r="CO23" s="10"/>
+      <c r="CP23" s="10"/>
+      <c r="CQ23" s="10"/>
+      <c r="CR23" s="10"/>
+      <c r="CS23" s="10"/>
+      <c r="CT23" s="10"/>
+      <c r="CU23" s="10"/>
+      <c r="CV23" s="10"/>
+      <c r="CW23" s="10"/>
+      <c r="CX23" s="10"/>
+      <c r="CY23" s="10"/>
+      <c r="CZ23" s="10"/>
+      <c r="DA23" s="10"/>
+      <c r="DB23" s="10"/>
+      <c r="DC23" s="10"/>
+      <c r="DD23" s="10"/>
+      <c r="DE23" s="10"/>
+      <c r="DF23" s="10"/>
+      <c r="DG23" s="10"/>
+      <c r="DH23" s="10"/>
+      <c r="DI23" s="10"/>
+      <c r="DJ23" s="10"/>
+      <c r="DK23" s="10"/>
+      <c r="DL23" s="10"/>
+      <c r="DM23" s="10"/>
+      <c r="DN23" s="10"/>
+      <c r="DO23" s="10"/>
+      <c r="DP23" s="10"/>
+      <c r="DQ23" s="10"/>
+      <c r="DR23" s="10"/>
+      <c r="DS23" s="10"/>
+      <c r="DT23" s="10"/>
+      <c r="DU23" s="10"/>
+      <c r="DV23" s="10"/>
+      <c r="DW23" s="10"/>
+      <c r="DX23" s="10"/>
+      <c r="DY23" s="10"/>
+      <c r="DZ23" s="10"/>
+      <c r="EA23" s="10"/>
+      <c r="EB23" s="10"/>
+      <c r="EC23" s="10"/>
+      <c r="ED23" s="10"/>
+      <c r="EE23" s="10"/>
+      <c r="EF23" s="10"/>
+      <c r="EG23" s="10"/>
+      <c r="EH23" s="10"/>
+      <c r="EI23" s="10"/>
+      <c r="EJ23" s="10"/>
+      <c r="EK23" s="10"/>
+      <c r="EL23" s="10"/>
+      <c r="EM23" s="10"/>
+      <c r="EN23" s="10"/>
+      <c r="EO23" s="10"/>
+      <c r="EP23" s="10"/>
+      <c r="EQ23" s="10"/>
+      <c r="ER23" s="10"/>
+      <c r="ES23" s="10"/>
+      <c r="ET23" s="10"/>
+      <c r="EU23" s="10"/>
+      <c r="EV23" s="10"/>
+      <c r="EW23" s="10"/>
+      <c r="EX23" s="10"/>
+      <c r="EY23" s="10"/>
+      <c r="EZ23" s="10"/>
+      <c r="FA23" s="10"/>
+      <c r="FB23" s="10"/>
+      <c r="FC23" s="10"/>
+      <c r="FD23" s="10"/>
+      <c r="FE23" s="10"/>
+      <c r="FF23" s="10"/>
+      <c r="FG23" s="10"/>
+      <c r="FH23" s="10"/>
+      <c r="FI23" s="10"/>
+      <c r="FJ23" s="10"/>
+      <c r="FK23" s="10"/>
+      <c r="FL23" s="10"/>
+      <c r="FM23" s="10"/>
+      <c r="FN23" s="10"/>
+      <c r="FO23" s="10"/>
+      <c r="FP23" s="10"/>
+      <c r="FQ23" s="10"/>
+      <c r="FR23" s="10"/>
+      <c r="FS23" s="10"/>
+      <c r="FT23" s="10"/>
+      <c r="FU23" s="10"/>
+      <c r="FV23" s="10"/>
+      <c r="FW23" s="10"/>
+      <c r="FX23" s="10"/>
+      <c r="FY23" s="10"/>
+      <c r="FZ23" s="10"/>
+      <c r="GA23" s="10"/>
+      <c r="GB23" s="10"/>
+      <c r="GC23" s="10"/>
+      <c r="GD23" s="10"/>
+      <c r="GE23" s="10"/>
+      <c r="GF23" s="10"/>
+      <c r="GG23" s="10"/>
+      <c r="GH23" s="10"/>
+      <c r="GI23" s="10"/>
+      <c r="GJ23" s="10"/>
+      <c r="GK23" s="10"/>
+      <c r="GL23" s="10"/>
+      <c r="GM23" s="10"/>
+      <c r="GN23" s="10"/>
+      <c r="GO23" s="10"/>
+      <c r="GP23" s="10"/>
+      <c r="GQ23" s="10"/>
+      <c r="GR23" s="10"/>
+      <c r="GS23" s="10"/>
+      <c r="GT23" s="10"/>
+      <c r="GU23" s="10"/>
+      <c r="GV23" s="10"/>
+      <c r="GW23" s="10"/>
+      <c r="GX23" s="10"/>
+      <c r="GY23" s="10"/>
+      <c r="GZ23" s="10"/>
+      <c r="HA23" s="10"/>
+      <c r="HB23" s="10"/>
+      <c r="HC23" s="10"/>
+      <c r="HD23" s="10"/>
+      <c r="HE23" s="10"/>
+      <c r="HF23" s="10"/>
+      <c r="HG23" s="10"/>
+      <c r="HH23" s="10"/>
+      <c r="HI23" s="10"/>
+      <c r="HJ23" s="10"/>
+      <c r="HK23" s="10"/>
+      <c r="HL23" s="10"/>
+      <c r="HM23" s="10"/>
+      <c r="HN23" s="10"/>
+      <c r="HO23" s="10"/>
+      <c r="HP23" s="10"/>
+      <c r="HQ23" s="10"/>
+      <c r="HR23" s="10"/>
+      <c r="HS23" s="10"/>
+      <c r="HT23" s="10"/>
+      <c r="HU23" s="10"/>
+      <c r="HV23" s="10"/>
+      <c r="HW23" s="10"/>
+      <c r="HX23" s="10"/>
+      <c r="HY23" s="10"/>
+      <c r="HZ23" s="10"/>
+      <c r="IA23" s="10"/>
+      <c r="IB23" s="10"/>
+      <c r="IC23" s="10"/>
+      <c r="ID23" s="10"/>
+      <c r="IE23" s="10"/>
+      <c r="IF23" s="10"/>
+      <c r="IG23" s="10"/>
+      <c r="IH23" s="10"/>
+      <c r="II23" s="10"/>
+      <c r="IJ23" s="10"/>
+      <c r="IK23" s="10"/>
+      <c r="IL23" s="10"/>
+      <c r="IM23" s="10"/>
+      <c r="IN23" s="10"/>
+      <c r="IO23" s="10"/>
+      <c r="IP23" s="10"/>
+      <c r="IQ23" s="10"/>
+      <c r="IR23" s="10"/>
+      <c r="IS23" s="10"/>
+      <c r="IT23" s="10"/>
+      <c r="IU23" s="10"/>
+      <c r="IV23" s="10"/>
+      <c r="IW23" s="10"/>
+      <c r="IX23" s="10"/>
+      <c r="IY23" s="10"/>
+      <c r="IZ23" s="10"/>
+      <c r="JA23" s="10"/>
+      <c r="JB23" s="10"/>
+      <c r="JC23" s="10"/>
+      <c r="JD23" s="10"/>
+      <c r="JE23" s="10"/>
+      <c r="JF23" s="10"/>
+      <c r="JG23" s="10"/>
+      <c r="JH23" s="10"/>
+      <c r="JI23" s="10"/>
+      <c r="JJ23" s="10"/>
+      <c r="JK23" s="10"/>
+      <c r="JL23" s="10"/>
+      <c r="JM23" s="10"/>
+      <c r="JN23" s="10"/>
+      <c r="JO23" s="10"/>
+      <c r="JP23" s="10"/>
+      <c r="JQ23" s="10"/>
+      <c r="JR23" s="10"/>
+      <c r="JS23" s="10"/>
+      <c r="JT23" s="10"/>
+      <c r="JU23" s="10"/>
+      <c r="JV23" s="10"/>
+      <c r="JW23" s="10"/>
+      <c r="JX23" s="10"/>
+      <c r="JY23" s="10"/>
+      <c r="JZ23" s="10"/>
+      <c r="KA23" s="10"/>
+      <c r="KB23" s="10"/>
+      <c r="KC23" s="10"/>
+      <c r="KD23" s="10"/>
+      <c r="KE23" s="10"/>
+      <c r="KF23" s="10"/>
+      <c r="KG23" s="10"/>
+      <c r="KH23" s="10"/>
+      <c r="KI23" s="10"/>
+      <c r="KJ23" s="10"/>
+      <c r="KK23" s="10"/>
+      <c r="KL23" s="10"/>
+      <c r="KM23" s="10"/>
+      <c r="KN23" s="10"/>
+      <c r="KO23" s="10"/>
+      <c r="KP23" s="10"/>
+      <c r="KQ23" s="10"/>
+      <c r="KR23" s="10"/>
+      <c r="KS23" s="10"/>
+      <c r="KT23" s="10"/>
+      <c r="KU23" s="10"/>
+      <c r="KV23" s="10"/>
+      <c r="KW23" s="10"/>
+      <c r="KX23" s="10"/>
+      <c r="KY23" s="10"/>
+      <c r="KZ23" s="10"/>
+      <c r="LA23" s="10"/>
+      <c r="LB23" s="10"/>
+      <c r="LC23" s="10"/>
+      <c r="LD23" s="10"/>
+      <c r="LE23" s="10"/>
+      <c r="LF23" s="10"/>
+      <c r="LG23" s="10"/>
+      <c r="LH23" s="10"/>
+      <c r="LI23" s="10"/>
+      <c r="LJ23" s="10"/>
+      <c r="LK23" s="10"/>
+      <c r="LL23" s="10"/>
+      <c r="LM23" s="10"/>
+      <c r="LN23" s="10"/>
+      <c r="LO23" s="10"/>
+      <c r="LP23" s="10"/>
+      <c r="LQ23" s="10"/>
+      <c r="LR23" s="10"/>
+      <c r="LS23" s="10"/>
+      <c r="LT23" s="10"/>
+      <c r="LU23" s="10"/>
+      <c r="LV23" s="10"/>
+      <c r="LW23" s="10"/>
+      <c r="LX23" s="10"/>
+      <c r="LY23" s="10"/>
+      <c r="LZ23" s="10"/>
+      <c r="MA23" s="10"/>
+      <c r="MB23" s="10"/>
+      <c r="MC23" s="10"/>
+      <c r="MD23" s="10"/>
+      <c r="ME23" s="10"/>
+      <c r="MF23" s="10"/>
+      <c r="MG23" s="10"/>
+      <c r="MH23" s="10"/>
+      <c r="MI23" s="10"/>
+      <c r="MJ23" s="10"/>
+      <c r="MK23" s="10"/>
+      <c r="ML23" s="10"/>
+      <c r="MM23" s="10"/>
+      <c r="MN23" s="10"/>
+      <c r="MO23" s="10"/>
+      <c r="MP23" s="10"/>
+      <c r="MQ23" s="10"/>
+      <c r="MR23" s="10"/>
+      <c r="MS23" s="10"/>
+      <c r="MT23" s="10"/>
+      <c r="MU23" s="10"/>
+      <c r="MV23" s="10"/>
+      <c r="MW23" s="10"/>
+      <c r="MX23" s="10"/>
+      <c r="MY23" s="10"/>
+      <c r="MZ23" s="10"/>
+      <c r="NA23" s="10"/>
+      <c r="NB23" s="10"/>
+      <c r="NC23" s="10"/>
+      <c r="ND23" s="10"/>
+      <c r="NE23" s="10"/>
+      <c r="NF23" s="10"/>
+      <c r="NG23" s="10"/>
+      <c r="NH23" s="10"/>
+      <c r="NI23" s="10"/>
+      <c r="NJ23" s="10"/>
+      <c r="NK23" s="10"/>
+      <c r="NL23" s="10"/>
+      <c r="NM23" s="10"/>
+      <c r="NN23" s="10"/>
+      <c r="NO23" s="10"/>
+      <c r="NP23" s="10"/>
+      <c r="NQ23" s="10"/>
+      <c r="NR23" s="10"/>
+      <c r="NS23" s="10"/>
+      <c r="NT23" s="10"/>
+      <c r="NU23" s="10"/>
+      <c r="NV23" s="10"/>
+      <c r="NW23" s="10"/>
+      <c r="NX23" s="10"/>
+      <c r="NY23" s="10"/>
+      <c r="NZ23" s="10"/>
+      <c r="OA23" s="10"/>
+      <c r="OB23" s="10"/>
+      <c r="OC23" s="10"/>
+      <c r="OD23" s="10"/>
+      <c r="OE23" s="10"/>
+      <c r="OF23" s="10"/>
+      <c r="OG23" s="10"/>
+      <c r="OH23" s="10"/>
+      <c r="OI23" s="10"/>
+      <c r="OJ23" s="10"/>
+      <c r="OK23" s="10"/>
+      <c r="OL23" s="10"/>
+      <c r="OM23" s="10"/>
+      <c r="ON23" s="10"/>
+      <c r="OO23" s="10"/>
+      <c r="OP23" s="10"/>
+      <c r="OQ23" s="10"/>
+      <c r="OR23" s="10"/>
+      <c r="OS23" s="10"/>
+      <c r="OT23" s="10"/>
+      <c r="OU23" s="10"/>
+      <c r="OV23" s="10"/>
+      <c r="OW23" s="10"/>
+      <c r="OX23" s="10"/>
+      <c r="OY23" s="10"/>
+      <c r="OZ23" s="10"/>
+      <c r="PA23" s="10"/>
+      <c r="PB23" s="10"/>
+      <c r="PC23" s="10"/>
+      <c r="PD23" s="10"/>
+      <c r="PE23" s="10"/>
+      <c r="PF23" s="10"/>
+      <c r="PG23" s="10"/>
+      <c r="PH23" s="10"/>
+      <c r="PI23" s="10"/>
+      <c r="PJ23" s="10"/>
+      <c r="PK23" s="10"/>
+      <c r="PL23" s="10"/>
+      <c r="PM23" s="10"/>
+      <c r="PN23" s="10"/>
+      <c r="PO23" s="10"/>
+      <c r="PP23" s="10"/>
+      <c r="PQ23" s="10"/>
+      <c r="PR23" s="10"/>
+      <c r="PS23" s="10"/>
+      <c r="PT23" s="10"/>
+      <c r="PU23" s="10"/>
+      <c r="PV23" s="10"/>
+      <c r="PW23" s="10"/>
+      <c r="PX23" s="10"/>
+      <c r="PY23" s="10"/>
+      <c r="PZ23" s="10"/>
+      <c r="QA23" s="10"/>
+      <c r="QB23" s="10"/>
+      <c r="QC23" s="10"/>
+      <c r="QD23" s="10"/>
+      <c r="QE23" s="10"/>
+      <c r="QF23" s="10"/>
+      <c r="QG23" s="10"/>
+      <c r="QH23" s="10"/>
+      <c r="QI23" s="10"/>
+      <c r="QJ23" s="10"/>
+      <c r="QK23" s="10"/>
+      <c r="QL23" s="10"/>
+      <c r="QM23" s="10"/>
+      <c r="QN23" s="10"/>
+      <c r="QO23" s="10"/>
+      <c r="QP23" s="10"/>
+      <c r="QQ23" s="10"/>
+      <c r="QR23" s="10"/>
+      <c r="QS23" s="10"/>
+      <c r="QT23" s="10"/>
+      <c r="QU23" s="10"/>
+      <c r="QV23" s="10"/>
+      <c r="QW23" s="10"/>
+      <c r="QX23" s="10"/>
+      <c r="QY23" s="10"/>
+      <c r="QZ23" s="10"/>
+      <c r="RA23" s="10"/>
+      <c r="RB23" s="10"/>
+      <c r="RC23" s="10"/>
+      <c r="RD23" s="10"/>
+      <c r="RE23" s="10"/>
+      <c r="RF23" s="10"/>
+      <c r="RG23" s="10"/>
+      <c r="RH23" s="10"/>
+      <c r="RI23" s="10"/>
+      <c r="RJ23" s="10"/>
+      <c r="RK23" s="10"/>
+      <c r="RL23" s="10"/>
+      <c r="RM23" s="10"/>
+      <c r="RN23" s="10"/>
+      <c r="RO23" s="10"/>
+      <c r="RP23" s="10"/>
+      <c r="RQ23" s="10"/>
+      <c r="RR23" s="10"/>
+      <c r="RS23" s="10"/>
+      <c r="RT23" s="10"/>
+      <c r="RU23" s="10"/>
+      <c r="RV23" s="10"/>
+      <c r="RW23" s="10"/>
+      <c r="RX23" s="10"/>
+      <c r="RY23" s="10"/>
+      <c r="RZ23" s="10"/>
+      <c r="SA23" s="10"/>
+      <c r="SB23" s="10"/>
+      <c r="SC23" s="10"/>
+      <c r="SD23" s="10"/>
+      <c r="SE23" s="10"/>
+      <c r="SF23" s="10"/>
+      <c r="SG23" s="10"/>
+      <c r="SH23" s="10"/>
+      <c r="SI23" s="10"/>
+      <c r="SJ23" s="10"/>
+      <c r="SK23" s="10"/>
+      <c r="SL23" s="10"/>
+      <c r="SM23" s="10"/>
+      <c r="SN23" s="10"/>
+      <c r="SO23" s="10"/>
+      <c r="SP23" s="10"/>
+      <c r="SQ23" s="10"/>
+      <c r="SR23" s="10"/>
+      <c r="SS23" s="10"/>
+      <c r="ST23" s="10"/>
+      <c r="SU23" s="10"/>
+      <c r="SV23" s="10"/>
+      <c r="SW23" s="10"/>
+      <c r="SX23" s="10"/>
+      <c r="SY23" s="10"/>
+      <c r="SZ23" s="10"/>
+      <c r="TA23" s="10"/>
+      <c r="TB23" s="10"/>
+      <c r="TC23" s="10"/>
+      <c r="TD23" s="10"/>
+      <c r="TE23" s="10"/>
+      <c r="TF23" s="10"/>
+      <c r="TG23" s="10"/>
+      <c r="TH23" s="10"/>
+      <c r="TI23" s="10"/>
+      <c r="TJ23" s="10"/>
+      <c r="TK23" s="10"/>
+      <c r="TL23" s="10"/>
+      <c r="TM23" s="10"/>
+      <c r="TN23" s="10"/>
+      <c r="TO23" s="10"/>
+      <c r="TP23" s="10"/>
+      <c r="TQ23" s="10"/>
+      <c r="TR23" s="10"/>
+      <c r="TS23" s="10"/>
+      <c r="TT23" s="10"/>
+      <c r="TU23" s="10"/>
+      <c r="TV23" s="10"/>
+      <c r="TW23" s="10"/>
+      <c r="TX23" s="10"/>
+      <c r="TY23" s="10"/>
+      <c r="TZ23" s="10"/>
+      <c r="UA23" s="10"/>
+      <c r="UB23" s="10"/>
+      <c r="UC23" s="10"/>
+      <c r="UD23" s="10"/>
+      <c r="UE23" s="10"/>
+      <c r="UF23" s="10"/>
+      <c r="UG23" s="10"/>
+      <c r="UH23" s="10"/>
+      <c r="UI23" s="10"/>
+      <c r="UJ23" s="10"/>
+      <c r="UK23" s="10"/>
+      <c r="UL23" s="10"/>
+      <c r="UM23" s="10"/>
+      <c r="UN23" s="10"/>
+      <c r="UO23" s="10"/>
+      <c r="UP23" s="10"/>
+      <c r="UQ23" s="10"/>
+      <c r="UR23" s="10"/>
+      <c r="US23" s="10"/>
+      <c r="UT23" s="10"/>
+      <c r="UU23" s="10"/>
+      <c r="UV23" s="10"/>
+      <c r="UW23" s="10"/>
+      <c r="UX23" s="10"/>
+      <c r="UY23" s="10"/>
+      <c r="UZ23" s="10"/>
+      <c r="VA23" s="10"/>
+      <c r="VB23" s="10"/>
+      <c r="VC23" s="10"/>
+      <c r="VD23" s="10"/>
+      <c r="VE23" s="10"/>
+      <c r="VF23" s="10"/>
+      <c r="VG23" s="10"/>
+      <c r="VH23" s="10"/>
+      <c r="VI23" s="10"/>
+      <c r="VJ23" s="10"/>
+      <c r="VK23" s="10"/>
+      <c r="VL23" s="10"/>
+      <c r="VM23" s="10"/>
+      <c r="VN23" s="10"/>
+      <c r="VO23" s="10"/>
+      <c r="VP23" s="10"/>
+      <c r="VQ23" s="10"/>
+      <c r="VR23" s="10"/>
+      <c r="VS23" s="10"/>
+      <c r="VT23" s="10"/>
+      <c r="VU23" s="10"/>
+      <c r="VV23" s="10"/>
+      <c r="VW23" s="10"/>
+      <c r="VX23" s="10"/>
+      <c r="VY23" s="10"/>
+      <c r="VZ23" s="10"/>
+      <c r="WA23" s="10"/>
+      <c r="WB23" s="10"/>
+      <c r="WC23" s="10"/>
+      <c r="WD23" s="10"/>
+      <c r="WE23" s="10"/>
+      <c r="WF23" s="10"/>
+      <c r="WG23" s="10"/>
+      <c r="WH23" s="10"/>
+      <c r="WI23" s="10"/>
+      <c r="WJ23" s="10"/>
+      <c r="WK23" s="10"/>
+      <c r="WL23" s="10"/>
+      <c r="WM23" s="10"/>
+      <c r="WN23" s="10"/>
+      <c r="WO23" s="10"/>
+      <c r="WP23" s="10"/>
+      <c r="WQ23" s="10"/>
+      <c r="WR23" s="10"/>
+      <c r="WS23" s="10"/>
+      <c r="WT23" s="10"/>
+      <c r="WU23" s="10"/>
+      <c r="WV23" s="10"/>
+      <c r="WW23" s="10"/>
+      <c r="WX23" s="10"/>
+      <c r="WY23" s="10"/>
+      <c r="WZ23" s="10"/>
+      <c r="XA23" s="10"/>
+      <c r="XB23" s="10"/>
+      <c r="XC23" s="10"/>
+      <c r="XD23" s="10"/>
+      <c r="XE23" s="10"/>
+      <c r="XF23" s="10"/>
+      <c r="XG23" s="10"/>
+      <c r="XH23" s="10"/>
+      <c r="XI23" s="10"/>
+      <c r="XJ23" s="10"/>
+      <c r="XK23" s="10"/>
+      <c r="XL23" s="10"/>
+      <c r="XM23" s="10"/>
+      <c r="XN23" s="10"/>
+      <c r="XO23" s="10"/>
+      <c r="XP23" s="10"/>
+      <c r="XQ23" s="10"/>
+      <c r="XR23" s="10"/>
+      <c r="XS23" s="10"/>
+      <c r="XT23" s="10"/>
+      <c r="XU23" s="10"/>
+      <c r="XV23" s="10"/>
+      <c r="XW23" s="10"/>
+      <c r="XX23" s="10"/>
+      <c r="XY23" s="10"/>
+      <c r="XZ23" s="10"/>
+      <c r="YA23" s="10"/>
+      <c r="YB23" s="10"/>
+      <c r="YC23" s="10"/>
+      <c r="YD23" s="10"/>
+      <c r="YE23" s="10"/>
+      <c r="YF23" s="10"/>
+      <c r="YG23" s="10"/>
+      <c r="YH23" s="10"/>
+      <c r="YI23" s="10"/>
+      <c r="YJ23" s="10"/>
+      <c r="YK23" s="10"/>
+      <c r="YL23" s="10"/>
+      <c r="YM23" s="10"/>
+      <c r="YN23" s="10"/>
+      <c r="YO23" s="10"/>
+      <c r="YP23" s="10"/>
+      <c r="YQ23" s="10"/>
+      <c r="YR23" s="10"/>
+      <c r="YS23" s="10"/>
+      <c r="YT23" s="10"/>
+      <c r="YU23" s="10"/>
+      <c r="YV23" s="10"/>
+      <c r="YW23" s="10"/>
+      <c r="YX23" s="10"/>
+      <c r="YY23" s="10"/>
+      <c r="YZ23" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>

--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.0-alpha.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.3</t>
   </si>
   <si>
     <t>[px2-clover] Sitemap</t>
   </si>
   <si>
-    <t>Exported: 2023-04-05 09:52:55</t>
+    <t>Exported: 2024-09-22 22:33:46</t>
   </si>
   <si>
     <t>ページID</t>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>/testpage_a/e/test.html</t>
+  </si>
+  <si>
+    <t>No Content</t>
+  </si>
+  <si>
+    <t>/testpage_a/no_content.html</t>
   </si>
   <si>
     <t>Test Page B</t>
@@ -703,13 +709,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:YZ23"/>
+  <dimension ref="A1:YZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="YZ23" sqref="YZ23"/>
+      <selection pane="bottomRight" activeCell="YZ24" sqref="YZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,9 +734,9 @@
     <col min="12" max="12" width="20" customWidth="true" style="0"/>
     <col min="14" max="14" width="3" customWidth="true" style="0"/>
     <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="17" max="17" width="30" customWidth="true" style="0"/>
     <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
     <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1821,10 +1827,10 @@
     <row r="16" spans="1:676">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
@@ -1843,9 +1849,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="4">
-        <v>1</v>
-      </c>
+      <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -1857,10 +1861,10 @@
     <row r="17" spans="1:676">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
@@ -1879,7 +1883,9 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="4"/>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -1906,7 +1912,9 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="9"/>
@@ -1955,10 +1963,10 @@
     <row r="20" spans="1:676">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="4"/>
@@ -1968,20 +1976,14 @@
       <c r="K20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="4">
-        <v>1</v>
-      </c>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
@@ -1990,685 +1992,723 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="23" spans="1:676" customHeight="1" ht="5">
-      <c r="A23" s="10" t="s">
+    <row r="21" spans="1:676">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
-      <c r="BF23" s="10"/>
-      <c r="BG23" s="10"/>
-      <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
-      <c r="BJ23" s="10"/>
-      <c r="BK23" s="10"/>
-      <c r="BL23" s="10"/>
-      <c r="BM23" s="10"/>
-      <c r="BN23" s="10"/>
-      <c r="BO23" s="10"/>
-      <c r="BP23" s="10"/>
-      <c r="BQ23" s="10"/>
-      <c r="BR23" s="10"/>
-      <c r="BS23" s="10"/>
-      <c r="BT23" s="10"/>
-      <c r="BU23" s="10"/>
-      <c r="BV23" s="10"/>
-      <c r="BW23" s="10"/>
-      <c r="BX23" s="10"/>
-      <c r="BY23" s="10"/>
-      <c r="BZ23" s="10"/>
-      <c r="CA23" s="10"/>
-      <c r="CB23" s="10"/>
-      <c r="CC23" s="10"/>
-      <c r="CD23" s="10"/>
-      <c r="CE23" s="10"/>
-      <c r="CF23" s="10"/>
-      <c r="CG23" s="10"/>
-      <c r="CH23" s="10"/>
-      <c r="CI23" s="10"/>
-      <c r="CJ23" s="10"/>
-      <c r="CK23" s="10"/>
-      <c r="CL23" s="10"/>
-      <c r="CM23" s="10"/>
-      <c r="CN23" s="10"/>
-      <c r="CO23" s="10"/>
-      <c r="CP23" s="10"/>
-      <c r="CQ23" s="10"/>
-      <c r="CR23" s="10"/>
-      <c r="CS23" s="10"/>
-      <c r="CT23" s="10"/>
-      <c r="CU23" s="10"/>
-      <c r="CV23" s="10"/>
-      <c r="CW23" s="10"/>
-      <c r="CX23" s="10"/>
-      <c r="CY23" s="10"/>
-      <c r="CZ23" s="10"/>
-      <c r="DA23" s="10"/>
-      <c r="DB23" s="10"/>
-      <c r="DC23" s="10"/>
-      <c r="DD23" s="10"/>
-      <c r="DE23" s="10"/>
-      <c r="DF23" s="10"/>
-      <c r="DG23" s="10"/>
-      <c r="DH23" s="10"/>
-      <c r="DI23" s="10"/>
-      <c r="DJ23" s="10"/>
-      <c r="DK23" s="10"/>
-      <c r="DL23" s="10"/>
-      <c r="DM23" s="10"/>
-      <c r="DN23" s="10"/>
-      <c r="DO23" s="10"/>
-      <c r="DP23" s="10"/>
-      <c r="DQ23" s="10"/>
-      <c r="DR23" s="10"/>
-      <c r="DS23" s="10"/>
-      <c r="DT23" s="10"/>
-      <c r="DU23" s="10"/>
-      <c r="DV23" s="10"/>
-      <c r="DW23" s="10"/>
-      <c r="DX23" s="10"/>
-      <c r="DY23" s="10"/>
-      <c r="DZ23" s="10"/>
-      <c r="EA23" s="10"/>
-      <c r="EB23" s="10"/>
-      <c r="EC23" s="10"/>
-      <c r="ED23" s="10"/>
-      <c r="EE23" s="10"/>
-      <c r="EF23" s="10"/>
-      <c r="EG23" s="10"/>
-      <c r="EH23" s="10"/>
-      <c r="EI23" s="10"/>
-      <c r="EJ23" s="10"/>
-      <c r="EK23" s="10"/>
-      <c r="EL23" s="10"/>
-      <c r="EM23" s="10"/>
-      <c r="EN23" s="10"/>
-      <c r="EO23" s="10"/>
-      <c r="EP23" s="10"/>
-      <c r="EQ23" s="10"/>
-      <c r="ER23" s="10"/>
-      <c r="ES23" s="10"/>
-      <c r="ET23" s="10"/>
-      <c r="EU23" s="10"/>
-      <c r="EV23" s="10"/>
-      <c r="EW23" s="10"/>
-      <c r="EX23" s="10"/>
-      <c r="EY23" s="10"/>
-      <c r="EZ23" s="10"/>
-      <c r="FA23" s="10"/>
-      <c r="FB23" s="10"/>
-      <c r="FC23" s="10"/>
-      <c r="FD23" s="10"/>
-      <c r="FE23" s="10"/>
-      <c r="FF23" s="10"/>
-      <c r="FG23" s="10"/>
-      <c r="FH23" s="10"/>
-      <c r="FI23" s="10"/>
-      <c r="FJ23" s="10"/>
-      <c r="FK23" s="10"/>
-      <c r="FL23" s="10"/>
-      <c r="FM23" s="10"/>
-      <c r="FN23" s="10"/>
-      <c r="FO23" s="10"/>
-      <c r="FP23" s="10"/>
-      <c r="FQ23" s="10"/>
-      <c r="FR23" s="10"/>
-      <c r="FS23" s="10"/>
-      <c r="FT23" s="10"/>
-      <c r="FU23" s="10"/>
-      <c r="FV23" s="10"/>
-      <c r="FW23" s="10"/>
-      <c r="FX23" s="10"/>
-      <c r="FY23" s="10"/>
-      <c r="FZ23" s="10"/>
-      <c r="GA23" s="10"/>
-      <c r="GB23" s="10"/>
-      <c r="GC23" s="10"/>
-      <c r="GD23" s="10"/>
-      <c r="GE23" s="10"/>
-      <c r="GF23" s="10"/>
-      <c r="GG23" s="10"/>
-      <c r="GH23" s="10"/>
-      <c r="GI23" s="10"/>
-      <c r="GJ23" s="10"/>
-      <c r="GK23" s="10"/>
-      <c r="GL23" s="10"/>
-      <c r="GM23" s="10"/>
-      <c r="GN23" s="10"/>
-      <c r="GO23" s="10"/>
-      <c r="GP23" s="10"/>
-      <c r="GQ23" s="10"/>
-      <c r="GR23" s="10"/>
-      <c r="GS23" s="10"/>
-      <c r="GT23" s="10"/>
-      <c r="GU23" s="10"/>
-      <c r="GV23" s="10"/>
-      <c r="GW23" s="10"/>
-      <c r="GX23" s="10"/>
-      <c r="GY23" s="10"/>
-      <c r="GZ23" s="10"/>
-      <c r="HA23" s="10"/>
-      <c r="HB23" s="10"/>
-      <c r="HC23" s="10"/>
-      <c r="HD23" s="10"/>
-      <c r="HE23" s="10"/>
-      <c r="HF23" s="10"/>
-      <c r="HG23" s="10"/>
-      <c r="HH23" s="10"/>
-      <c r="HI23" s="10"/>
-      <c r="HJ23" s="10"/>
-      <c r="HK23" s="10"/>
-      <c r="HL23" s="10"/>
-      <c r="HM23" s="10"/>
-      <c r="HN23" s="10"/>
-      <c r="HO23" s="10"/>
-      <c r="HP23" s="10"/>
-      <c r="HQ23" s="10"/>
-      <c r="HR23" s="10"/>
-      <c r="HS23" s="10"/>
-      <c r="HT23" s="10"/>
-      <c r="HU23" s="10"/>
-      <c r="HV23" s="10"/>
-      <c r="HW23" s="10"/>
-      <c r="HX23" s="10"/>
-      <c r="HY23" s="10"/>
-      <c r="HZ23" s="10"/>
-      <c r="IA23" s="10"/>
-      <c r="IB23" s="10"/>
-      <c r="IC23" s="10"/>
-      <c r="ID23" s="10"/>
-      <c r="IE23" s="10"/>
-      <c r="IF23" s="10"/>
-      <c r="IG23" s="10"/>
-      <c r="IH23" s="10"/>
-      <c r="II23" s="10"/>
-      <c r="IJ23" s="10"/>
-      <c r="IK23" s="10"/>
-      <c r="IL23" s="10"/>
-      <c r="IM23" s="10"/>
-      <c r="IN23" s="10"/>
-      <c r="IO23" s="10"/>
-      <c r="IP23" s="10"/>
-      <c r="IQ23" s="10"/>
-      <c r="IR23" s="10"/>
-      <c r="IS23" s="10"/>
-      <c r="IT23" s="10"/>
-      <c r="IU23" s="10"/>
-      <c r="IV23" s="10"/>
-      <c r="IW23" s="10"/>
-      <c r="IX23" s="10"/>
-      <c r="IY23" s="10"/>
-      <c r="IZ23" s="10"/>
-      <c r="JA23" s="10"/>
-      <c r="JB23" s="10"/>
-      <c r="JC23" s="10"/>
-      <c r="JD23" s="10"/>
-      <c r="JE23" s="10"/>
-      <c r="JF23" s="10"/>
-      <c r="JG23" s="10"/>
-      <c r="JH23" s="10"/>
-      <c r="JI23" s="10"/>
-      <c r="JJ23" s="10"/>
-      <c r="JK23" s="10"/>
-      <c r="JL23" s="10"/>
-      <c r="JM23" s="10"/>
-      <c r="JN23" s="10"/>
-      <c r="JO23" s="10"/>
-      <c r="JP23" s="10"/>
-      <c r="JQ23" s="10"/>
-      <c r="JR23" s="10"/>
-      <c r="JS23" s="10"/>
-      <c r="JT23" s="10"/>
-      <c r="JU23" s="10"/>
-      <c r="JV23" s="10"/>
-      <c r="JW23" s="10"/>
-      <c r="JX23" s="10"/>
-      <c r="JY23" s="10"/>
-      <c r="JZ23" s="10"/>
-      <c r="KA23" s="10"/>
-      <c r="KB23" s="10"/>
-      <c r="KC23" s="10"/>
-      <c r="KD23" s="10"/>
-      <c r="KE23" s="10"/>
-      <c r="KF23" s="10"/>
-      <c r="KG23" s="10"/>
-      <c r="KH23" s="10"/>
-      <c r="KI23" s="10"/>
-      <c r="KJ23" s="10"/>
-      <c r="KK23" s="10"/>
-      <c r="KL23" s="10"/>
-      <c r="KM23" s="10"/>
-      <c r="KN23" s="10"/>
-      <c r="KO23" s="10"/>
-      <c r="KP23" s="10"/>
-      <c r="KQ23" s="10"/>
-      <c r="KR23" s="10"/>
-      <c r="KS23" s="10"/>
-      <c r="KT23" s="10"/>
-      <c r="KU23" s="10"/>
-      <c r="KV23" s="10"/>
-      <c r="KW23" s="10"/>
-      <c r="KX23" s="10"/>
-      <c r="KY23" s="10"/>
-      <c r="KZ23" s="10"/>
-      <c r="LA23" s="10"/>
-      <c r="LB23" s="10"/>
-      <c r="LC23" s="10"/>
-      <c r="LD23" s="10"/>
-      <c r="LE23" s="10"/>
-      <c r="LF23" s="10"/>
-      <c r="LG23" s="10"/>
-      <c r="LH23" s="10"/>
-      <c r="LI23" s="10"/>
-      <c r="LJ23" s="10"/>
-      <c r="LK23" s="10"/>
-      <c r="LL23" s="10"/>
-      <c r="LM23" s="10"/>
-      <c r="LN23" s="10"/>
-      <c r="LO23" s="10"/>
-      <c r="LP23" s="10"/>
-      <c r="LQ23" s="10"/>
-      <c r="LR23" s="10"/>
-      <c r="LS23" s="10"/>
-      <c r="LT23" s="10"/>
-      <c r="LU23" s="10"/>
-      <c r="LV23" s="10"/>
-      <c r="LW23" s="10"/>
-      <c r="LX23" s="10"/>
-      <c r="LY23" s="10"/>
-      <c r="LZ23" s="10"/>
-      <c r="MA23" s="10"/>
-      <c r="MB23" s="10"/>
-      <c r="MC23" s="10"/>
-      <c r="MD23" s="10"/>
-      <c r="ME23" s="10"/>
-      <c r="MF23" s="10"/>
-      <c r="MG23" s="10"/>
-      <c r="MH23" s="10"/>
-      <c r="MI23" s="10"/>
-      <c r="MJ23" s="10"/>
-      <c r="MK23" s="10"/>
-      <c r="ML23" s="10"/>
-      <c r="MM23" s="10"/>
-      <c r="MN23" s="10"/>
-      <c r="MO23" s="10"/>
-      <c r="MP23" s="10"/>
-      <c r="MQ23" s="10"/>
-      <c r="MR23" s="10"/>
-      <c r="MS23" s="10"/>
-      <c r="MT23" s="10"/>
-      <c r="MU23" s="10"/>
-      <c r="MV23" s="10"/>
-      <c r="MW23" s="10"/>
-      <c r="MX23" s="10"/>
-      <c r="MY23" s="10"/>
-      <c r="MZ23" s="10"/>
-      <c r="NA23" s="10"/>
-      <c r="NB23" s="10"/>
-      <c r="NC23" s="10"/>
-      <c r="ND23" s="10"/>
-      <c r="NE23" s="10"/>
-      <c r="NF23" s="10"/>
-      <c r="NG23" s="10"/>
-      <c r="NH23" s="10"/>
-      <c r="NI23" s="10"/>
-      <c r="NJ23" s="10"/>
-      <c r="NK23" s="10"/>
-      <c r="NL23" s="10"/>
-      <c r="NM23" s="10"/>
-      <c r="NN23" s="10"/>
-      <c r="NO23" s="10"/>
-      <c r="NP23" s="10"/>
-      <c r="NQ23" s="10"/>
-      <c r="NR23" s="10"/>
-      <c r="NS23" s="10"/>
-      <c r="NT23" s="10"/>
-      <c r="NU23" s="10"/>
-      <c r="NV23" s="10"/>
-      <c r="NW23" s="10"/>
-      <c r="NX23" s="10"/>
-      <c r="NY23" s="10"/>
-      <c r="NZ23" s="10"/>
-      <c r="OA23" s="10"/>
-      <c r="OB23" s="10"/>
-      <c r="OC23" s="10"/>
-      <c r="OD23" s="10"/>
-      <c r="OE23" s="10"/>
-      <c r="OF23" s="10"/>
-      <c r="OG23" s="10"/>
-      <c r="OH23" s="10"/>
-      <c r="OI23" s="10"/>
-      <c r="OJ23" s="10"/>
-      <c r="OK23" s="10"/>
-      <c r="OL23" s="10"/>
-      <c r="OM23" s="10"/>
-      <c r="ON23" s="10"/>
-      <c r="OO23" s="10"/>
-      <c r="OP23" s="10"/>
-      <c r="OQ23" s="10"/>
-      <c r="OR23" s="10"/>
-      <c r="OS23" s="10"/>
-      <c r="OT23" s="10"/>
-      <c r="OU23" s="10"/>
-      <c r="OV23" s="10"/>
-      <c r="OW23" s="10"/>
-      <c r="OX23" s="10"/>
-      <c r="OY23" s="10"/>
-      <c r="OZ23" s="10"/>
-      <c r="PA23" s="10"/>
-      <c r="PB23" s="10"/>
-      <c r="PC23" s="10"/>
-      <c r="PD23" s="10"/>
-      <c r="PE23" s="10"/>
-      <c r="PF23" s="10"/>
-      <c r="PG23" s="10"/>
-      <c r="PH23" s="10"/>
-      <c r="PI23" s="10"/>
-      <c r="PJ23" s="10"/>
-      <c r="PK23" s="10"/>
-      <c r="PL23" s="10"/>
-      <c r="PM23" s="10"/>
-      <c r="PN23" s="10"/>
-      <c r="PO23" s="10"/>
-      <c r="PP23" s="10"/>
-      <c r="PQ23" s="10"/>
-      <c r="PR23" s="10"/>
-      <c r="PS23" s="10"/>
-      <c r="PT23" s="10"/>
-      <c r="PU23" s="10"/>
-      <c r="PV23" s="10"/>
-      <c r="PW23" s="10"/>
-      <c r="PX23" s="10"/>
-      <c r="PY23" s="10"/>
-      <c r="PZ23" s="10"/>
-      <c r="QA23" s="10"/>
-      <c r="QB23" s="10"/>
-      <c r="QC23" s="10"/>
-      <c r="QD23" s="10"/>
-      <c r="QE23" s="10"/>
-      <c r="QF23" s="10"/>
-      <c r="QG23" s="10"/>
-      <c r="QH23" s="10"/>
-      <c r="QI23" s="10"/>
-      <c r="QJ23" s="10"/>
-      <c r="QK23" s="10"/>
-      <c r="QL23" s="10"/>
-      <c r="QM23" s="10"/>
-      <c r="QN23" s="10"/>
-      <c r="QO23" s="10"/>
-      <c r="QP23" s="10"/>
-      <c r="QQ23" s="10"/>
-      <c r="QR23" s="10"/>
-      <c r="QS23" s="10"/>
-      <c r="QT23" s="10"/>
-      <c r="QU23" s="10"/>
-      <c r="QV23" s="10"/>
-      <c r="QW23" s="10"/>
-      <c r="QX23" s="10"/>
-      <c r="QY23" s="10"/>
-      <c r="QZ23" s="10"/>
-      <c r="RA23" s="10"/>
-      <c r="RB23" s="10"/>
-      <c r="RC23" s="10"/>
-      <c r="RD23" s="10"/>
-      <c r="RE23" s="10"/>
-      <c r="RF23" s="10"/>
-      <c r="RG23" s="10"/>
-      <c r="RH23" s="10"/>
-      <c r="RI23" s="10"/>
-      <c r="RJ23" s="10"/>
-      <c r="RK23" s="10"/>
-      <c r="RL23" s="10"/>
-      <c r="RM23" s="10"/>
-      <c r="RN23" s="10"/>
-      <c r="RO23" s="10"/>
-      <c r="RP23" s="10"/>
-      <c r="RQ23" s="10"/>
-      <c r="RR23" s="10"/>
-      <c r="RS23" s="10"/>
-      <c r="RT23" s="10"/>
-      <c r="RU23" s="10"/>
-      <c r="RV23" s="10"/>
-      <c r="RW23" s="10"/>
-      <c r="RX23" s="10"/>
-      <c r="RY23" s="10"/>
-      <c r="RZ23" s="10"/>
-      <c r="SA23" s="10"/>
-      <c r="SB23" s="10"/>
-      <c r="SC23" s="10"/>
-      <c r="SD23" s="10"/>
-      <c r="SE23" s="10"/>
-      <c r="SF23" s="10"/>
-      <c r="SG23" s="10"/>
-      <c r="SH23" s="10"/>
-      <c r="SI23" s="10"/>
-      <c r="SJ23" s="10"/>
-      <c r="SK23" s="10"/>
-      <c r="SL23" s="10"/>
-      <c r="SM23" s="10"/>
-      <c r="SN23" s="10"/>
-      <c r="SO23" s="10"/>
-      <c r="SP23" s="10"/>
-      <c r="SQ23" s="10"/>
-      <c r="SR23" s="10"/>
-      <c r="SS23" s="10"/>
-      <c r="ST23" s="10"/>
-      <c r="SU23" s="10"/>
-      <c r="SV23" s="10"/>
-      <c r="SW23" s="10"/>
-      <c r="SX23" s="10"/>
-      <c r="SY23" s="10"/>
-      <c r="SZ23" s="10"/>
-      <c r="TA23" s="10"/>
-      <c r="TB23" s="10"/>
-      <c r="TC23" s="10"/>
-      <c r="TD23" s="10"/>
-      <c r="TE23" s="10"/>
-      <c r="TF23" s="10"/>
-      <c r="TG23" s="10"/>
-      <c r="TH23" s="10"/>
-      <c r="TI23" s="10"/>
-      <c r="TJ23" s="10"/>
-      <c r="TK23" s="10"/>
-      <c r="TL23" s="10"/>
-      <c r="TM23" s="10"/>
-      <c r="TN23" s="10"/>
-      <c r="TO23" s="10"/>
-      <c r="TP23" s="10"/>
-      <c r="TQ23" s="10"/>
-      <c r="TR23" s="10"/>
-      <c r="TS23" s="10"/>
-      <c r="TT23" s="10"/>
-      <c r="TU23" s="10"/>
-      <c r="TV23" s="10"/>
-      <c r="TW23" s="10"/>
-      <c r="TX23" s="10"/>
-      <c r="TY23" s="10"/>
-      <c r="TZ23" s="10"/>
-      <c r="UA23" s="10"/>
-      <c r="UB23" s="10"/>
-      <c r="UC23" s="10"/>
-      <c r="UD23" s="10"/>
-      <c r="UE23" s="10"/>
-      <c r="UF23" s="10"/>
-      <c r="UG23" s="10"/>
-      <c r="UH23" s="10"/>
-      <c r="UI23" s="10"/>
-      <c r="UJ23" s="10"/>
-      <c r="UK23" s="10"/>
-      <c r="UL23" s="10"/>
-      <c r="UM23" s="10"/>
-      <c r="UN23" s="10"/>
-      <c r="UO23" s="10"/>
-      <c r="UP23" s="10"/>
-      <c r="UQ23" s="10"/>
-      <c r="UR23" s="10"/>
-      <c r="US23" s="10"/>
-      <c r="UT23" s="10"/>
-      <c r="UU23" s="10"/>
-      <c r="UV23" s="10"/>
-      <c r="UW23" s="10"/>
-      <c r="UX23" s="10"/>
-      <c r="UY23" s="10"/>
-      <c r="UZ23" s="10"/>
-      <c r="VA23" s="10"/>
-      <c r="VB23" s="10"/>
-      <c r="VC23" s="10"/>
-      <c r="VD23" s="10"/>
-      <c r="VE23" s="10"/>
-      <c r="VF23" s="10"/>
-      <c r="VG23" s="10"/>
-      <c r="VH23" s="10"/>
-      <c r="VI23" s="10"/>
-      <c r="VJ23" s="10"/>
-      <c r="VK23" s="10"/>
-      <c r="VL23" s="10"/>
-      <c r="VM23" s="10"/>
-      <c r="VN23" s="10"/>
-      <c r="VO23" s="10"/>
-      <c r="VP23" s="10"/>
-      <c r="VQ23" s="10"/>
-      <c r="VR23" s="10"/>
-      <c r="VS23" s="10"/>
-      <c r="VT23" s="10"/>
-      <c r="VU23" s="10"/>
-      <c r="VV23" s="10"/>
-      <c r="VW23" s="10"/>
-      <c r="VX23" s="10"/>
-      <c r="VY23" s="10"/>
-      <c r="VZ23" s="10"/>
-      <c r="WA23" s="10"/>
-      <c r="WB23" s="10"/>
-      <c r="WC23" s="10"/>
-      <c r="WD23" s="10"/>
-      <c r="WE23" s="10"/>
-      <c r="WF23" s="10"/>
-      <c r="WG23" s="10"/>
-      <c r="WH23" s="10"/>
-      <c r="WI23" s="10"/>
-      <c r="WJ23" s="10"/>
-      <c r="WK23" s="10"/>
-      <c r="WL23" s="10"/>
-      <c r="WM23" s="10"/>
-      <c r="WN23" s="10"/>
-      <c r="WO23" s="10"/>
-      <c r="WP23" s="10"/>
-      <c r="WQ23" s="10"/>
-      <c r="WR23" s="10"/>
-      <c r="WS23" s="10"/>
-      <c r="WT23" s="10"/>
-      <c r="WU23" s="10"/>
-      <c r="WV23" s="10"/>
-      <c r="WW23" s="10"/>
-      <c r="WX23" s="10"/>
-      <c r="WY23" s="10"/>
-      <c r="WZ23" s="10"/>
-      <c r="XA23" s="10"/>
-      <c r="XB23" s="10"/>
-      <c r="XC23" s="10"/>
-      <c r="XD23" s="10"/>
-      <c r="XE23" s="10"/>
-      <c r="XF23" s="10"/>
-      <c r="XG23" s="10"/>
-      <c r="XH23" s="10"/>
-      <c r="XI23" s="10"/>
-      <c r="XJ23" s="10"/>
-      <c r="XK23" s="10"/>
-      <c r="XL23" s="10"/>
-      <c r="XM23" s="10"/>
-      <c r="XN23" s="10"/>
-      <c r="XO23" s="10"/>
-      <c r="XP23" s="10"/>
-      <c r="XQ23" s="10"/>
-      <c r="XR23" s="10"/>
-      <c r="XS23" s="10"/>
-      <c r="XT23" s="10"/>
-      <c r="XU23" s="10"/>
-      <c r="XV23" s="10"/>
-      <c r="XW23" s="10"/>
-      <c r="XX23" s="10"/>
-      <c r="XY23" s="10"/>
-      <c r="XZ23" s="10"/>
-      <c r="YA23" s="10"/>
-      <c r="YB23" s="10"/>
-      <c r="YC23" s="10"/>
-      <c r="YD23" s="10"/>
-      <c r="YE23" s="10"/>
-      <c r="YF23" s="10"/>
-      <c r="YG23" s="10"/>
-      <c r="YH23" s="10"/>
-      <c r="YI23" s="10"/>
-      <c r="YJ23" s="10"/>
-      <c r="YK23" s="10"/>
-      <c r="YL23" s="10"/>
-      <c r="YM23" s="10"/>
-      <c r="YN23" s="10"/>
-      <c r="YO23" s="10"/>
-      <c r="YP23" s="10"/>
-      <c r="YQ23" s="10"/>
-      <c r="YR23" s="10"/>
-      <c r="YS23" s="10"/>
-      <c r="YT23" s="10"/>
-      <c r="YU23" s="10"/>
-      <c r="YV23" s="10"/>
-      <c r="YW23" s="10"/>
-      <c r="YX23" s="10"/>
-      <c r="YY23" s="10"/>
-      <c r="YZ23" s="10"/>
+      <c r="L21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="24" spans="1:676" customHeight="1" ht="5">
+      <c r="A24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="10"/>
+      <c r="BM24" s="10"/>
+      <c r="BN24" s="10"/>
+      <c r="BO24" s="10"/>
+      <c r="BP24" s="10"/>
+      <c r="BQ24" s="10"/>
+      <c r="BR24" s="10"/>
+      <c r="BS24" s="10"/>
+      <c r="BT24" s="10"/>
+      <c r="BU24" s="10"/>
+      <c r="BV24" s="10"/>
+      <c r="BW24" s="10"/>
+      <c r="BX24" s="10"/>
+      <c r="BY24" s="10"/>
+      <c r="BZ24" s="10"/>
+      <c r="CA24" s="10"/>
+      <c r="CB24" s="10"/>
+      <c r="CC24" s="10"/>
+      <c r="CD24" s="10"/>
+      <c r="CE24" s="10"/>
+      <c r="CF24" s="10"/>
+      <c r="CG24" s="10"/>
+      <c r="CH24" s="10"/>
+      <c r="CI24" s="10"/>
+      <c r="CJ24" s="10"/>
+      <c r="CK24" s="10"/>
+      <c r="CL24" s="10"/>
+      <c r="CM24" s="10"/>
+      <c r="CN24" s="10"/>
+      <c r="CO24" s="10"/>
+      <c r="CP24" s="10"/>
+      <c r="CQ24" s="10"/>
+      <c r="CR24" s="10"/>
+      <c r="CS24" s="10"/>
+      <c r="CT24" s="10"/>
+      <c r="CU24" s="10"/>
+      <c r="CV24" s="10"/>
+      <c r="CW24" s="10"/>
+      <c r="CX24" s="10"/>
+      <c r="CY24" s="10"/>
+      <c r="CZ24" s="10"/>
+      <c r="DA24" s="10"/>
+      <c r="DB24" s="10"/>
+      <c r="DC24" s="10"/>
+      <c r="DD24" s="10"/>
+      <c r="DE24" s="10"/>
+      <c r="DF24" s="10"/>
+      <c r="DG24" s="10"/>
+      <c r="DH24" s="10"/>
+      <c r="DI24" s="10"/>
+      <c r="DJ24" s="10"/>
+      <c r="DK24" s="10"/>
+      <c r="DL24" s="10"/>
+      <c r="DM24" s="10"/>
+      <c r="DN24" s="10"/>
+      <c r="DO24" s="10"/>
+      <c r="DP24" s="10"/>
+      <c r="DQ24" s="10"/>
+      <c r="DR24" s="10"/>
+      <c r="DS24" s="10"/>
+      <c r="DT24" s="10"/>
+      <c r="DU24" s="10"/>
+      <c r="DV24" s="10"/>
+      <c r="DW24" s="10"/>
+      <c r="DX24" s="10"/>
+      <c r="DY24" s="10"/>
+      <c r="DZ24" s="10"/>
+      <c r="EA24" s="10"/>
+      <c r="EB24" s="10"/>
+      <c r="EC24" s="10"/>
+      <c r="ED24" s="10"/>
+      <c r="EE24" s="10"/>
+      <c r="EF24" s="10"/>
+      <c r="EG24" s="10"/>
+      <c r="EH24" s="10"/>
+      <c r="EI24" s="10"/>
+      <c r="EJ24" s="10"/>
+      <c r="EK24" s="10"/>
+      <c r="EL24" s="10"/>
+      <c r="EM24" s="10"/>
+      <c r="EN24" s="10"/>
+      <c r="EO24" s="10"/>
+      <c r="EP24" s="10"/>
+      <c r="EQ24" s="10"/>
+      <c r="ER24" s="10"/>
+      <c r="ES24" s="10"/>
+      <c r="ET24" s="10"/>
+      <c r="EU24" s="10"/>
+      <c r="EV24" s="10"/>
+      <c r="EW24" s="10"/>
+      <c r="EX24" s="10"/>
+      <c r="EY24" s="10"/>
+      <c r="EZ24" s="10"/>
+      <c r="FA24" s="10"/>
+      <c r="FB24" s="10"/>
+      <c r="FC24" s="10"/>
+      <c r="FD24" s="10"/>
+      <c r="FE24" s="10"/>
+      <c r="FF24" s="10"/>
+      <c r="FG24" s="10"/>
+      <c r="FH24" s="10"/>
+      <c r="FI24" s="10"/>
+      <c r="FJ24" s="10"/>
+      <c r="FK24" s="10"/>
+      <c r="FL24" s="10"/>
+      <c r="FM24" s="10"/>
+      <c r="FN24" s="10"/>
+      <c r="FO24" s="10"/>
+      <c r="FP24" s="10"/>
+      <c r="FQ24" s="10"/>
+      <c r="FR24" s="10"/>
+      <c r="FS24" s="10"/>
+      <c r="FT24" s="10"/>
+      <c r="FU24" s="10"/>
+      <c r="FV24" s="10"/>
+      <c r="FW24" s="10"/>
+      <c r="FX24" s="10"/>
+      <c r="FY24" s="10"/>
+      <c r="FZ24" s="10"/>
+      <c r="GA24" s="10"/>
+      <c r="GB24" s="10"/>
+      <c r="GC24" s="10"/>
+      <c r="GD24" s="10"/>
+      <c r="GE24" s="10"/>
+      <c r="GF24" s="10"/>
+      <c r="GG24" s="10"/>
+      <c r="GH24" s="10"/>
+      <c r="GI24" s="10"/>
+      <c r="GJ24" s="10"/>
+      <c r="GK24" s="10"/>
+      <c r="GL24" s="10"/>
+      <c r="GM24" s="10"/>
+      <c r="GN24" s="10"/>
+      <c r="GO24" s="10"/>
+      <c r="GP24" s="10"/>
+      <c r="GQ24" s="10"/>
+      <c r="GR24" s="10"/>
+      <c r="GS24" s="10"/>
+      <c r="GT24" s="10"/>
+      <c r="GU24" s="10"/>
+      <c r="GV24" s="10"/>
+      <c r="GW24" s="10"/>
+      <c r="GX24" s="10"/>
+      <c r="GY24" s="10"/>
+      <c r="GZ24" s="10"/>
+      <c r="HA24" s="10"/>
+      <c r="HB24" s="10"/>
+      <c r="HC24" s="10"/>
+      <c r="HD24" s="10"/>
+      <c r="HE24" s="10"/>
+      <c r="HF24" s="10"/>
+      <c r="HG24" s="10"/>
+      <c r="HH24" s="10"/>
+      <c r="HI24" s="10"/>
+      <c r="HJ24" s="10"/>
+      <c r="HK24" s="10"/>
+      <c r="HL24" s="10"/>
+      <c r="HM24" s="10"/>
+      <c r="HN24" s="10"/>
+      <c r="HO24" s="10"/>
+      <c r="HP24" s="10"/>
+      <c r="HQ24" s="10"/>
+      <c r="HR24" s="10"/>
+      <c r="HS24" s="10"/>
+      <c r="HT24" s="10"/>
+      <c r="HU24" s="10"/>
+      <c r="HV24" s="10"/>
+      <c r="HW24" s="10"/>
+      <c r="HX24" s="10"/>
+      <c r="HY24" s="10"/>
+      <c r="HZ24" s="10"/>
+      <c r="IA24" s="10"/>
+      <c r="IB24" s="10"/>
+      <c r="IC24" s="10"/>
+      <c r="ID24" s="10"/>
+      <c r="IE24" s="10"/>
+      <c r="IF24" s="10"/>
+      <c r="IG24" s="10"/>
+      <c r="IH24" s="10"/>
+      <c r="II24" s="10"/>
+      <c r="IJ24" s="10"/>
+      <c r="IK24" s="10"/>
+      <c r="IL24" s="10"/>
+      <c r="IM24" s="10"/>
+      <c r="IN24" s="10"/>
+      <c r="IO24" s="10"/>
+      <c r="IP24" s="10"/>
+      <c r="IQ24" s="10"/>
+      <c r="IR24" s="10"/>
+      <c r="IS24" s="10"/>
+      <c r="IT24" s="10"/>
+      <c r="IU24" s="10"/>
+      <c r="IV24" s="10"/>
+      <c r="IW24" s="10"/>
+      <c r="IX24" s="10"/>
+      <c r="IY24" s="10"/>
+      <c r="IZ24" s="10"/>
+      <c r="JA24" s="10"/>
+      <c r="JB24" s="10"/>
+      <c r="JC24" s="10"/>
+      <c r="JD24" s="10"/>
+      <c r="JE24" s="10"/>
+      <c r="JF24" s="10"/>
+      <c r="JG24" s="10"/>
+      <c r="JH24" s="10"/>
+      <c r="JI24" s="10"/>
+      <c r="JJ24" s="10"/>
+      <c r="JK24" s="10"/>
+      <c r="JL24" s="10"/>
+      <c r="JM24" s="10"/>
+      <c r="JN24" s="10"/>
+      <c r="JO24" s="10"/>
+      <c r="JP24" s="10"/>
+      <c r="JQ24" s="10"/>
+      <c r="JR24" s="10"/>
+      <c r="JS24" s="10"/>
+      <c r="JT24" s="10"/>
+      <c r="JU24" s="10"/>
+      <c r="JV24" s="10"/>
+      <c r="JW24" s="10"/>
+      <c r="JX24" s="10"/>
+      <c r="JY24" s="10"/>
+      <c r="JZ24" s="10"/>
+      <c r="KA24" s="10"/>
+      <c r="KB24" s="10"/>
+      <c r="KC24" s="10"/>
+      <c r="KD24" s="10"/>
+      <c r="KE24" s="10"/>
+      <c r="KF24" s="10"/>
+      <c r="KG24" s="10"/>
+      <c r="KH24" s="10"/>
+      <c r="KI24" s="10"/>
+      <c r="KJ24" s="10"/>
+      <c r="KK24" s="10"/>
+      <c r="KL24" s="10"/>
+      <c r="KM24" s="10"/>
+      <c r="KN24" s="10"/>
+      <c r="KO24" s="10"/>
+      <c r="KP24" s="10"/>
+      <c r="KQ24" s="10"/>
+      <c r="KR24" s="10"/>
+      <c r="KS24" s="10"/>
+      <c r="KT24" s="10"/>
+      <c r="KU24" s="10"/>
+      <c r="KV24" s="10"/>
+      <c r="KW24" s="10"/>
+      <c r="KX24" s="10"/>
+      <c r="KY24" s="10"/>
+      <c r="KZ24" s="10"/>
+      <c r="LA24" s="10"/>
+      <c r="LB24" s="10"/>
+      <c r="LC24" s="10"/>
+      <c r="LD24" s="10"/>
+      <c r="LE24" s="10"/>
+      <c r="LF24" s="10"/>
+      <c r="LG24" s="10"/>
+      <c r="LH24" s="10"/>
+      <c r="LI24" s="10"/>
+      <c r="LJ24" s="10"/>
+      <c r="LK24" s="10"/>
+      <c r="LL24" s="10"/>
+      <c r="LM24" s="10"/>
+      <c r="LN24" s="10"/>
+      <c r="LO24" s="10"/>
+      <c r="LP24" s="10"/>
+      <c r="LQ24" s="10"/>
+      <c r="LR24" s="10"/>
+      <c r="LS24" s="10"/>
+      <c r="LT24" s="10"/>
+      <c r="LU24" s="10"/>
+      <c r="LV24" s="10"/>
+      <c r="LW24" s="10"/>
+      <c r="LX24" s="10"/>
+      <c r="LY24" s="10"/>
+      <c r="LZ24" s="10"/>
+      <c r="MA24" s="10"/>
+      <c r="MB24" s="10"/>
+      <c r="MC24" s="10"/>
+      <c r="MD24" s="10"/>
+      <c r="ME24" s="10"/>
+      <c r="MF24" s="10"/>
+      <c r="MG24" s="10"/>
+      <c r="MH24" s="10"/>
+      <c r="MI24" s="10"/>
+      <c r="MJ24" s="10"/>
+      <c r="MK24" s="10"/>
+      <c r="ML24" s="10"/>
+      <c r="MM24" s="10"/>
+      <c r="MN24" s="10"/>
+      <c r="MO24" s="10"/>
+      <c r="MP24" s="10"/>
+      <c r="MQ24" s="10"/>
+      <c r="MR24" s="10"/>
+      <c r="MS24" s="10"/>
+      <c r="MT24" s="10"/>
+      <c r="MU24" s="10"/>
+      <c r="MV24" s="10"/>
+      <c r="MW24" s="10"/>
+      <c r="MX24" s="10"/>
+      <c r="MY24" s="10"/>
+      <c r="MZ24" s="10"/>
+      <c r="NA24" s="10"/>
+      <c r="NB24" s="10"/>
+      <c r="NC24" s="10"/>
+      <c r="ND24" s="10"/>
+      <c r="NE24" s="10"/>
+      <c r="NF24" s="10"/>
+      <c r="NG24" s="10"/>
+      <c r="NH24" s="10"/>
+      <c r="NI24" s="10"/>
+      <c r="NJ24" s="10"/>
+      <c r="NK24" s="10"/>
+      <c r="NL24" s="10"/>
+      <c r="NM24" s="10"/>
+      <c r="NN24" s="10"/>
+      <c r="NO24" s="10"/>
+      <c r="NP24" s="10"/>
+      <c r="NQ24" s="10"/>
+      <c r="NR24" s="10"/>
+      <c r="NS24" s="10"/>
+      <c r="NT24" s="10"/>
+      <c r="NU24" s="10"/>
+      <c r="NV24" s="10"/>
+      <c r="NW24" s="10"/>
+      <c r="NX24" s="10"/>
+      <c r="NY24" s="10"/>
+      <c r="NZ24" s="10"/>
+      <c r="OA24" s="10"/>
+      <c r="OB24" s="10"/>
+      <c r="OC24" s="10"/>
+      <c r="OD24" s="10"/>
+      <c r="OE24" s="10"/>
+      <c r="OF24" s="10"/>
+      <c r="OG24" s="10"/>
+      <c r="OH24" s="10"/>
+      <c r="OI24" s="10"/>
+      <c r="OJ24" s="10"/>
+      <c r="OK24" s="10"/>
+      <c r="OL24" s="10"/>
+      <c r="OM24" s="10"/>
+      <c r="ON24" s="10"/>
+      <c r="OO24" s="10"/>
+      <c r="OP24" s="10"/>
+      <c r="OQ24" s="10"/>
+      <c r="OR24" s="10"/>
+      <c r="OS24" s="10"/>
+      <c r="OT24" s="10"/>
+      <c r="OU24" s="10"/>
+      <c r="OV24" s="10"/>
+      <c r="OW24" s="10"/>
+      <c r="OX24" s="10"/>
+      <c r="OY24" s="10"/>
+      <c r="OZ24" s="10"/>
+      <c r="PA24" s="10"/>
+      <c r="PB24" s="10"/>
+      <c r="PC24" s="10"/>
+      <c r="PD24" s="10"/>
+      <c r="PE24" s="10"/>
+      <c r="PF24" s="10"/>
+      <c r="PG24" s="10"/>
+      <c r="PH24" s="10"/>
+      <c r="PI24" s="10"/>
+      <c r="PJ24" s="10"/>
+      <c r="PK24" s="10"/>
+      <c r="PL24" s="10"/>
+      <c r="PM24" s="10"/>
+      <c r="PN24" s="10"/>
+      <c r="PO24" s="10"/>
+      <c r="PP24" s="10"/>
+      <c r="PQ24" s="10"/>
+      <c r="PR24" s="10"/>
+      <c r="PS24" s="10"/>
+      <c r="PT24" s="10"/>
+      <c r="PU24" s="10"/>
+      <c r="PV24" s="10"/>
+      <c r="PW24" s="10"/>
+      <c r="PX24" s="10"/>
+      <c r="PY24" s="10"/>
+      <c r="PZ24" s="10"/>
+      <c r="QA24" s="10"/>
+      <c r="QB24" s="10"/>
+      <c r="QC24" s="10"/>
+      <c r="QD24" s="10"/>
+      <c r="QE24" s="10"/>
+      <c r="QF24" s="10"/>
+      <c r="QG24" s="10"/>
+      <c r="QH24" s="10"/>
+      <c r="QI24" s="10"/>
+      <c r="QJ24" s="10"/>
+      <c r="QK24" s="10"/>
+      <c r="QL24" s="10"/>
+      <c r="QM24" s="10"/>
+      <c r="QN24" s="10"/>
+      <c r="QO24" s="10"/>
+      <c r="QP24" s="10"/>
+      <c r="QQ24" s="10"/>
+      <c r="QR24" s="10"/>
+      <c r="QS24" s="10"/>
+      <c r="QT24" s="10"/>
+      <c r="QU24" s="10"/>
+      <c r="QV24" s="10"/>
+      <c r="QW24" s="10"/>
+      <c r="QX24" s="10"/>
+      <c r="QY24" s="10"/>
+      <c r="QZ24" s="10"/>
+      <c r="RA24" s="10"/>
+      <c r="RB24" s="10"/>
+      <c r="RC24" s="10"/>
+      <c r="RD24" s="10"/>
+      <c r="RE24" s="10"/>
+      <c r="RF24" s="10"/>
+      <c r="RG24" s="10"/>
+      <c r="RH24" s="10"/>
+      <c r="RI24" s="10"/>
+      <c r="RJ24" s="10"/>
+      <c r="RK24" s="10"/>
+      <c r="RL24" s="10"/>
+      <c r="RM24" s="10"/>
+      <c r="RN24" s="10"/>
+      <c r="RO24" s="10"/>
+      <c r="RP24" s="10"/>
+      <c r="RQ24" s="10"/>
+      <c r="RR24" s="10"/>
+      <c r="RS24" s="10"/>
+      <c r="RT24" s="10"/>
+      <c r="RU24" s="10"/>
+      <c r="RV24" s="10"/>
+      <c r="RW24" s="10"/>
+      <c r="RX24" s="10"/>
+      <c r="RY24" s="10"/>
+      <c r="RZ24" s="10"/>
+      <c r="SA24" s="10"/>
+      <c r="SB24" s="10"/>
+      <c r="SC24" s="10"/>
+      <c r="SD24" s="10"/>
+      <c r="SE24" s="10"/>
+      <c r="SF24" s="10"/>
+      <c r="SG24" s="10"/>
+      <c r="SH24" s="10"/>
+      <c r="SI24" s="10"/>
+      <c r="SJ24" s="10"/>
+      <c r="SK24" s="10"/>
+      <c r="SL24" s="10"/>
+      <c r="SM24" s="10"/>
+      <c r="SN24" s="10"/>
+      <c r="SO24" s="10"/>
+      <c r="SP24" s="10"/>
+      <c r="SQ24" s="10"/>
+      <c r="SR24" s="10"/>
+      <c r="SS24" s="10"/>
+      <c r="ST24" s="10"/>
+      <c r="SU24" s="10"/>
+      <c r="SV24" s="10"/>
+      <c r="SW24" s="10"/>
+      <c r="SX24" s="10"/>
+      <c r="SY24" s="10"/>
+      <c r="SZ24" s="10"/>
+      <c r="TA24" s="10"/>
+      <c r="TB24" s="10"/>
+      <c r="TC24" s="10"/>
+      <c r="TD24" s="10"/>
+      <c r="TE24" s="10"/>
+      <c r="TF24" s="10"/>
+      <c r="TG24" s="10"/>
+      <c r="TH24" s="10"/>
+      <c r="TI24" s="10"/>
+      <c r="TJ24" s="10"/>
+      <c r="TK24" s="10"/>
+      <c r="TL24" s="10"/>
+      <c r="TM24" s="10"/>
+      <c r="TN24" s="10"/>
+      <c r="TO24" s="10"/>
+      <c r="TP24" s="10"/>
+      <c r="TQ24" s="10"/>
+      <c r="TR24" s="10"/>
+      <c r="TS24" s="10"/>
+      <c r="TT24" s="10"/>
+      <c r="TU24" s="10"/>
+      <c r="TV24" s="10"/>
+      <c r="TW24" s="10"/>
+      <c r="TX24" s="10"/>
+      <c r="TY24" s="10"/>
+      <c r="TZ24" s="10"/>
+      <c r="UA24" s="10"/>
+      <c r="UB24" s="10"/>
+      <c r="UC24" s="10"/>
+      <c r="UD24" s="10"/>
+      <c r="UE24" s="10"/>
+      <c r="UF24" s="10"/>
+      <c r="UG24" s="10"/>
+      <c r="UH24" s="10"/>
+      <c r="UI24" s="10"/>
+      <c r="UJ24" s="10"/>
+      <c r="UK24" s="10"/>
+      <c r="UL24" s="10"/>
+      <c r="UM24" s="10"/>
+      <c r="UN24" s="10"/>
+      <c r="UO24" s="10"/>
+      <c r="UP24" s="10"/>
+      <c r="UQ24" s="10"/>
+      <c r="UR24" s="10"/>
+      <c r="US24" s="10"/>
+      <c r="UT24" s="10"/>
+      <c r="UU24" s="10"/>
+      <c r="UV24" s="10"/>
+      <c r="UW24" s="10"/>
+      <c r="UX24" s="10"/>
+      <c r="UY24" s="10"/>
+      <c r="UZ24" s="10"/>
+      <c r="VA24" s="10"/>
+      <c r="VB24" s="10"/>
+      <c r="VC24" s="10"/>
+      <c r="VD24" s="10"/>
+      <c r="VE24" s="10"/>
+      <c r="VF24" s="10"/>
+      <c r="VG24" s="10"/>
+      <c r="VH24" s="10"/>
+      <c r="VI24" s="10"/>
+      <c r="VJ24" s="10"/>
+      <c r="VK24" s="10"/>
+      <c r="VL24" s="10"/>
+      <c r="VM24" s="10"/>
+      <c r="VN24" s="10"/>
+      <c r="VO24" s="10"/>
+      <c r="VP24" s="10"/>
+      <c r="VQ24" s="10"/>
+      <c r="VR24" s="10"/>
+      <c r="VS24" s="10"/>
+      <c r="VT24" s="10"/>
+      <c r="VU24" s="10"/>
+      <c r="VV24" s="10"/>
+      <c r="VW24" s="10"/>
+      <c r="VX24" s="10"/>
+      <c r="VY24" s="10"/>
+      <c r="VZ24" s="10"/>
+      <c r="WA24" s="10"/>
+      <c r="WB24" s="10"/>
+      <c r="WC24" s="10"/>
+      <c r="WD24" s="10"/>
+      <c r="WE24" s="10"/>
+      <c r="WF24" s="10"/>
+      <c r="WG24" s="10"/>
+      <c r="WH24" s="10"/>
+      <c r="WI24" s="10"/>
+      <c r="WJ24" s="10"/>
+      <c r="WK24" s="10"/>
+      <c r="WL24" s="10"/>
+      <c r="WM24" s="10"/>
+      <c r="WN24" s="10"/>
+      <c r="WO24" s="10"/>
+      <c r="WP24" s="10"/>
+      <c r="WQ24" s="10"/>
+      <c r="WR24" s="10"/>
+      <c r="WS24" s="10"/>
+      <c r="WT24" s="10"/>
+      <c r="WU24" s="10"/>
+      <c r="WV24" s="10"/>
+      <c r="WW24" s="10"/>
+      <c r="WX24" s="10"/>
+      <c r="WY24" s="10"/>
+      <c r="WZ24" s="10"/>
+      <c r="XA24" s="10"/>
+      <c r="XB24" s="10"/>
+      <c r="XC24" s="10"/>
+      <c r="XD24" s="10"/>
+      <c r="XE24" s="10"/>
+      <c r="XF24" s="10"/>
+      <c r="XG24" s="10"/>
+      <c r="XH24" s="10"/>
+      <c r="XI24" s="10"/>
+      <c r="XJ24" s="10"/>
+      <c r="XK24" s="10"/>
+      <c r="XL24" s="10"/>
+      <c r="XM24" s="10"/>
+      <c r="XN24" s="10"/>
+      <c r="XO24" s="10"/>
+      <c r="XP24" s="10"/>
+      <c r="XQ24" s="10"/>
+      <c r="XR24" s="10"/>
+      <c r="XS24" s="10"/>
+      <c r="XT24" s="10"/>
+      <c r="XU24" s="10"/>
+      <c r="XV24" s="10"/>
+      <c r="XW24" s="10"/>
+      <c r="XX24" s="10"/>
+      <c r="XY24" s="10"/>
+      <c r="XZ24" s="10"/>
+      <c r="YA24" s="10"/>
+      <c r="YB24" s="10"/>
+      <c r="YC24" s="10"/>
+      <c r="YD24" s="10"/>
+      <c r="YE24" s="10"/>
+      <c r="YF24" s="10"/>
+      <c r="YG24" s="10"/>
+      <c r="YH24" s="10"/>
+      <c r="YI24" s="10"/>
+      <c r="YJ24" s="10"/>
+      <c r="YK24" s="10"/>
+      <c r="YL24" s="10"/>
+      <c r="YM24" s="10"/>
+      <c r="YN24" s="10"/>
+      <c r="YO24" s="10"/>
+      <c r="YP24" s="10"/>
+      <c r="YQ24" s="10"/>
+      <c r="YR24" s="10"/>
+      <c r="YS24" s="10"/>
+      <c r="YT24" s="10"/>
+      <c r="YU24" s="10"/>
+      <c r="YV24" s="10"/>
+      <c r="YW24" s="10"/>
+      <c r="YX24" s="10"/>
+      <c r="YY24" s="10"/>
+      <c r="YZ24" s="10"/>
     </row>
   </sheetData>
   <mergeCells>
